--- a/intermediateTables/鱼单价工具V2.xlsx
+++ b/intermediateTables/鱼单价工具V2.xlsx
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -138,13 +138,6 @@
       <charset val="134"/>
       <color rgb="FF990099"/>
       <sz val="9.75"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,7 +291,7 @@
       <color rgb="00990099"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill/>
     </fill>
@@ -535,12 +528,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -676,28 +663,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
@@ -706,122 +696,119 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,6 +890,9 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,10 +917,10 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1854,9 +1844,8 @@
           <cell r="E23">
             <v>3.5</v>
           </cell>
-          <cell r="F23" t="str">
-            <v>2场的浮钓，深坑底钓</v>
-          </cell>
+        </row>
+        <row r="23">
           <cell r="G23">
             <v>1000</v>
           </cell>
@@ -2299,8 +2288,8 @@
   </sheetPr>
   <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -2336,17 +2325,17 @@
           <t>cm</t>
         </is>
       </c>
-      <c r="I1" s="38" t="inlineStr">
+      <c r="I1" s="39" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="J1" s="38" t="inlineStr">
+      <c r="J1" s="39" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="K1" s="38" t="n"/>
+      <c r="K1" s="39" t="n"/>
       <c r="L1" s="5" t="n"/>
       <c r="M1" s="5" t="n"/>
       <c r="N1" s="5" t="n"/>
@@ -2368,7 +2357,7 @@
         </is>
       </c>
       <c r="U1" s="5" t="n"/>
-      <c r="V1" s="35" t="n"/>
+      <c r="V1" s="36" t="n"/>
       <c r="W1" s="5" t="n"/>
     </row>
     <row r="2">
@@ -2412,17 +2401,17 @@
           <t>最大长度</t>
         </is>
       </c>
-      <c r="I2" s="38" t="inlineStr">
+      <c r="I2" s="39" t="inlineStr">
         <is>
           <t>最小重量</t>
         </is>
       </c>
-      <c r="J2" s="38" t="inlineStr">
+      <c r="J2" s="39" t="inlineStr">
         <is>
           <t>最大重量</t>
         </is>
       </c>
-      <c r="K2" s="38" t="inlineStr">
+      <c r="K2" s="39" t="inlineStr">
         <is>
           <t>期望重量</t>
         </is>
@@ -2477,7 +2466,7 @@
           <t>min卖价</t>
         </is>
       </c>
-      <c r="V2" s="35" t="inlineStr">
+      <c r="V2" s="36" t="inlineStr">
         <is>
           <t>xp-formula</t>
         </is>
@@ -2497,9 +2486,9 @@
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="6" t="n"/>
       <c r="H3" s="6" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
       <c r="L3" s="6" t="n"/>
       <c r="M3" s="6" t="n"/>
       <c r="N3" s="6" t="n"/>
@@ -2510,7 +2499,7 @@
       <c r="S3" s="6" t="n"/>
       <c r="T3" s="6" t="n"/>
       <c r="U3" s="6" t="n"/>
-      <c r="V3" s="36" t="n">
+      <c r="V3" s="37" t="n">
         <v>0.74</v>
       </c>
       <c r="W3" s="6" t="n"/>
@@ -2547,15 +2536,15 @@
       <c r="H4" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="I4" s="40">
-        <f>$L4*POWER(G4,$M4)</f>
-        <v/>
-      </c>
-      <c r="J4" s="40">
-        <f>$L4*POWER(H4,$M4)</f>
-        <v/>
-      </c>
-      <c r="K4" s="40">
+      <c r="I4" s="33">
+        <f>INT($L4*POWER(G4,$M4))</f>
+        <v/>
+      </c>
+      <c r="J4" s="33">
+        <f>INT($L4*POWER(H4,$M4))</f>
+        <v/>
+      </c>
+      <c r="K4" s="41">
         <f>(I4+J4)/2</f>
         <v/>
       </c>
@@ -2568,34 +2557,34 @@
         <v/>
       </c>
       <c r="N4" s="30" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O4" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P4" s="35">
         <f>INT(K4*N4/1000)</f>
         <v/>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="38">
         <f t="array" ref="Q4">INT(SUMPRODUCT(($D$4:$D$90=$D4)*($F$4:$F$90=$F4),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D4)*($F$4:$F$90=$F4),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="35">
         <f t="array" ref="R4">INT(SUMPRODUCT(($D$4:$D$90=$D4)*($F$4:$F$90=$F4),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D4)*($F$4:$F$90=$F4),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S4" s="34" t="n"/>
-      <c r="T4" s="37" t="n"/>
-      <c r="U4" s="34">
+      <c r="S4" s="35" t="n"/>
+      <c r="T4" s="38" t="n"/>
+      <c r="U4" s="35">
         <f>INT(I4*N4/1000)</f>
         <v/>
       </c>
-      <c r="V4" s="36">
+      <c r="V4" s="37">
         <f>INT(N4*V$3)</f>
         <v/>
       </c>
-      <c r="W4" s="34" t="n">
+      <c r="W4" s="35" t="n">
         <v>518</v>
       </c>
     </row>
@@ -2631,15 +2620,15 @@
       <c r="H5" s="30" t="n">
         <v>40</v>
       </c>
-      <c r="I5" s="40">
-        <f>$L5*POWER(G5,$M5)</f>
-        <v/>
-      </c>
-      <c r="J5" s="40">
-        <f>$L5*POWER(H5,$M5)</f>
-        <v/>
-      </c>
-      <c r="K5" s="40">
+      <c r="I5" s="33">
+        <f>INT($L5*POWER(G5,$M5))</f>
+        <v/>
+      </c>
+      <c r="J5" s="33">
+        <f>INT($L5*POWER(H5,$M5))</f>
+        <v/>
+      </c>
+      <c r="K5" s="41">
         <f>(I5+J5)/2</f>
         <v/>
       </c>
@@ -2652,34 +2641,34 @@
         <v/>
       </c>
       <c r="N5" s="30" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="O5" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="35">
         <f>INT(K5*N5/1000)</f>
         <v/>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="38">
         <f t="array" ref="Q5">INT(SUMPRODUCT(($D$4:$D$90=$D5)*($F$4:$F$90=$F5),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D5)*($F$4:$F$90=$F5),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="35">
         <f t="array" ref="R5">INT(SUMPRODUCT(($D$4:$D$90=$D5)*($F$4:$F$90=$F5),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D5)*($F$4:$F$90=$F5),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S5" s="34" t="n"/>
-      <c r="T5" s="37" t="n"/>
-      <c r="U5" s="34">
+      <c r="S5" s="35" t="n"/>
+      <c r="T5" s="38" t="n"/>
+      <c r="U5" s="35">
         <f>INT(I5*N5/1000)</f>
         <v/>
       </c>
-      <c r="V5" s="36">
+      <c r="V5" s="37">
         <f>INT(N5*V$3)</f>
         <v/>
       </c>
-      <c r="W5" s="34" t="n">
+      <c r="W5" s="35" t="n">
         <v>740</v>
       </c>
     </row>
@@ -2715,15 +2704,15 @@
       <c r="H6" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="I6" s="40">
-        <f>$L6*POWER(G6,$M6)</f>
-        <v/>
-      </c>
-      <c r="J6" s="40">
-        <f>$L6*POWER(H6,$M6)</f>
-        <v/>
-      </c>
-      <c r="K6" s="40">
+      <c r="I6" s="33">
+        <f>INT($L6*POWER(G6,$M6))</f>
+        <v/>
+      </c>
+      <c r="J6" s="33">
+        <f>INT($L6*POWER(H6,$M6))</f>
+        <v/>
+      </c>
+      <c r="K6" s="41">
         <f>(I6+J6)/2</f>
         <v/>
       </c>
@@ -2741,29 +2730,29 @@
       <c r="O6" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="35">
         <f>INT(K6*N6/1000)</f>
         <v/>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="38">
         <f t="array" ref="Q6">INT(SUMPRODUCT(($D$4:$D$90=$D6)*($F$4:$F$90=$F6),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D6)*($F$4:$F$90=$F6),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="35">
         <f t="array" ref="R6">INT(SUMPRODUCT(($D$4:$D$90=$D6)*($F$4:$F$90=$F6),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D6)*($F$4:$F$90=$F6),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S6" s="34" t="n"/>
-      <c r="T6" s="37" t="n"/>
-      <c r="U6" s="34">
+      <c r="S6" s="35" t="n"/>
+      <c r="T6" s="38" t="n"/>
+      <c r="U6" s="35">
         <f>INT(I6*N6/1000)</f>
         <v/>
       </c>
-      <c r="V6" s="36">
+      <c r="V6" s="37">
         <f>INT(N6*V$3)</f>
         <v/>
       </c>
-      <c r="W6" s="34" t="n">
+      <c r="W6" s="35" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -2799,15 +2788,15 @@
       <c r="H7" s="30" t="n">
         <v>20</v>
       </c>
-      <c r="I7" s="40">
-        <f>$L7*POWER(G7,$M7)</f>
-        <v/>
-      </c>
-      <c r="J7" s="40">
-        <f>$L7*POWER(H7,$M7)</f>
-        <v/>
-      </c>
-      <c r="K7" s="40">
+      <c r="I7" s="33">
+        <f>INT($L7*POWER(G7,$M7))</f>
+        <v/>
+      </c>
+      <c r="J7" s="33">
+        <f>INT($L7*POWER(H7,$M7))</f>
+        <v/>
+      </c>
+      <c r="K7" s="41">
         <f>(I7+J7)/2</f>
         <v/>
       </c>
@@ -2825,29 +2814,29 @@
       <c r="O7" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="35">
         <f>INT(K7*N7/1000)</f>
         <v/>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="38">
         <f t="array" ref="Q7">INT(SUMPRODUCT(($D$4:$D$90=$D7)*($F$4:$F$90=$F7),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D7)*($F$4:$F$90=$F7),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="35">
         <f t="array" ref="R7">INT(SUMPRODUCT(($D$4:$D$90=$D7)*($F$4:$F$90=$F7),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D7)*($F$4:$F$90=$F7),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S7" s="34" t="n"/>
-      <c r="T7" s="37" t="n"/>
-      <c r="U7" s="34">
+      <c r="S7" s="35" t="n"/>
+      <c r="T7" s="38" t="n"/>
+      <c r="U7" s="35">
         <f>INT(I7*N7/1000)</f>
         <v/>
       </c>
-      <c r="V7" s="36">
+      <c r="V7" s="37">
         <f>INT(N7*V$3)</f>
         <v/>
       </c>
-      <c r="W7" s="34" t="n">
+      <c r="W7" s="35" t="n">
         <v>2590</v>
       </c>
     </row>
@@ -2883,15 +2872,15 @@
       <c r="H8" s="30" t="n">
         <v>23</v>
       </c>
-      <c r="I8" s="40">
-        <f>$L8*POWER(G8,$M8)</f>
-        <v/>
-      </c>
-      <c r="J8" s="40">
-        <f>$L8*POWER(H8,$M8)</f>
-        <v/>
-      </c>
-      <c r="K8" s="40">
+      <c r="I8" s="33">
+        <f>INT($L8*POWER(G8,$M8))</f>
+        <v/>
+      </c>
+      <c r="J8" s="33">
+        <f>INT($L8*POWER(H8,$M8))</f>
+        <v/>
+      </c>
+      <c r="K8" s="41">
         <f>(I8+J8)/2</f>
         <v/>
       </c>
@@ -2909,29 +2898,29 @@
       <c r="O8" s="30" t="n">
         <v>600</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="35">
         <f>INT(K8*N8/1000)</f>
         <v/>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="38">
         <f t="array" ref="Q8">INT(SUMPRODUCT(($D$4:$D$90=$D8)*($F$4:$F$90=$F8),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D8)*($F$4:$F$90=$F8),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="35">
         <f t="array" ref="R8">INT(SUMPRODUCT(($D$4:$D$90=$D8)*($F$4:$F$90=$F8),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D8)*($F$4:$F$90=$F8),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S8" s="34" t="n"/>
-      <c r="T8" s="37" t="n"/>
-      <c r="U8" s="34">
+      <c r="S8" s="35" t="n"/>
+      <c r="T8" s="38" t="n"/>
+      <c r="U8" s="35">
         <f>INT(I8*N8/1000)</f>
         <v/>
       </c>
-      <c r="V8" s="36">
+      <c r="V8" s="37">
         <f>INT(N8*V$3)</f>
         <v/>
       </c>
-      <c r="W8" s="34" t="n">
+      <c r="W8" s="35" t="n">
         <v>1110</v>
       </c>
     </row>
@@ -2967,15 +2956,15 @@
       <c r="H9" s="30" t="n">
         <v>31</v>
       </c>
-      <c r="I9" s="40">
-        <f>$L9*POWER(G9,$M9)</f>
-        <v/>
-      </c>
-      <c r="J9" s="40">
-        <f>$L9*POWER(H9,$M9)</f>
-        <v/>
-      </c>
-      <c r="K9" s="40">
+      <c r="I9" s="33">
+        <f>INT($L9*POWER(G9,$M9))</f>
+        <v/>
+      </c>
+      <c r="J9" s="33">
+        <f>INT($L9*POWER(H9,$M9))</f>
+        <v/>
+      </c>
+      <c r="K9" s="41">
         <f>(I9+J9)/2</f>
         <v/>
       </c>
@@ -2988,34 +2977,34 @@
         <v/>
       </c>
       <c r="N9" s="30" t="n">
-        <v>2500</v>
+        <v>2150</v>
       </c>
       <c r="O9" s="30" t="n">
         <v>600</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="35">
         <f>INT(K9*N9/1000)</f>
         <v/>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="38">
         <f t="array" ref="Q9">INT(SUMPRODUCT(($D$4:$D$90=$D9)*($F$4:$F$90=$F9),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D9)*($F$4:$F$90=$F9),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="35">
         <f t="array" ref="R9">INT(SUMPRODUCT(($D$4:$D$90=$D9)*($F$4:$F$90=$F9),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D9)*($F$4:$F$90=$F9),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S9" s="34" t="n"/>
-      <c r="T9" s="37" t="n"/>
-      <c r="U9" s="34">
+      <c r="S9" s="35" t="n"/>
+      <c r="T9" s="38" t="n"/>
+      <c r="U9" s="35">
         <f>INT(I9*N9/1000)</f>
         <v/>
       </c>
-      <c r="V9" s="36">
+      <c r="V9" s="37">
         <f>INT(N9*V$3)</f>
         <v/>
       </c>
-      <c r="W9" s="34" t="n">
+      <c r="W9" s="35" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -3051,15 +3040,15 @@
       <c r="H10" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="I10" s="40">
-        <f>$L10*POWER(G10,$M10)</f>
-        <v/>
-      </c>
-      <c r="J10" s="40">
-        <f>$L10*POWER(H10,$M10)</f>
-        <v/>
-      </c>
-      <c r="K10" s="40">
+      <c r="I10" s="33">
+        <f>INT($L10*POWER(G10,$M10))</f>
+        <v/>
+      </c>
+      <c r="J10" s="33">
+        <f>INT($L10*POWER(H10,$M10))</f>
+        <v/>
+      </c>
+      <c r="K10" s="41">
         <f>(I10+J10)/2</f>
         <v/>
       </c>
@@ -3072,34 +3061,34 @@
         <v/>
       </c>
       <c r="N10" s="30" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O10" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="35">
         <f>INT(K10*N10/1000)</f>
         <v/>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="38">
         <f t="array" ref="Q10">INT(SUMPRODUCT(($D$4:$D$90=$D10)*($F$4:$F$90=$F10),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D10)*($F$4:$F$90=$F10),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="35">
         <f t="array" ref="R10">INT(SUMPRODUCT(($D$4:$D$90=$D10)*($F$4:$F$90=$F10),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D10)*($F$4:$F$90=$F10),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S10" s="34" t="n"/>
-      <c r="T10" s="37" t="n"/>
-      <c r="U10" s="34">
+      <c r="S10" s="35" t="n"/>
+      <c r="T10" s="38" t="n"/>
+      <c r="U10" s="35">
         <f>INT(I10*N10/1000)</f>
         <v/>
       </c>
-      <c r="V10" s="36">
+      <c r="V10" s="37">
         <f>INT(N10*V$3)</f>
         <v/>
       </c>
-      <c r="W10" s="34" t="n">
+      <c r="W10" s="35" t="n">
         <v>740</v>
       </c>
     </row>
@@ -3135,15 +3124,15 @@
       <c r="H11" s="30" t="n">
         <v>40</v>
       </c>
-      <c r="I11" s="40">
-        <f>$L11*POWER(G11,$M11)</f>
-        <v/>
-      </c>
-      <c r="J11" s="40">
-        <f>$L11*POWER(H11,$M11)</f>
-        <v/>
-      </c>
-      <c r="K11" s="40">
+      <c r="I11" s="33">
+        <f>INT($L11*POWER(G11,$M11))</f>
+        <v/>
+      </c>
+      <c r="J11" s="33">
+        <f>INT($L11*POWER(H11,$M11))</f>
+        <v/>
+      </c>
+      <c r="K11" s="41">
         <f>(I11+J11)/2</f>
         <v/>
       </c>
@@ -3156,34 +3145,34 @@
         <v/>
       </c>
       <c r="N11" s="30" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="O11" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="35">
         <f>INT(K11*N11/1000)</f>
         <v/>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="38">
         <f t="array" ref="Q11">INT(SUMPRODUCT(($D$4:$D$90=$D11)*($F$4:$F$90=$F11),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D11)*($F$4:$F$90=$F11),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="35">
         <f t="array" ref="R11">INT(SUMPRODUCT(($D$4:$D$90=$D11)*($F$4:$F$90=$F11),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D11)*($F$4:$F$90=$F11),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S11" s="34" t="n"/>
-      <c r="T11" s="37" t="n"/>
-      <c r="U11" s="34">
+      <c r="S11" s="35" t="n"/>
+      <c r="T11" s="38" t="n"/>
+      <c r="U11" s="35">
         <f>INT(I11*N11/1000)</f>
         <v/>
       </c>
-      <c r="V11" s="36">
+      <c r="V11" s="37">
         <f>INT(N11*V$3)</f>
         <v/>
       </c>
-      <c r="W11" s="34" t="n">
+      <c r="W11" s="35" t="n">
         <v>888</v>
       </c>
     </row>
@@ -3219,15 +3208,15 @@
       <c r="H12" s="30" t="n">
         <v>22</v>
       </c>
-      <c r="I12" s="40">
-        <f>$L12*POWER(G12,$M12)</f>
-        <v/>
-      </c>
-      <c r="J12" s="40">
-        <f>$L12*POWER(H12,$M12)</f>
-        <v/>
-      </c>
-      <c r="K12" s="40">
+      <c r="I12" s="33">
+        <f>INT($L12*POWER(G12,$M12))</f>
+        <v/>
+      </c>
+      <c r="J12" s="33">
+        <f>INT($L12*POWER(H12,$M12))</f>
+        <v/>
+      </c>
+      <c r="K12" s="41">
         <f>(I12+J12)/2</f>
         <v/>
       </c>
@@ -3240,34 +3229,34 @@
         <v/>
       </c>
       <c r="N12" s="30" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O12" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="35">
         <f>INT(K12*N12/1000)</f>
         <v/>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="38">
         <f t="array" ref="Q12">INT(SUMPRODUCT(($D$4:$D$90=$D12)*($F$4:$F$90=$F12),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D12)*($F$4:$F$90=$F12),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="35">
         <f t="array" ref="R12">INT(SUMPRODUCT(($D$4:$D$90=$D12)*($F$4:$F$90=$F12),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D12)*($F$4:$F$90=$F12),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S12" s="34" t="n"/>
-      <c r="T12" s="37" t="n"/>
-      <c r="U12" s="34">
+      <c r="S12" s="35" t="n"/>
+      <c r="T12" s="38" t="n"/>
+      <c r="U12" s="35">
         <f>INT(I12*N12/1000)</f>
         <v/>
       </c>
-      <c r="V12" s="36">
+      <c r="V12" s="37">
         <f>INT(N12*V$3)</f>
         <v/>
       </c>
-      <c r="W12" s="34" t="n">
+      <c r="W12" s="35" t="n">
         <v>592</v>
       </c>
     </row>
@@ -3303,15 +3292,15 @@
       <c r="H13" s="30" t="n">
         <v>33</v>
       </c>
-      <c r="I13" s="40">
-        <f>$L13*POWER(G13,$M13)</f>
-        <v/>
-      </c>
-      <c r="J13" s="40">
-        <f>$L13*POWER(H13,$M13)</f>
-        <v/>
-      </c>
-      <c r="K13" s="40">
+      <c r="I13" s="33">
+        <f>INT($L13*POWER(G13,$M13))</f>
+        <v/>
+      </c>
+      <c r="J13" s="33">
+        <f>INT($L13*POWER(H13,$M13))</f>
+        <v/>
+      </c>
+      <c r="K13" s="41">
         <f>(I13+J13)/2</f>
         <v/>
       </c>
@@ -3324,34 +3313,34 @@
         <v/>
       </c>
       <c r="N13" s="30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O13" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="35">
         <f>INT(K13*N13/1000)</f>
         <v/>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="38">
         <f t="array" ref="Q13">INT(SUMPRODUCT(($D$4:$D$90=$D13)*($F$4:$F$90=$F13),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D13)*($F$4:$F$90=$F13),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="35">
         <f t="array" ref="R13">INT(SUMPRODUCT(($D$4:$D$90=$D13)*($F$4:$F$90=$F13),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D13)*($F$4:$F$90=$F13),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S13" s="34" t="n"/>
-      <c r="T13" s="37" t="n"/>
-      <c r="U13" s="34">
+      <c r="S13" s="35" t="n"/>
+      <c r="T13" s="38" t="n"/>
+      <c r="U13" s="35">
         <f>INT(I13*N13/1000)</f>
         <v/>
       </c>
-      <c r="V13" s="36">
+      <c r="V13" s="37">
         <f>INT(N13*V$3)</f>
         <v/>
       </c>
-      <c r="W13" s="34" t="n">
+      <c r="W13" s="35" t="n">
         <v>740</v>
       </c>
     </row>
@@ -3387,15 +3376,15 @@
       <c r="H14" s="30" t="n">
         <v>41</v>
       </c>
-      <c r="I14" s="40">
-        <f>$L14*POWER(G14,$M14)</f>
-        <v/>
-      </c>
-      <c r="J14" s="40">
-        <f>$L14*POWER(H14,$M14)</f>
-        <v/>
-      </c>
-      <c r="K14" s="40">
+      <c r="I14" s="33">
+        <f>INT($L14*POWER(G14,$M14))</f>
+        <v/>
+      </c>
+      <c r="J14" s="33">
+        <f>INT($L14*POWER(H14,$M14))</f>
+        <v/>
+      </c>
+      <c r="K14" s="41">
         <f>(I14+J14)/2</f>
         <v/>
       </c>
@@ -3408,34 +3397,34 @@
         <v/>
       </c>
       <c r="N14" s="30" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O14" s="30" t="n">
         <v>200</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="35">
         <f>INT(K14*N14/1000)</f>
         <v/>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="38">
         <f t="array" ref="Q14">INT(SUMPRODUCT(($D$4:$D$90=$D14)*($F$4:$F$90=$F14),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D14)*($F$4:$F$90=$F14),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="35">
         <f t="array" ref="R14">INT(SUMPRODUCT(($D$4:$D$90=$D14)*($F$4:$F$90=$F14),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D14)*($F$4:$F$90=$F14),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S14" s="34" t="n"/>
-      <c r="T14" s="37" t="n"/>
-      <c r="U14" s="34">
+      <c r="S14" s="35" t="n"/>
+      <c r="T14" s="38" t="n"/>
+      <c r="U14" s="35">
         <f>INT(I14*N14/1000)</f>
         <v/>
       </c>
-      <c r="V14" s="36">
+      <c r="V14" s="37">
         <f>INT(N14*V$3)</f>
         <v/>
       </c>
-      <c r="W14" s="34" t="n">
+      <c r="W14" s="35" t="n">
         <v>888</v>
       </c>
     </row>
@@ -3471,15 +3460,15 @@
       <c r="H15" s="30" t="n">
         <v>25</v>
       </c>
-      <c r="I15" s="40">
-        <f>$L15*POWER(G15,$M15)</f>
-        <v/>
-      </c>
-      <c r="J15" s="40">
-        <f>$L15*POWER(H15,$M15)</f>
-        <v/>
-      </c>
-      <c r="K15" s="40">
+      <c r="I15" s="33">
+        <f>INT($L15*POWER(G15,$M15))</f>
+        <v/>
+      </c>
+      <c r="J15" s="33">
+        <f>INT($L15*POWER(H15,$M15))</f>
+        <v/>
+      </c>
+      <c r="K15" s="41">
         <f>(I15+J15)/2</f>
         <v/>
       </c>
@@ -3497,29 +3486,29 @@
       <c r="O15" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="35">
         <f>INT(K15*N15/1000)</f>
         <v/>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="38">
         <f t="array" ref="Q15">INT(SUMPRODUCT(($D$4:$D$90=$D15)*($F$4:$F$90=$F15),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D15)*($F$4:$F$90=$F15),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="35">
         <f t="array" ref="R15">INT(SUMPRODUCT(($D$4:$D$90=$D15)*($F$4:$F$90=$F15),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D15)*($F$4:$F$90=$F15),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S15" s="34" t="n"/>
-      <c r="T15" s="37" t="n"/>
-      <c r="U15" s="34">
+      <c r="S15" s="35" t="n"/>
+      <c r="T15" s="38" t="n"/>
+      <c r="U15" s="35">
         <f>INT(I15*N15/1000)</f>
         <v/>
       </c>
-      <c r="V15" s="36">
+      <c r="V15" s="37">
         <f>INT(N15*V$3)</f>
         <v/>
       </c>
-      <c r="W15" s="34" t="n">
+      <c r="W15" s="35" t="n">
         <v>444</v>
       </c>
     </row>
@@ -3555,15 +3544,15 @@
       <c r="H16" s="30" t="n">
         <v>38</v>
       </c>
-      <c r="I16" s="40">
-        <f>$L16*POWER(G16,$M16)</f>
-        <v/>
-      </c>
-      <c r="J16" s="40">
-        <f>$L16*POWER(H16,$M16)</f>
-        <v/>
-      </c>
-      <c r="K16" s="40">
+      <c r="I16" s="33">
+        <f>INT($L16*POWER(G16,$M16))</f>
+        <v/>
+      </c>
+      <c r="J16" s="33">
+        <f>INT($L16*POWER(H16,$M16))</f>
+        <v/>
+      </c>
+      <c r="K16" s="41">
         <f>(I16+J16)/2</f>
         <v/>
       </c>
@@ -3581,29 +3570,29 @@
       <c r="O16" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P16" s="34">
+      <c r="P16" s="35">
         <f>INT(K16*N16/1000)</f>
         <v/>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="38">
         <f t="array" ref="Q16">INT(SUMPRODUCT(($D$4:$D$90=$D16)*($F$4:$F$90=$F16),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D16)*($F$4:$F$90=$F16),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="35">
         <f t="array" ref="R16">INT(SUMPRODUCT(($D$4:$D$90=$D16)*($F$4:$F$90=$F16),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D16)*($F$4:$F$90=$F16),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S16" s="34" t="n"/>
-      <c r="T16" s="37" t="n"/>
-      <c r="U16" s="34">
+      <c r="S16" s="35" t="n"/>
+      <c r="T16" s="38" t="n"/>
+      <c r="U16" s="35">
         <f>INT(I16*N16/1000)</f>
         <v/>
       </c>
-      <c r="V16" s="36">
+      <c r="V16" s="37">
         <f>INT(N16*V$3)</f>
         <v/>
       </c>
-      <c r="W16" s="34" t="n">
+      <c r="W16" s="35" t="n">
         <v>555</v>
       </c>
     </row>
@@ -3639,15 +3628,15 @@
       <c r="H17" s="30" t="n">
         <v>48</v>
       </c>
-      <c r="I17" s="40">
-        <f>$L17*POWER(G17,$M17)</f>
-        <v/>
-      </c>
-      <c r="J17" s="40">
-        <f>$L17*POWER(H17,$M17)</f>
-        <v/>
-      </c>
-      <c r="K17" s="40">
+      <c r="I17" s="33">
+        <f>INT($L17*POWER(G17,$M17))</f>
+        <v/>
+      </c>
+      <c r="J17" s="33">
+        <f>INT($L17*POWER(H17,$M17))</f>
+        <v/>
+      </c>
+      <c r="K17" s="41">
         <f>(I17+J17)/2</f>
         <v/>
       </c>
@@ -3665,29 +3654,29 @@
       <c r="O17" s="30" t="n">
         <v>200</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="35">
         <f>INT(K17*N17/1000)</f>
         <v/>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="38">
         <f t="array" ref="Q17">INT(SUMPRODUCT(($D$4:$D$90=$D17)*($F$4:$F$90=$F17),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D17)*($F$4:$F$90=$F17),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="35">
         <f t="array" ref="R17">INT(SUMPRODUCT(($D$4:$D$90=$D17)*($F$4:$F$90=$F17),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D17)*($F$4:$F$90=$F17),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S17" s="34" t="n"/>
-      <c r="T17" s="37" t="n"/>
-      <c r="U17" s="34">
+      <c r="S17" s="35" t="n"/>
+      <c r="T17" s="38" t="n"/>
+      <c r="U17" s="35">
         <f>INT(I17*N17/1000)</f>
         <v/>
       </c>
-      <c r="V17" s="36">
+      <c r="V17" s="37">
         <f>INT(N17*V$3)</f>
         <v/>
       </c>
-      <c r="W17" s="34" t="n">
+      <c r="W17" s="35" t="n">
         <v>629</v>
       </c>
     </row>
@@ -3723,15 +3712,15 @@
       <c r="H18" s="30" t="n">
         <v>26</v>
       </c>
-      <c r="I18" s="40">
-        <f>$L18*POWER(G18,$M18)</f>
-        <v/>
-      </c>
-      <c r="J18" s="40">
-        <f>$L18*POWER(H18,$M18)</f>
-        <v/>
-      </c>
-      <c r="K18" s="40">
+      <c r="I18" s="33">
+        <f>INT($L18*POWER(G18,$M18))</f>
+        <v/>
+      </c>
+      <c r="J18" s="33">
+        <f>INT($L18*POWER(H18,$M18))</f>
+        <v/>
+      </c>
+      <c r="K18" s="41">
         <f>(I18+J18)/2</f>
         <v/>
       </c>
@@ -3749,29 +3738,29 @@
       <c r="O18" s="30" t="n">
         <v>363</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="35">
         <f>INT(K18*N18/1000)</f>
         <v/>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="38">
         <f t="array" ref="Q18">INT(SUMPRODUCT(($D$4:$D$90=$D18)*($F$4:$F$90=$F18),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D18)*($F$4:$F$90=$F18),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R18" s="34">
+      <c r="R18" s="35">
         <f t="array" ref="R18">INT(SUMPRODUCT(($D$4:$D$90=$D18)*($F$4:$F$90=$F18),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D18)*($F$4:$F$90=$F18),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S18" s="34" t="n"/>
-      <c r="T18" s="37" t="n"/>
-      <c r="U18" s="34">
+      <c r="S18" s="35" t="n"/>
+      <c r="T18" s="38" t="n"/>
+      <c r="U18" s="35">
         <f>INT(I18*N18/1000)</f>
         <v/>
       </c>
-      <c r="V18" s="36">
+      <c r="V18" s="37">
         <f>INT(N18*V$3)</f>
         <v/>
       </c>
-      <c r="W18" s="34" t="n">
+      <c r="W18" s="35" t="n">
         <v>1332</v>
       </c>
     </row>
@@ -3807,15 +3796,15 @@
       <c r="H19" s="30" t="n">
         <v>40</v>
       </c>
-      <c r="I19" s="40">
-        <f>$L19*POWER(G19,$M19)</f>
-        <v/>
-      </c>
-      <c r="J19" s="40">
-        <f>$L19*POWER(H19,$M19)</f>
-        <v/>
-      </c>
-      <c r="K19" s="40">
+      <c r="I19" s="33">
+        <f>INT($L19*POWER(G19,$M19))</f>
+        <v/>
+      </c>
+      <c r="J19" s="33">
+        <f>INT($L19*POWER(H19,$M19))</f>
+        <v/>
+      </c>
+      <c r="K19" s="41">
         <f>(I19+J19)/2</f>
         <v/>
       </c>
@@ -3833,29 +3822,29 @@
       <c r="O19" s="30" t="n">
         <v>363</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="35">
         <f>INT(K19*N19/1000)</f>
         <v/>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="38">
         <f t="array" ref="Q19">INT(SUMPRODUCT(($D$4:$D$90=$D19)*($F$4:$F$90=$F19),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D19)*($F$4:$F$90=$F19),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="35">
         <f t="array" ref="R19">INT(SUMPRODUCT(($D$4:$D$90=$D19)*($F$4:$F$90=$F19),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D19)*($F$4:$F$90=$F19),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S19" s="34" t="n"/>
-      <c r="T19" s="37" t="n"/>
-      <c r="U19" s="34">
+      <c r="S19" s="35" t="n"/>
+      <c r="T19" s="38" t="n"/>
+      <c r="U19" s="35">
         <f>INT(I19*N19/1000)</f>
         <v/>
       </c>
-      <c r="V19" s="36">
+      <c r="V19" s="37">
         <f>INT(N19*V$3)</f>
         <v/>
       </c>
-      <c r="W19" s="34" t="n">
+      <c r="W19" s="35" t="n">
         <v>1628</v>
       </c>
     </row>
@@ -3891,15 +3880,15 @@
       <c r="H20" s="30" t="n">
         <v>49</v>
       </c>
-      <c r="I20" s="40">
-        <f>$L20*POWER(G20,$M20)</f>
-        <v/>
-      </c>
-      <c r="J20" s="40">
-        <f>$L20*POWER(H20,$M20)</f>
-        <v/>
-      </c>
-      <c r="K20" s="40">
+      <c r="I20" s="33">
+        <f>INT($L20*POWER(G20,$M20))</f>
+        <v/>
+      </c>
+      <c r="J20" s="33">
+        <f>INT($L20*POWER(H20,$M20))</f>
+        <v/>
+      </c>
+      <c r="K20" s="41">
         <f>(I20+J20)/2</f>
         <v/>
       </c>
@@ -3917,29 +3906,29 @@
       <c r="O20" s="30" t="n">
         <v>181</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="35">
         <f>INT(K20*N20/1000)</f>
         <v/>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="38">
         <f t="array" ref="Q20">INT(SUMPRODUCT(($D$4:$D$90=$D20)*($F$4:$F$90=$F20),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D20)*($F$4:$F$90=$F20),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="35">
         <f t="array" ref="R20">INT(SUMPRODUCT(($D$4:$D$90=$D20)*($F$4:$F$90=$F20),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D20)*($F$4:$F$90=$F20),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S20" s="34" t="n"/>
-      <c r="T20" s="37" t="n"/>
-      <c r="U20" s="34">
+      <c r="S20" s="35" t="n"/>
+      <c r="T20" s="38" t="n"/>
+      <c r="U20" s="35">
         <f>INT(I20*N20/1000)</f>
         <v/>
       </c>
-      <c r="V20" s="36">
+      <c r="V20" s="37">
         <f>INT(N20*V$3)</f>
         <v/>
       </c>
-      <c r="W20" s="34" t="n">
+      <c r="W20" s="35" t="n">
         <v>1776</v>
       </c>
     </row>
@@ -3975,15 +3964,15 @@
       <c r="H21" s="30" t="n">
         <v>56</v>
       </c>
-      <c r="I21" s="40">
-        <f>$L21*POWER(G21,$M21)</f>
-        <v/>
-      </c>
-      <c r="J21" s="40">
-        <f>$L21*POWER(H21,$M21)</f>
-        <v/>
-      </c>
-      <c r="K21" s="40">
+      <c r="I21" s="33">
+        <f>INT($L21*POWER(G21,$M21))</f>
+        <v/>
+      </c>
+      <c r="J21" s="33">
+        <f>INT($L21*POWER(H21,$M21))</f>
+        <v/>
+      </c>
+      <c r="K21" s="41">
         <f>(I21+J21)/2</f>
         <v/>
       </c>
@@ -4001,29 +3990,29 @@
       <c r="O21" s="30" t="n">
         <v>90</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="35">
         <f>INT(K21*N21/1000)</f>
         <v/>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="38">
         <f t="array" ref="Q21">INT(SUMPRODUCT(($D$4:$D$90=$D21)*($F$4:$F$90=$F21),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D21)*($F$4:$F$90=$F21),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="35">
         <f t="array" ref="R21">INT(SUMPRODUCT(($D$4:$D$90=$D21)*($F$4:$F$90=$F21),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D21)*($F$4:$F$90=$F21),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S21" s="34" t="n"/>
-      <c r="T21" s="37" t="n"/>
-      <c r="U21" s="34">
+      <c r="S21" s="35" t="n"/>
+      <c r="T21" s="38" t="n"/>
+      <c r="U21" s="35">
         <f>INT(I21*N21/1000)</f>
         <v/>
       </c>
-      <c r="V21" s="36">
+      <c r="V21" s="37">
         <f>INT(N21*V$3)</f>
         <v/>
       </c>
-      <c r="W21" s="34" t="n">
+      <c r="W21" s="35" t="n">
         <v>1998</v>
       </c>
     </row>
@@ -4059,15 +4048,15 @@
       <c r="H22" s="30" t="n">
         <v>53</v>
       </c>
-      <c r="I22" s="40">
-        <f>$L22*POWER(G22,$M22)</f>
-        <v/>
-      </c>
-      <c r="J22" s="40">
-        <f>$L22*POWER(H22,$M22)</f>
-        <v/>
-      </c>
-      <c r="K22" s="40">
+      <c r="I22" s="33">
+        <f>INT($L22*POWER(G22,$M22))</f>
+        <v/>
+      </c>
+      <c r="J22" s="33">
+        <f>INT($L22*POWER(H22,$M22))</f>
+        <v/>
+      </c>
+      <c r="K22" s="41">
         <f>(I22+J22)/2</f>
         <v/>
       </c>
@@ -4085,29 +4074,29 @@
       <c r="O22" s="30" t="n">
         <v>363</v>
       </c>
-      <c r="P22" s="34">
+      <c r="P22" s="35">
         <f>INT(K22*N22/1000)</f>
         <v/>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="38">
         <f t="array" ref="Q22">INT(SUMPRODUCT(($D$4:$D$90=$D22)*($F$4:$F$90=$F22),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D22)*($F$4:$F$90=$F22),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R22" s="34">
+      <c r="R22" s="35">
         <f t="array" ref="R22">INT(SUMPRODUCT(($D$4:$D$90=$D22)*($F$4:$F$90=$F22),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D22)*($F$4:$F$90=$F22),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S22" s="34" t="n"/>
-      <c r="T22" s="37" t="n"/>
-      <c r="U22" s="34">
+      <c r="S22" s="35" t="n"/>
+      <c r="T22" s="38" t="n"/>
+      <c r="U22" s="35">
         <f>INT(I22*N22/1000)</f>
         <v/>
       </c>
-      <c r="V22" s="36">
+      <c r="V22" s="37">
         <f>INT(N22*V$3)</f>
         <v/>
       </c>
-      <c r="W22" s="34" t="n">
+      <c r="W22" s="35" t="n">
         <v>66</v>
       </c>
       <c r="X22" s="0" t="inlineStr">
@@ -4148,15 +4137,15 @@
       <c r="H23" s="30" t="n">
         <v>81</v>
       </c>
-      <c r="I23" s="40">
-        <f>$L23*POWER(G23,$M23)</f>
-        <v/>
-      </c>
-      <c r="J23" s="40">
-        <f>$L23*POWER(H23,$M23)</f>
-        <v/>
-      </c>
-      <c r="K23" s="40">
+      <c r="I23" s="33">
+        <f>INT($L23*POWER(G23,$M23))</f>
+        <v/>
+      </c>
+      <c r="J23" s="33">
+        <f>INT($L23*POWER(H23,$M23))</f>
+        <v/>
+      </c>
+      <c r="K23" s="41">
         <f>(I23+J23)/2</f>
         <v/>
       </c>
@@ -4174,29 +4163,29 @@
       <c r="O23" s="30" t="n">
         <v>363</v>
       </c>
-      <c r="P23" s="34">
+      <c r="P23" s="35">
         <f>INT(K23*N23/1000)</f>
         <v/>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="38">
         <f t="array" ref="Q23">INT(SUMPRODUCT(($D$4:$D$90=$D23)*($F$4:$F$90=$F23),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D23)*($F$4:$F$90=$F23),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R23" s="34">
+      <c r="R23" s="35">
         <f t="array" ref="R23">INT(SUMPRODUCT(($D$4:$D$90=$D23)*($F$4:$F$90=$F23),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D23)*($F$4:$F$90=$F23),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S23" s="34" t="n"/>
-      <c r="T23" s="37" t="n"/>
-      <c r="U23" s="34">
+      <c r="S23" s="35" t="n"/>
+      <c r="T23" s="38" t="n"/>
+      <c r="U23" s="35">
         <f>INT(I23*N23/1000)</f>
         <v/>
       </c>
-      <c r="V23" s="36">
+      <c r="V23" s="37">
         <f>INT(N23*V$3)</f>
         <v/>
       </c>
-      <c r="W23" s="34" t="n">
+      <c r="W23" s="35" t="n">
         <v>81</v>
       </c>
     </row>
@@ -4232,15 +4221,15 @@
       <c r="H24" s="30" t="n">
         <v>100</v>
       </c>
-      <c r="I24" s="40">
-        <f>$L24*POWER(G24,$M24)</f>
-        <v/>
-      </c>
-      <c r="J24" s="40">
-        <f>$L24*POWER(H24,$M24)</f>
-        <v/>
-      </c>
-      <c r="K24" s="40">
+      <c r="I24" s="33">
+        <f>INT($L24*POWER(G24,$M24))</f>
+        <v/>
+      </c>
+      <c r="J24" s="33">
+        <f>INT($L24*POWER(H24,$M24))</f>
+        <v/>
+      </c>
+      <c r="K24" s="41">
         <f>(I24+J24)/2</f>
         <v/>
       </c>
@@ -4258,29 +4247,29 @@
       <c r="O24" s="30" t="n">
         <v>181</v>
       </c>
-      <c r="P24" s="34">
+      <c r="P24" s="35">
         <f>INT(K24*N24/1000)</f>
         <v/>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="38">
         <f t="array" ref="Q24">INT(SUMPRODUCT(($D$4:$D$90=$D24)*($F$4:$F$90=$F24),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D24)*($F$4:$F$90=$F24),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R24" s="34">
+      <c r="R24" s="35">
         <f t="array" ref="R24">INT(SUMPRODUCT(($D$4:$D$90=$D24)*($F$4:$F$90=$F24),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D24)*($F$4:$F$90=$F24),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S24" s="34" t="n"/>
-      <c r="T24" s="37" t="n"/>
-      <c r="U24" s="34">
+      <c r="S24" s="35" t="n"/>
+      <c r="T24" s="38" t="n"/>
+      <c r="U24" s="35">
         <f>INT(I24*N24/1000)</f>
         <v/>
       </c>
-      <c r="V24" s="36">
+      <c r="V24" s="37">
         <f>INT(N24*V$3)</f>
         <v/>
       </c>
-      <c r="W24" s="34" t="n">
+      <c r="W24" s="35" t="n">
         <v>103</v>
       </c>
     </row>
@@ -4316,15 +4305,15 @@
       <c r="H25" s="30" t="n">
         <v>113</v>
       </c>
-      <c r="I25" s="40">
-        <f>$L25*POWER(G25,$M25)</f>
-        <v/>
-      </c>
-      <c r="J25" s="40">
-        <f>$L25*POWER(H25,$M25)</f>
-        <v/>
-      </c>
-      <c r="K25" s="40">
+      <c r="I25" s="33">
+        <f>INT($L25*POWER(G25,$M25))</f>
+        <v/>
+      </c>
+      <c r="J25" s="33">
+        <f>INT($L25*POWER(H25,$M25))</f>
+        <v/>
+      </c>
+      <c r="K25" s="41">
         <f>(I25+J25)/2</f>
         <v/>
       </c>
@@ -4342,29 +4331,29 @@
       <c r="O25" s="30" t="n">
         <v>90</v>
       </c>
-      <c r="P25" s="34">
+      <c r="P25" s="35">
         <f>INT(K25*N25/1000)</f>
         <v/>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="38">
         <f t="array" ref="Q25">INT(SUMPRODUCT(($D$4:$D$90=$D25)*($F$4:$F$90=$F25),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D25)*($F$4:$F$90=$F25),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R25" s="34">
+      <c r="R25" s="35">
         <f t="array" ref="R25">INT(SUMPRODUCT(($D$4:$D$90=$D25)*($F$4:$F$90=$F25),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D25)*($F$4:$F$90=$F25),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S25" s="34" t="n"/>
-      <c r="T25" s="37" t="n"/>
-      <c r="U25" s="34">
+      <c r="S25" s="35" t="n"/>
+      <c r="T25" s="38" t="n"/>
+      <c r="U25" s="35">
         <f>INT(I25*N25/1000)</f>
         <v/>
       </c>
-      <c r="V25" s="36">
+      <c r="V25" s="37">
         <f>INT(N25*V$3)</f>
         <v/>
       </c>
-      <c r="W25" s="34" t="n">
+      <c r="W25" s="35" t="n">
         <v>118</v>
       </c>
     </row>
@@ -4400,15 +4389,15 @@
       <c r="H26" s="30" t="n">
         <v>61</v>
       </c>
-      <c r="I26" s="40">
-        <f>$L26*POWER(G26,$M26)</f>
-        <v/>
-      </c>
-      <c r="J26" s="40">
-        <f>$L26*POWER(H26,$M26)</f>
-        <v/>
-      </c>
-      <c r="K26" s="40">
+      <c r="I26" s="33">
+        <f>INT($L26*POWER(G26,$M26))</f>
+        <v/>
+      </c>
+      <c r="J26" s="33">
+        <f>INT($L26*POWER(H26,$M26))</f>
+        <v/>
+      </c>
+      <c r="K26" s="41">
         <f>(I26+J26)/2</f>
         <v/>
       </c>
@@ -4426,29 +4415,29 @@
       <c r="O26" s="30" t="n">
         <v>363</v>
       </c>
-      <c r="P26" s="34">
+      <c r="P26" s="35">
         <f>INT(K26*N26/1000)</f>
         <v/>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="38">
         <f t="array" ref="Q26">INT(SUMPRODUCT(($D$4:$D$90=$D26)*($F$4:$F$90=$F26),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D26)*($F$4:$F$90=$F26),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R26" s="34">
+      <c r="R26" s="35">
         <f t="array" ref="R26">INT(SUMPRODUCT(($D$4:$D$90=$D26)*($F$4:$F$90=$F26),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D26)*($F$4:$F$90=$F26),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S26" s="34" t="n"/>
-      <c r="T26" s="37" t="n"/>
-      <c r="U26" s="34">
+      <c r="S26" s="35" t="n"/>
+      <c r="T26" s="38" t="n"/>
+      <c r="U26" s="35">
         <f>INT(I26*N26/1000)</f>
         <v/>
       </c>
-      <c r="V26" s="36">
+      <c r="V26" s="37">
         <f>INT(N26*V$3)</f>
         <v/>
       </c>
-      <c r="W26" s="34" t="n">
+      <c r="W26" s="35" t="n">
         <v>74</v>
       </c>
     </row>
@@ -4484,15 +4473,15 @@
       <c r="H27" s="30" t="n">
         <v>92</v>
       </c>
-      <c r="I27" s="40">
-        <f>$L27*POWER(G27,$M27)</f>
-        <v/>
-      </c>
-      <c r="J27" s="40">
-        <f>$L27*POWER(H27,$M27)</f>
-        <v/>
-      </c>
-      <c r="K27" s="40">
+      <c r="I27" s="33">
+        <f>INT($L27*POWER(G27,$M27))</f>
+        <v/>
+      </c>
+      <c r="J27" s="33">
+        <f>INT($L27*POWER(H27,$M27))</f>
+        <v/>
+      </c>
+      <c r="K27" s="41">
         <f>(I27+J27)/2</f>
         <v/>
       </c>
@@ -4510,29 +4499,29 @@
       <c r="O27" s="30" t="n">
         <v>363</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="35">
         <f>INT(K27*N27/1000)</f>
         <v/>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="38">
         <f t="array" ref="Q27">INT(SUMPRODUCT(($D$4:$D$90=$D27)*($F$4:$F$90=$F27),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D27)*($F$4:$F$90=$F27),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R27" s="34">
+      <c r="R27" s="35">
         <f t="array" ref="R27">INT(SUMPRODUCT(($D$4:$D$90=$D27)*($F$4:$F$90=$F27),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D27)*($F$4:$F$90=$F27),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S27" s="34" t="n"/>
-      <c r="T27" s="37" t="n"/>
-      <c r="U27" s="34">
+      <c r="S27" s="35" t="n"/>
+      <c r="T27" s="38" t="n"/>
+      <c r="U27" s="35">
         <f>INT(I27*N27/1000)</f>
         <v/>
       </c>
-      <c r="V27" s="36">
+      <c r="V27" s="37">
         <f>INT(N27*V$3)</f>
         <v/>
       </c>
-      <c r="W27" s="34" t="n">
+      <c r="W27" s="35" t="n">
         <v>81</v>
       </c>
     </row>
@@ -4568,15 +4557,15 @@
       <c r="H28" s="30" t="n">
         <v>112</v>
       </c>
-      <c r="I28" s="40">
-        <f>$L28*POWER(G28,$M28)</f>
-        <v/>
-      </c>
-      <c r="J28" s="40">
-        <f>$L28*POWER(H28,$M28)</f>
-        <v/>
-      </c>
-      <c r="K28" s="40">
+      <c r="I28" s="33">
+        <f>INT($L28*POWER(G28,$M28))</f>
+        <v/>
+      </c>
+      <c r="J28" s="33">
+        <f>INT($L28*POWER(H28,$M28))</f>
+        <v/>
+      </c>
+      <c r="K28" s="41">
         <f>(I28+J28)/2</f>
         <v/>
       </c>
@@ -4594,29 +4583,29 @@
       <c r="O28" s="30" t="n">
         <v>181</v>
       </c>
-      <c r="P28" s="34">
+      <c r="P28" s="35">
         <f>INT(K28*N28/1000)</f>
         <v/>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="38">
         <f t="array" ref="Q28">INT(SUMPRODUCT(($D$4:$D$90=$D28)*($F$4:$F$90=$F28),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D28)*($F$4:$F$90=$F28),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R28" s="34">
+      <c r="R28" s="35">
         <f t="array" ref="R28">INT(SUMPRODUCT(($D$4:$D$90=$D28)*($F$4:$F$90=$F28),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D28)*($F$4:$F$90=$F28),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S28" s="34" t="n"/>
-      <c r="T28" s="37" t="n"/>
-      <c r="U28" s="34">
+      <c r="S28" s="35" t="n"/>
+      <c r="T28" s="38" t="n"/>
+      <c r="U28" s="35">
         <f>INT(I28*N28/1000)</f>
         <v/>
       </c>
-      <c r="V28" s="36">
+      <c r="V28" s="37">
         <f>INT(N28*V$3)</f>
         <v/>
       </c>
-      <c r="W28" s="34" t="n">
+      <c r="W28" s="35" t="n">
         <v>88</v>
       </c>
     </row>
@@ -4652,15 +4641,15 @@
       <c r="H29" s="30" t="n">
         <v>127</v>
       </c>
-      <c r="I29" s="40">
-        <f>$L29*POWER(G29,$M29)</f>
-        <v/>
-      </c>
-      <c r="J29" s="40">
-        <f>$L29*POWER(H29,$M29)</f>
-        <v/>
-      </c>
-      <c r="K29" s="40">
+      <c r="I29" s="33">
+        <f>INT($L29*POWER(G29,$M29))</f>
+        <v/>
+      </c>
+      <c r="J29" s="33">
+        <f>INT($L29*POWER(H29,$M29))</f>
+        <v/>
+      </c>
+      <c r="K29" s="41">
         <f>(I29+J29)/2</f>
         <v/>
       </c>
@@ -4678,29 +4667,29 @@
       <c r="O29" s="30" t="n">
         <v>90</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P29" s="35">
         <f>INT(K29*N29/1000)</f>
         <v/>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="38">
         <f t="array" ref="Q29">INT(SUMPRODUCT(($D$4:$D$90=$D29)*($F$4:$F$90=$F29),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D29)*($F$4:$F$90=$F29),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R29" s="34">
+      <c r="R29" s="35">
         <f t="array" ref="R29">INT(SUMPRODUCT(($D$4:$D$90=$D29)*($F$4:$F$90=$F29),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D29)*($F$4:$F$90=$F29),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S29" s="34" t="n"/>
-      <c r="T29" s="37" t="n"/>
-      <c r="U29" s="34">
+      <c r="S29" s="35" t="n"/>
+      <c r="T29" s="38" t="n"/>
+      <c r="U29" s="35">
         <f>INT(I29*N29/1000)</f>
         <v/>
       </c>
-      <c r="V29" s="36">
+      <c r="V29" s="37">
         <f>INT(N29*V$3)</f>
         <v/>
       </c>
-      <c r="W29" s="34" t="n">
+      <c r="W29" s="35" t="n">
         <v>103</v>
       </c>
     </row>
@@ -4736,15 +4725,15 @@
       <c r="H30" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="I30" s="40">
-        <f>$L30*POWER(G30,$M30)</f>
-        <v/>
-      </c>
-      <c r="J30" s="40">
-        <f>$L30*POWER(H30,$M30)</f>
-        <v/>
-      </c>
-      <c r="K30" s="40">
+      <c r="I30" s="33">
+        <f>INT($L30*POWER(G30,$M30))</f>
+        <v/>
+      </c>
+      <c r="J30" s="33">
+        <f>INT($L30*POWER(H30,$M30))</f>
+        <v/>
+      </c>
+      <c r="K30" s="41">
         <f>(I30+J30)/2</f>
         <v/>
       </c>
@@ -4762,29 +4751,29 @@
       <c r="O30" s="30" t="n">
         <v>350</v>
       </c>
-      <c r="P30" s="34">
+      <c r="P30" s="35">
         <f>INT(K30*N30/1000)</f>
         <v/>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="38">
         <f t="array" ref="Q30">INT(SUMPRODUCT(($D$4:$D$90=$D30)*($F$4:$F$90=$F30),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D30)*($F$4:$F$90=$F30),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R30" s="34">
+      <c r="R30" s="35">
         <f t="array" ref="R30">INT(SUMPRODUCT(($D$4:$D$90=$D30)*($F$4:$F$90=$F30),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D30)*($F$4:$F$90=$F30),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S30" s="34" t="n"/>
-      <c r="T30" s="37" t="n"/>
-      <c r="U30" s="34">
+      <c r="S30" s="35" t="n"/>
+      <c r="T30" s="38" t="n"/>
+      <c r="U30" s="35">
         <f>INT(I30*N30/1000)</f>
         <v/>
       </c>
-      <c r="V30" s="36">
+      <c r="V30" s="37">
         <f>INT(N30*V$3)</f>
         <v/>
       </c>
-      <c r="W30" s="34" t="n">
+      <c r="W30" s="35" t="n">
         <v>1184</v>
       </c>
       <c r="X30" s="0" t="inlineStr">
@@ -4825,15 +4814,15 @@
       <c r="H31" s="30" t="n">
         <v>43</v>
       </c>
-      <c r="I31" s="40">
-        <f>$L31*POWER(G31,$M31)</f>
-        <v/>
-      </c>
-      <c r="J31" s="40">
-        <f>$L31*POWER(H31,$M31)</f>
-        <v/>
-      </c>
-      <c r="K31" s="40">
+      <c r="I31" s="33">
+        <f>INT($L31*POWER(G31,$M31))</f>
+        <v/>
+      </c>
+      <c r="J31" s="33">
+        <f>INT($L31*POWER(H31,$M31))</f>
+        <v/>
+      </c>
+      <c r="K31" s="41">
         <f>(I31+J31)/2</f>
         <v/>
       </c>
@@ -4851,29 +4840,29 @@
       <c r="O31" s="30" t="n">
         <v>350</v>
       </c>
-      <c r="P31" s="34">
+      <c r="P31" s="35">
         <f>INT(K31*N31/1000)</f>
         <v/>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="38">
         <f t="array" ref="Q31">INT(SUMPRODUCT(($D$4:$D$90=$D31)*($F$4:$F$90=$F31),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D31)*($F$4:$F$90=$F31),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R31" s="34">
+      <c r="R31" s="35">
         <f t="array" ref="R31">INT(SUMPRODUCT(($D$4:$D$90=$D31)*($F$4:$F$90=$F31),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D31)*($F$4:$F$90=$F31),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S31" s="34" t="n"/>
-      <c r="T31" s="37" t="n"/>
-      <c r="U31" s="34">
+      <c r="S31" s="35" t="n"/>
+      <c r="T31" s="38" t="n"/>
+      <c r="U31" s="35">
         <f>INT(I31*N31/1000)</f>
         <v/>
       </c>
-      <c r="V31" s="36">
+      <c r="V31" s="37">
         <f>INT(N31*V$3)</f>
         <v/>
       </c>
-      <c r="W31" s="34" t="n">
+      <c r="W31" s="35" t="n">
         <v>1258</v>
       </c>
     </row>
@@ -4909,15 +4898,15 @@
       <c r="H32" s="30" t="n">
         <v>55</v>
       </c>
-      <c r="I32" s="40">
-        <f>$L32*POWER(G32,$M32)</f>
-        <v/>
-      </c>
-      <c r="J32" s="40">
-        <f>$L32*POWER(H32,$M32)</f>
-        <v/>
-      </c>
-      <c r="K32" s="40">
+      <c r="I32" s="33">
+        <f>INT($L32*POWER(G32,$M32))</f>
+        <v/>
+      </c>
+      <c r="J32" s="33">
+        <f>INT($L32*POWER(H32,$M32))</f>
+        <v/>
+      </c>
+      <c r="K32" s="41">
         <f>(I32+J32)/2</f>
         <v/>
       </c>
@@ -4935,29 +4924,29 @@
       <c r="O32" s="30" t="n">
         <v>175</v>
       </c>
-      <c r="P32" s="34">
+      <c r="P32" s="35">
         <f>INT(K32*N32/1000)</f>
         <v/>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="38">
         <f t="array" ref="Q32">INT(SUMPRODUCT(($D$4:$D$90=$D32)*($F$4:$F$90=$F32),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D32)*($F$4:$F$90=$F32),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R32" s="34">
+      <c r="R32" s="35">
         <f t="array" ref="R32">INT(SUMPRODUCT(($D$4:$D$90=$D32)*($F$4:$F$90=$F32),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D32)*($F$4:$F$90=$F32),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S32" s="34" t="n"/>
-      <c r="T32" s="37" t="n"/>
-      <c r="U32" s="34">
+      <c r="S32" s="35" t="n"/>
+      <c r="T32" s="38" t="n"/>
+      <c r="U32" s="35">
         <f>INT(I32*N32/1000)</f>
         <v/>
       </c>
-      <c r="V32" s="36">
+      <c r="V32" s="37">
         <f>INT(N32*V$3)</f>
         <v/>
       </c>
-      <c r="W32" s="34" t="n">
+      <c r="W32" s="35" t="n">
         <v>1332</v>
       </c>
     </row>
@@ -4993,15 +4982,15 @@
       <c r="H33" s="30" t="n">
         <v>64</v>
       </c>
-      <c r="I33" s="40">
-        <f>$L33*POWER(G33,$M33)</f>
-        <v/>
-      </c>
-      <c r="J33" s="40">
-        <f>$L33*POWER(H33,$M33)</f>
-        <v/>
-      </c>
-      <c r="K33" s="40">
+      <c r="I33" s="33">
+        <f>INT($L33*POWER(G33,$M33))</f>
+        <v/>
+      </c>
+      <c r="J33" s="33">
+        <f>INT($L33*POWER(H33,$M33))</f>
+        <v/>
+      </c>
+      <c r="K33" s="41">
         <f>(I33+J33)/2</f>
         <v/>
       </c>
@@ -5019,29 +5008,29 @@
       <c r="O33" s="30" t="n">
         <v>87</v>
       </c>
-      <c r="P33" s="34">
+      <c r="P33" s="35">
         <f>INT(K33*N33/1000)</f>
         <v/>
       </c>
-      <c r="Q33" s="37">
+      <c r="Q33" s="38">
         <f t="array" ref="Q33">INT(SUMPRODUCT(($D$4:$D$90=$D33)*($F$4:$F$90=$F33),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D33)*($F$4:$F$90=$F33),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R33" s="34">
+      <c r="R33" s="35">
         <f t="array" ref="R33">INT(SUMPRODUCT(($D$4:$D$90=$D33)*($F$4:$F$90=$F33),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D33)*($F$4:$F$90=$F33),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S33" s="34" t="n"/>
-      <c r="T33" s="37" t="n"/>
-      <c r="U33" s="34">
+      <c r="S33" s="35" t="n"/>
+      <c r="T33" s="38" t="n"/>
+      <c r="U33" s="35">
         <f>INT(I33*N33/1000)</f>
         <v/>
       </c>
-      <c r="V33" s="36">
+      <c r="V33" s="37">
         <f>INT(N33*V$3)</f>
         <v/>
       </c>
-      <c r="W33" s="34" t="n">
+      <c r="W33" s="35" t="n">
         <v>1406</v>
       </c>
     </row>
@@ -5077,15 +5066,15 @@
       <c r="H34" s="30" t="n">
         <v>70</v>
       </c>
-      <c r="I34" s="40">
-        <f>$L34*POWER(G34,$M34)</f>
-        <v/>
-      </c>
-      <c r="J34" s="40">
-        <f>$L34*POWER(H34,$M34)</f>
-        <v/>
-      </c>
-      <c r="K34" s="40">
+      <c r="I34" s="33">
+        <f>INT($L34*POWER(G34,$M34))</f>
+        <v/>
+      </c>
+      <c r="J34" s="33">
+        <f>INT($L34*POWER(H34,$M34))</f>
+        <v/>
+      </c>
+      <c r="K34" s="41">
         <f>(I34+J34)/2</f>
         <v/>
       </c>
@@ -5103,29 +5092,29 @@
       <c r="O34" s="30" t="n">
         <v>35</v>
       </c>
-      <c r="P34" s="34">
+      <c r="P34" s="35">
         <f>INT(K34*N34/1000)</f>
         <v/>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q34" s="38">
         <f t="array" ref="Q34">INT(SUMPRODUCT(($D$4:$D$90=$D34)*($F$4:$F$90=$F34),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D34)*($F$4:$F$90=$F34),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R34" s="34">
+      <c r="R34" s="35">
         <f t="array" ref="R34">INT(SUMPRODUCT(($D$4:$D$90=$D34)*($F$4:$F$90=$F34),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D34)*($F$4:$F$90=$F34),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S34" s="34" t="n"/>
-      <c r="T34" s="37" t="n"/>
-      <c r="U34" s="34">
+      <c r="S34" s="35" t="n"/>
+      <c r="T34" s="38" t="n"/>
+      <c r="U34" s="35">
         <f>INT(I34*N34/1000)</f>
         <v/>
       </c>
-      <c r="V34" s="36">
+      <c r="V34" s="37">
         <f>INT(N34*V$3)</f>
         <v/>
       </c>
-      <c r="W34" s="34" t="n">
+      <c r="W34" s="35" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -5161,15 +5150,15 @@
       <c r="H35" s="30" t="n">
         <v>47</v>
       </c>
-      <c r="I35" s="40">
-        <f>$L35*POWER(G35,$M35)</f>
-        <v/>
-      </c>
-      <c r="J35" s="40">
-        <f>$L35*POWER(H35,$M35)</f>
-        <v/>
-      </c>
-      <c r="K35" s="40">
+      <c r="I35" s="33">
+        <f>INT($L35*POWER(G35,$M35))</f>
+        <v/>
+      </c>
+      <c r="J35" s="33">
+        <f>INT($L35*POWER(H35,$M35))</f>
+        <v/>
+      </c>
+      <c r="K35" s="41">
         <f>(I35+J35)/2</f>
         <v/>
       </c>
@@ -5187,29 +5176,29 @@
       <c r="O35" s="30" t="n">
         <v>350</v>
       </c>
-      <c r="P35" s="34">
+      <c r="P35" s="35">
         <f>INT(K35*N35/1000)</f>
         <v/>
       </c>
-      <c r="Q35" s="37">
+      <c r="Q35" s="38">
         <f t="array" ref="Q35">INT(SUMPRODUCT(($D$4:$D$90=$D35)*($F$4:$F$90=$F35),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D35)*($F$4:$F$90=$F35),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R35" s="34">
+      <c r="R35" s="35">
         <f t="array" ref="R35">INT(SUMPRODUCT(($D$4:$D$90=$D35)*($F$4:$F$90=$F35),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D35)*($F$4:$F$90=$F35),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S35" s="34" t="n"/>
-      <c r="T35" s="37" t="n"/>
-      <c r="U35" s="34">
+      <c r="S35" s="35" t="n"/>
+      <c r="T35" s="38" t="n"/>
+      <c r="U35" s="35">
         <f>INT(I35*N35/1000)</f>
         <v/>
       </c>
-      <c r="V35" s="36">
+      <c r="V35" s="37">
         <f>INT(N35*V$3)</f>
         <v/>
       </c>
-      <c r="W35" s="34" t="n">
+      <c r="W35" s="35" t="n">
         <v>207</v>
       </c>
     </row>
@@ -5245,15 +5234,15 @@
       <c r="H36" s="30" t="n">
         <v>78</v>
       </c>
-      <c r="I36" s="40">
-        <f>$L36*POWER(G36,$M36)</f>
-        <v/>
-      </c>
-      <c r="J36" s="40">
-        <f>$L36*POWER(H36,$M36)</f>
-        <v/>
-      </c>
-      <c r="K36" s="40">
+      <c r="I36" s="33">
+        <f>INT($L36*POWER(G36,$M36))</f>
+        <v/>
+      </c>
+      <c r="J36" s="33">
+        <f>INT($L36*POWER(H36,$M36))</f>
+        <v/>
+      </c>
+      <c r="K36" s="41">
         <f>(I36+J36)/2</f>
         <v/>
       </c>
@@ -5271,29 +5260,29 @@
       <c r="O36" s="30" t="n">
         <v>350</v>
       </c>
-      <c r="P36" s="34">
+      <c r="P36" s="35">
         <f>INT(K36*N36/1000)</f>
         <v/>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="38">
         <f t="array" ref="Q36">INT(SUMPRODUCT(($D$4:$D$90=$D36)*($F$4:$F$90=$F36),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D36)*($F$4:$F$90=$F36),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R36" s="34">
+      <c r="R36" s="35">
         <f t="array" ref="R36">INT(SUMPRODUCT(($D$4:$D$90=$D36)*($F$4:$F$90=$F36),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D36)*($F$4:$F$90=$F36),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S36" s="34" t="n"/>
-      <c r="T36" s="37" t="n"/>
-      <c r="U36" s="34">
+      <c r="S36" s="35" t="n"/>
+      <c r="T36" s="38" t="n"/>
+      <c r="U36" s="35">
         <f>INT(I36*N36/1000)</f>
         <v/>
       </c>
-      <c r="V36" s="36">
+      <c r="V36" s="37">
         <f>INT(N36*V$3)</f>
         <v/>
       </c>
-      <c r="W36" s="34" t="n">
+      <c r="W36" s="35" t="n">
         <v>222</v>
       </c>
     </row>
@@ -5329,15 +5318,15 @@
       <c r="H37" s="30" t="n">
         <v>102</v>
       </c>
-      <c r="I37" s="40">
-        <f>$L37*POWER(G37,$M37)</f>
-        <v/>
-      </c>
-      <c r="J37" s="40">
-        <f>$L37*POWER(H37,$M37)</f>
-        <v/>
-      </c>
-      <c r="K37" s="40">
+      <c r="I37" s="33">
+        <f>INT($L37*POWER(G37,$M37))</f>
+        <v/>
+      </c>
+      <c r="J37" s="33">
+        <f>INT($L37*POWER(H37,$M37))</f>
+        <v/>
+      </c>
+      <c r="K37" s="41">
         <f>(I37+J37)/2</f>
         <v/>
       </c>
@@ -5355,29 +5344,29 @@
       <c r="O37" s="30" t="n">
         <v>175</v>
       </c>
-      <c r="P37" s="34">
+      <c r="P37" s="35">
         <f>INT(K37*N37/1000)</f>
         <v/>
       </c>
-      <c r="Q37" s="37">
+      <c r="Q37" s="38">
         <f t="array" ref="Q37">INT(SUMPRODUCT(($D$4:$D$90=$D37)*($F$4:$F$90=$F37),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D37)*($F$4:$F$90=$F37),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R37" s="34">
+      <c r="R37" s="35">
         <f t="array" ref="R37">INT(SUMPRODUCT(($D$4:$D$90=$D37)*($F$4:$F$90=$F37),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D37)*($F$4:$F$90=$F37),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S37" s="34" t="n"/>
-      <c r="T37" s="37" t="n"/>
-      <c r="U37" s="34">
+      <c r="S37" s="35" t="n"/>
+      <c r="T37" s="38" t="n"/>
+      <c r="U37" s="35">
         <f>INT(I37*N37/1000)</f>
         <v/>
       </c>
-      <c r="V37" s="36">
+      <c r="V37" s="37">
         <f>INT(N37*V$3)</f>
         <v/>
       </c>
-      <c r="W37" s="34" t="n">
+      <c r="W37" s="35" t="n">
         <v>236</v>
       </c>
     </row>
@@ -5413,15 +5402,15 @@
       <c r="H38" s="30" t="n">
         <v>120</v>
       </c>
-      <c r="I38" s="40">
-        <f>$L38*POWER(G38,$M38)</f>
-        <v/>
-      </c>
-      <c r="J38" s="40">
-        <f>$L38*POWER(H38,$M38)</f>
-        <v/>
-      </c>
-      <c r="K38" s="40">
+      <c r="I38" s="33">
+        <f>INT($L38*POWER(G38,$M38))</f>
+        <v/>
+      </c>
+      <c r="J38" s="33">
+        <f>INT($L38*POWER(H38,$M38))</f>
+        <v/>
+      </c>
+      <c r="K38" s="41">
         <f>(I38+J38)/2</f>
         <v/>
       </c>
@@ -5439,29 +5428,29 @@
       <c r="O38" s="30" t="n">
         <v>87</v>
       </c>
-      <c r="P38" s="34">
+      <c r="P38" s="35">
         <f>INT(K38*N38/1000)</f>
         <v/>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q38" s="38">
         <f t="array" ref="Q38">INT(SUMPRODUCT(($D$4:$D$90=$D38)*($F$4:$F$90=$F38),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D38)*($F$4:$F$90=$F38),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R38" s="34">
+      <c r="R38" s="35">
         <f t="array" ref="R38">INT(SUMPRODUCT(($D$4:$D$90=$D38)*($F$4:$F$90=$F38),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D38)*($F$4:$F$90=$F38),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S38" s="34" t="n"/>
-      <c r="T38" s="37" t="n"/>
-      <c r="U38" s="34">
+      <c r="S38" s="35" t="n"/>
+      <c r="T38" s="38" t="n"/>
+      <c r="U38" s="35">
         <f>INT(I38*N38/1000)</f>
         <v/>
       </c>
-      <c r="V38" s="36">
+      <c r="V38" s="37">
         <f>INT(N38*V$3)</f>
         <v/>
       </c>
-      <c r="W38" s="34" t="n">
+      <c r="W38" s="35" t="n">
         <v>259</v>
       </c>
     </row>
@@ -5497,15 +5486,15 @@
       <c r="H39" s="30" t="n">
         <v>132</v>
       </c>
-      <c r="I39" s="40">
-        <f>$L39*POWER(G39,$M39)</f>
-        <v/>
-      </c>
-      <c r="J39" s="40">
-        <f>$L39*POWER(H39,$M39)</f>
-        <v/>
-      </c>
-      <c r="K39" s="40">
+      <c r="I39" s="33">
+        <f>INT($L39*POWER(G39,$M39))</f>
+        <v/>
+      </c>
+      <c r="J39" s="33">
+        <f>INT($L39*POWER(H39,$M39))</f>
+        <v/>
+      </c>
+      <c r="K39" s="41">
         <f>(I39+J39)/2</f>
         <v/>
       </c>
@@ -5523,29 +5512,29 @@
       <c r="O39" s="30" t="n">
         <v>35</v>
       </c>
-      <c r="P39" s="34">
+      <c r="P39" s="35">
         <f>INT(K39*N39/1000)</f>
         <v/>
       </c>
-      <c r="Q39" s="37">
+      <c r="Q39" s="38">
         <f t="array" ref="Q39">INT(SUMPRODUCT(($D$4:$D$90=$D39)*($F$4:$F$90=$F39),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D39)*($F$4:$F$90=$F39),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R39" s="34">
+      <c r="R39" s="35">
         <f t="array" ref="R39">INT(SUMPRODUCT(($D$4:$D$90=$D39)*($F$4:$F$90=$F39),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D39)*($F$4:$F$90=$F39),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S39" s="34" t="n"/>
-      <c r="T39" s="37" t="n"/>
-      <c r="U39" s="34">
+      <c r="S39" s="35" t="n"/>
+      <c r="T39" s="38" t="n"/>
+      <c r="U39" s="35">
         <f>INT(I39*N39/1000)</f>
         <v/>
       </c>
-      <c r="V39" s="36">
+      <c r="V39" s="37">
         <f>INT(N39*V$3)</f>
         <v/>
       </c>
-      <c r="W39" s="34" t="n">
+      <c r="W39" s="35" t="n">
         <v>296</v>
       </c>
     </row>
@@ -5581,15 +5570,15 @@
       <c r="H40" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="I40" s="40">
-        <f>$L40*POWER(G40,$M40)</f>
-        <v/>
-      </c>
-      <c r="J40" s="40">
-        <f>$L40*POWER(H40,$M40)</f>
-        <v/>
-      </c>
-      <c r="K40" s="40">
+      <c r="I40" s="33">
+        <f>INT($L40*POWER(G40,$M40))</f>
+        <v/>
+      </c>
+      <c r="J40" s="33">
+        <f>INT($L40*POWER(H40,$M40))</f>
+        <v/>
+      </c>
+      <c r="K40" s="41">
         <f>(I40+J40)/2</f>
         <v/>
       </c>
@@ -5607,29 +5596,29 @@
       <c r="O40" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P40" s="34">
+      <c r="P40" s="35">
         <f>INT(K40*N40/1000)</f>
         <v/>
       </c>
-      <c r="Q40" s="37">
+      <c r="Q40" s="38">
         <f t="array" ref="Q40">INT(SUMPRODUCT(($D$4:$D$90=$D40)*($F$4:$F$90=$F40),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D40)*($F$4:$F$90=$F40),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R40" s="34">
+      <c r="R40" s="35">
         <f t="array" ref="R40">INT(SUMPRODUCT(($D$4:$D$90=$D40)*($F$4:$F$90=$F40),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D40)*($F$4:$F$90=$F40),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S40" s="34" t="n"/>
-      <c r="T40" s="37" t="n"/>
-      <c r="U40" s="34">
+      <c r="S40" s="35" t="n"/>
+      <c r="T40" s="38" t="n"/>
+      <c r="U40" s="35">
         <f>INT(I40*N40/1000)</f>
         <v/>
       </c>
-      <c r="V40" s="36">
+      <c r="V40" s="37">
         <f>INT(N40*V$3)</f>
         <v/>
       </c>
-      <c r="W40" s="34" t="n">
+      <c r="W40" s="35" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -5665,15 +5654,15 @@
       <c r="H41" s="30" t="n">
         <v>40</v>
       </c>
-      <c r="I41" s="40">
-        <f>$L41*POWER(G41,$M41)</f>
-        <v/>
-      </c>
-      <c r="J41" s="40">
-        <f>$L41*POWER(H41,$M41)</f>
-        <v/>
-      </c>
-      <c r="K41" s="40">
+      <c r="I41" s="33">
+        <f>INT($L41*POWER(G41,$M41))</f>
+        <v/>
+      </c>
+      <c r="J41" s="33">
+        <f>INT($L41*POWER(H41,$M41))</f>
+        <v/>
+      </c>
+      <c r="K41" s="41">
         <f>(I41+J41)/2</f>
         <v/>
       </c>
@@ -5691,29 +5680,29 @@
       <c r="O41" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P41" s="34">
+      <c r="P41" s="35">
         <f>INT(K41*N41/1000)</f>
         <v/>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="38">
         <f t="array" ref="Q41">INT(SUMPRODUCT(($D$4:$D$90=$D41)*($F$4:$F$90=$F41),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D41)*($F$4:$F$90=$F41),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R41" s="34">
+      <c r="R41" s="35">
         <f t="array" ref="R41">INT(SUMPRODUCT(($D$4:$D$90=$D41)*($F$4:$F$90=$F41),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D41)*($F$4:$F$90=$F41),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S41" s="34" t="n"/>
-      <c r="T41" s="37" t="n"/>
-      <c r="U41" s="34">
+      <c r="S41" s="35" t="n"/>
+      <c r="T41" s="38" t="n"/>
+      <c r="U41" s="35">
         <f>INT(I41*N41/1000)</f>
         <v/>
       </c>
-      <c r="V41" s="36">
+      <c r="V41" s="37">
         <f>INT(N41*V$3)</f>
         <v/>
       </c>
-      <c r="W41" s="34" t="n">
+      <c r="W41" s="35" t="n">
         <v>2590</v>
       </c>
     </row>
@@ -5749,15 +5738,15 @@
       <c r="H42" s="30" t="n">
         <v>23</v>
       </c>
-      <c r="I42" s="40">
-        <f>$L42*POWER(G42,$M42)</f>
-        <v/>
-      </c>
-      <c r="J42" s="40">
-        <f>$L42*POWER(H42,$M42)</f>
-        <v/>
-      </c>
-      <c r="K42" s="40">
+      <c r="I42" s="33">
+        <f>INT($L42*POWER(G42,$M42))</f>
+        <v/>
+      </c>
+      <c r="J42" s="33">
+        <f>INT($L42*POWER(H42,$M42))</f>
+        <v/>
+      </c>
+      <c r="K42" s="41">
         <f>(I42+J42)/2</f>
         <v/>
       </c>
@@ -5775,29 +5764,29 @@
       <c r="O42" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P42" s="34">
+      <c r="P42" s="35">
         <f>INT(K42*N42/1000)</f>
         <v/>
       </c>
-      <c r="Q42" s="37">
+      <c r="Q42" s="38">
         <f t="array" ref="Q42">INT(SUMPRODUCT(($D$4:$D$90=$D42)*($F$4:$F$90=$F42),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D42)*($F$4:$F$90=$F42),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R42" s="34">
+      <c r="R42" s="35">
         <f t="array" ref="R42">INT(SUMPRODUCT(($D$4:$D$90=$D42)*($F$4:$F$90=$F42),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D42)*($F$4:$F$90=$F42),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S42" s="34" t="n"/>
-      <c r="T42" s="37" t="n"/>
-      <c r="U42" s="34">
+      <c r="S42" s="35" t="n"/>
+      <c r="T42" s="38" t="n"/>
+      <c r="U42" s="35">
         <f>INT(I42*N42/1000)</f>
         <v/>
       </c>
-      <c r="V42" s="36">
+      <c r="V42" s="37">
         <f>INT(N42*V$3)</f>
         <v/>
       </c>
-      <c r="W42" s="34" t="n">
+      <c r="W42" s="35" t="n">
         <v>592</v>
       </c>
     </row>
@@ -5833,15 +5822,15 @@
       <c r="H43" s="30" t="n">
         <v>31</v>
       </c>
-      <c r="I43" s="40">
-        <f>$L43*POWER(G43,$M43)</f>
-        <v/>
-      </c>
-      <c r="J43" s="40">
-        <f>$L43*POWER(H43,$M43)</f>
-        <v/>
-      </c>
-      <c r="K43" s="40">
+      <c r="I43" s="33">
+        <f>INT($L43*POWER(G43,$M43))</f>
+        <v/>
+      </c>
+      <c r="J43" s="33">
+        <f>INT($L43*POWER(H43,$M43))</f>
+        <v/>
+      </c>
+      <c r="K43" s="41">
         <f>(I43+J43)/2</f>
         <v/>
       </c>
@@ -5859,29 +5848,29 @@
       <c r="O43" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P43" s="34">
+      <c r="P43" s="35">
         <f>INT(K43*N43/1000)</f>
         <v/>
       </c>
-      <c r="Q43" s="37">
+      <c r="Q43" s="38">
         <f t="array" ref="Q43">INT(SUMPRODUCT(($D$4:$D$90=$D43)*($F$4:$F$90=$F43),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D43)*($F$4:$F$90=$F43),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R43" s="34">
+      <c r="R43" s="35">
         <f t="array" ref="R43">INT(SUMPRODUCT(($D$4:$D$90=$D43)*($F$4:$F$90=$F43),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D43)*($F$4:$F$90=$F43),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S43" s="34" t="n"/>
-      <c r="T43" s="37" t="n"/>
-      <c r="U43" s="34">
+      <c r="S43" s="35" t="n"/>
+      <c r="T43" s="38" t="n"/>
+      <c r="U43" s="35">
         <f>INT(I43*N43/1000)</f>
         <v/>
       </c>
-      <c r="V43" s="36">
+      <c r="V43" s="37">
         <f>INT(N43*V$3)</f>
         <v/>
       </c>
-      <c r="W43" s="34" t="n">
+      <c r="W43" s="35" t="n">
         <v>740</v>
       </c>
     </row>
@@ -5917,15 +5906,15 @@
       <c r="H44" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="I44" s="40">
-        <f>$L44*POWER(G44,$M44)</f>
-        <v/>
-      </c>
-      <c r="J44" s="40">
-        <f>$L44*POWER(H44,$M44)</f>
-        <v/>
-      </c>
-      <c r="K44" s="40">
+      <c r="I44" s="33">
+        <f>INT($L44*POWER(G44,$M44))</f>
+        <v/>
+      </c>
+      <c r="J44" s="33">
+        <f>INT($L44*POWER(H44,$M44))</f>
+        <v/>
+      </c>
+      <c r="K44" s="41">
         <f>(I44+J44)/2</f>
         <v/>
       </c>
@@ -5943,29 +5932,29 @@
       <c r="O44" s="30" t="n">
         <v>200</v>
       </c>
-      <c r="P44" s="34">
+      <c r="P44" s="35">
         <f>INT(K44*N44/1000)</f>
         <v/>
       </c>
-      <c r="Q44" s="37">
+      <c r="Q44" s="38">
         <f t="array" ref="Q44">INT(SUMPRODUCT(($D$4:$D$90=$D44)*($F$4:$F$90=$F44),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D44)*($F$4:$F$90=$F44),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R44" s="34">
+      <c r="R44" s="35">
         <f t="array" ref="R44">INT(SUMPRODUCT(($D$4:$D$90=$D44)*($F$4:$F$90=$F44),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D44)*($F$4:$F$90=$F44),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S44" s="34" t="n"/>
-      <c r="T44" s="37" t="n"/>
-      <c r="U44" s="34">
+      <c r="S44" s="35" t="n"/>
+      <c r="T44" s="38" t="n"/>
+      <c r="U44" s="35">
         <f>INT(I44*N44/1000)</f>
         <v/>
       </c>
-      <c r="V44" s="36">
+      <c r="V44" s="37">
         <f>INT(N44*V$3)</f>
         <v/>
       </c>
-      <c r="W44" s="34" t="n">
+      <c r="W44" s="35" t="n">
         <v>888</v>
       </c>
     </row>
@@ -6001,15 +5990,15 @@
       <c r="H45" s="30" t="n">
         <v>40</v>
       </c>
-      <c r="I45" s="40">
-        <f>$L45*POWER(G45,$M45)</f>
-        <v/>
-      </c>
-      <c r="J45" s="40">
-        <f>$L45*POWER(H45,$M45)</f>
-        <v/>
-      </c>
-      <c r="K45" s="40">
+      <c r="I45" s="33">
+        <f>INT($L45*POWER(G45,$M45))</f>
+        <v/>
+      </c>
+      <c r="J45" s="33">
+        <f>INT($L45*POWER(H45,$M45))</f>
+        <v/>
+      </c>
+      <c r="K45" s="41">
         <f>(I45+J45)/2</f>
         <v/>
       </c>
@@ -6027,29 +6016,29 @@
       <c r="O45" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P45" s="34">
+      <c r="P45" s="35">
         <f>INT(K45*N45/1000)</f>
         <v/>
       </c>
-      <c r="Q45" s="37">
+      <c r="Q45" s="38">
         <f t="array" ref="Q45">INT(SUMPRODUCT(($D$4:$D$90=$D45)*($F$4:$F$90=$F45),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D45)*($F$4:$F$90=$F45),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R45" s="34">
+      <c r="R45" s="35">
         <f t="array" ref="R45">INT(SUMPRODUCT(($D$4:$D$90=$D45)*($F$4:$F$90=$F45),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D45)*($F$4:$F$90=$F45),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S45" s="34" t="n"/>
-      <c r="T45" s="37" t="n"/>
-      <c r="U45" s="34">
+      <c r="S45" s="35" t="n"/>
+      <c r="T45" s="38" t="n"/>
+      <c r="U45" s="35">
         <f>INT(I45*N45/1000)</f>
         <v/>
       </c>
-      <c r="V45" s="36">
+      <c r="V45" s="37">
         <f>INT(N45*V$3)</f>
         <v/>
       </c>
-      <c r="W45" s="34" t="n">
+      <c r="W45" s="35" t="n">
         <v>444</v>
       </c>
     </row>
@@ -6085,15 +6074,15 @@
       <c r="H46" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="I46" s="40">
-        <f>$L46*POWER(G46,$M46)</f>
-        <v/>
-      </c>
-      <c r="J46" s="40">
-        <f>$L46*POWER(H46,$M46)</f>
-        <v/>
-      </c>
-      <c r="K46" s="40">
+      <c r="I46" s="33">
+        <f>INT($L46*POWER(G46,$M46))</f>
+        <v/>
+      </c>
+      <c r="J46" s="33">
+        <f>INT($L46*POWER(H46,$M46))</f>
+        <v/>
+      </c>
+      <c r="K46" s="41">
         <f>(I46+J46)/2</f>
         <v/>
       </c>
@@ -6111,29 +6100,29 @@
       <c r="O46" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P46" s="34">
+      <c r="P46" s="35">
         <f>INT(K46*N46/1000)</f>
         <v/>
       </c>
-      <c r="Q46" s="37">
+      <c r="Q46" s="38">
         <f t="array" ref="Q46">INT(SUMPRODUCT(($D$4:$D$90=$D46)*($F$4:$F$90=$F46),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D46)*($F$4:$F$90=$F46),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R46" s="34">
+      <c r="R46" s="35">
         <f t="array" ref="R46">INT(SUMPRODUCT(($D$4:$D$90=$D46)*($F$4:$F$90=$F46),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D46)*($F$4:$F$90=$F46),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S46" s="34" t="n"/>
-      <c r="T46" s="37" t="n"/>
-      <c r="U46" s="34">
+      <c r="S46" s="35" t="n"/>
+      <c r="T46" s="38" t="n"/>
+      <c r="U46" s="35">
         <f>INT(I46*N46/1000)</f>
         <v/>
       </c>
-      <c r="V46" s="36">
+      <c r="V46" s="37">
         <f>INT(N46*V$3)</f>
         <v/>
       </c>
-      <c r="W46" s="34" t="n">
+      <c r="W46" s="35" t="n">
         <v>555</v>
       </c>
     </row>
@@ -6169,15 +6158,15 @@
       <c r="H47" s="30" t="n">
         <v>20</v>
       </c>
-      <c r="I47" s="40">
-        <f>$L47*POWER(G47,$M47)</f>
-        <v/>
-      </c>
-      <c r="J47" s="40">
-        <f>$L47*POWER(H47,$M47)</f>
-        <v/>
-      </c>
-      <c r="K47" s="40">
+      <c r="I47" s="33">
+        <f>INT($L47*POWER(G47,$M47))</f>
+        <v/>
+      </c>
+      <c r="J47" s="33">
+        <f>INT($L47*POWER(H47,$M47))</f>
+        <v/>
+      </c>
+      <c r="K47" s="41">
         <f>(I47+J47)/2</f>
         <v/>
       </c>
@@ -6195,29 +6184,29 @@
       <c r="O47" s="30" t="n">
         <v>200</v>
       </c>
-      <c r="P47" s="34">
+      <c r="P47" s="35">
         <f>INT(K47*N47/1000)</f>
         <v/>
       </c>
-      <c r="Q47" s="37">
+      <c r="Q47" s="38">
         <f t="array" ref="Q47">INT(SUMPRODUCT(($D$4:$D$90=$D47)*($F$4:$F$90=$F47),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D47)*($F$4:$F$90=$F47),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R47" s="34">
+      <c r="R47" s="35">
         <f t="array" ref="R47">INT(SUMPRODUCT(($D$4:$D$90=$D47)*($F$4:$F$90=$F47),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D47)*($F$4:$F$90=$F47),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S47" s="34" t="n"/>
-      <c r="T47" s="37" t="n"/>
-      <c r="U47" s="34">
+      <c r="S47" s="35" t="n"/>
+      <c r="T47" s="38" t="n"/>
+      <c r="U47" s="35">
         <f>INT(I47*N47/1000)</f>
         <v/>
       </c>
-      <c r="V47" s="36">
+      <c r="V47" s="37">
         <f>INT(N47*V$3)</f>
         <v/>
       </c>
-      <c r="W47" s="34" t="n">
+      <c r="W47" s="35" t="n">
         <v>629</v>
       </c>
     </row>
@@ -6253,15 +6242,15 @@
       <c r="H48" s="30" t="n">
         <v>22</v>
       </c>
-      <c r="I48" s="40">
-        <f>$L48*POWER(G48,$M48)</f>
-        <v/>
-      </c>
-      <c r="J48" s="40">
-        <f>$L48*POWER(H48,$M48)</f>
-        <v/>
-      </c>
-      <c r="K48" s="40">
+      <c r="I48" s="33">
+        <f>INT($L48*POWER(G48,$M48))</f>
+        <v/>
+      </c>
+      <c r="J48" s="33">
+        <f>INT($L48*POWER(H48,$M48))</f>
+        <v/>
+      </c>
+      <c r="K48" s="41">
         <f>(I48+J48)/2</f>
         <v/>
       </c>
@@ -6279,29 +6268,29 @@
       <c r="O48" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P48" s="34">
+      <c r="P48" s="35">
         <f>INT(K48*N48/1000)</f>
         <v/>
       </c>
-      <c r="Q48" s="37">
+      <c r="Q48" s="38">
         <f t="array" ref="Q48">INT(SUMPRODUCT(($D$4:$D$90=$D48)*($F$4:$F$90=$F48),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D48)*($F$4:$F$90=$F48),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R48" s="34">
+      <c r="R48" s="35">
         <f t="array" ref="R48">INT(SUMPRODUCT(($D$4:$D$90=$D48)*($F$4:$F$90=$F48),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D48)*($F$4:$F$90=$F48),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S48" s="34" t="n"/>
-      <c r="T48" s="37" t="n"/>
-      <c r="U48" s="34">
+      <c r="S48" s="35" t="n"/>
+      <c r="T48" s="38" t="n"/>
+      <c r="U48" s="35">
         <f>INT(I48*N48/1000)</f>
         <v/>
       </c>
-      <c r="V48" s="36">
+      <c r="V48" s="37">
         <f>INT(N48*V$3)</f>
         <v/>
       </c>
-      <c r="W48" s="34" t="n">
+      <c r="W48" s="35" t="n">
         <v>407</v>
       </c>
     </row>
@@ -6337,15 +6326,15 @@
       <c r="H49" s="30" t="n">
         <v>33</v>
       </c>
-      <c r="I49" s="40">
-        <f>$L49*POWER(G49,$M49)</f>
-        <v/>
-      </c>
-      <c r="J49" s="40">
-        <f>$L49*POWER(H49,$M49)</f>
-        <v/>
-      </c>
-      <c r="K49" s="40">
+      <c r="I49" s="33">
+        <f>INT($L49*POWER(G49,$M49))</f>
+        <v/>
+      </c>
+      <c r="J49" s="33">
+        <f>INT($L49*POWER(H49,$M49))</f>
+        <v/>
+      </c>
+      <c r="K49" s="41">
         <f>(I49+J49)/2</f>
         <v/>
       </c>
@@ -6363,29 +6352,29 @@
       <c r="O49" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P49" s="34">
+      <c r="P49" s="35">
         <f>INT(K49*N49/1000)</f>
         <v/>
       </c>
-      <c r="Q49" s="37">
+      <c r="Q49" s="38">
         <f t="array" ref="Q49">INT(SUMPRODUCT(($D$4:$D$90=$D49)*($F$4:$F$90=$F49),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D49)*($F$4:$F$90=$F49),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R49" s="34">
+      <c r="R49" s="35">
         <f t="array" ref="R49">INT(SUMPRODUCT(($D$4:$D$90=$D49)*($F$4:$F$90=$F49),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D49)*($F$4:$F$90=$F49),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S49" s="34" t="n"/>
-      <c r="T49" s="37" t="n"/>
-      <c r="U49" s="34">
+      <c r="S49" s="35" t="n"/>
+      <c r="T49" s="38" t="n"/>
+      <c r="U49" s="35">
         <f>INT(I49*N49/1000)</f>
         <v/>
       </c>
-      <c r="V49" s="36">
+      <c r="V49" s="37">
         <f>INT(N49*V$3)</f>
         <v/>
       </c>
-      <c r="W49" s="34" t="n">
+      <c r="W49" s="35" t="n">
         <v>444</v>
       </c>
     </row>
@@ -6421,15 +6410,15 @@
       <c r="H50" s="30" t="n">
         <v>41</v>
       </c>
-      <c r="I50" s="40">
-        <f>$L50*POWER(G50,$M50)</f>
-        <v/>
-      </c>
-      <c r="J50" s="40">
-        <f>$L50*POWER(H50,$M50)</f>
-        <v/>
-      </c>
-      <c r="K50" s="40">
+      <c r="I50" s="33">
+        <f>INT($L50*POWER(G50,$M50))</f>
+        <v/>
+      </c>
+      <c r="J50" s="33">
+        <f>INT($L50*POWER(H50,$M50))</f>
+        <v/>
+      </c>
+      <c r="K50" s="41">
         <f>(I50+J50)/2</f>
         <v/>
       </c>
@@ -6447,29 +6436,29 @@
       <c r="O50" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P50" s="34">
+      <c r="P50" s="35">
         <f>INT(K50*N50/1000)</f>
         <v/>
       </c>
-      <c r="Q50" s="37">
+      <c r="Q50" s="38">
         <f t="array" ref="Q50">INT(SUMPRODUCT(($D$4:$D$90=$D50)*($F$4:$F$90=$F50),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D50)*($F$4:$F$90=$F50),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R50" s="34">
+      <c r="R50" s="35">
         <f t="array" ref="R50">INT(SUMPRODUCT(($D$4:$D$90=$D50)*($F$4:$F$90=$F50),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D50)*($F$4:$F$90=$F50),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S50" s="34" t="n"/>
-      <c r="T50" s="37" t="n"/>
-      <c r="U50" s="34">
+      <c r="S50" s="35" t="n"/>
+      <c r="T50" s="38" t="n"/>
+      <c r="U50" s="35">
         <f>INT(I50*N50/1000)</f>
         <v/>
       </c>
-      <c r="V50" s="36">
+      <c r="V50" s="37">
         <f>INT(N50*V$3)</f>
         <v/>
       </c>
-      <c r="W50" s="34" t="n">
+      <c r="W50" s="35" t="n">
         <v>740</v>
       </c>
     </row>
@@ -6505,15 +6494,15 @@
       <c r="H51" s="30" t="n">
         <v>25</v>
       </c>
-      <c r="I51" s="40">
-        <f>$L51*POWER(G51,$M51)</f>
-        <v/>
-      </c>
-      <c r="J51" s="40">
-        <f>$L51*POWER(H51,$M51)</f>
-        <v/>
-      </c>
-      <c r="K51" s="40">
+      <c r="I51" s="33">
+        <f>INT($L51*POWER(G51,$M51))</f>
+        <v/>
+      </c>
+      <c r="J51" s="33">
+        <f>INT($L51*POWER(H51,$M51))</f>
+        <v/>
+      </c>
+      <c r="K51" s="41">
         <f>(I51+J51)/2</f>
         <v/>
       </c>
@@ -6531,29 +6520,29 @@
       <c r="O51" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P51" s="34">
+      <c r="P51" s="35">
         <f>INT(K51*N51/1000)</f>
         <v/>
       </c>
-      <c r="Q51" s="37">
+      <c r="Q51" s="38">
         <f t="array" ref="Q51">INT(SUMPRODUCT(($D$4:$D$90=$D51)*($F$4:$F$90=$F51),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D51)*($F$4:$F$90=$F51),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R51" s="34">
+      <c r="R51" s="35">
         <f t="array" ref="R51">INT(SUMPRODUCT(($D$4:$D$90=$D51)*($F$4:$F$90=$F51),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D51)*($F$4:$F$90=$F51),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S51" s="34" t="n"/>
-      <c r="T51" s="37" t="n"/>
-      <c r="U51" s="34">
+      <c r="S51" s="35" t="n"/>
+      <c r="T51" s="38" t="n"/>
+      <c r="U51" s="35">
         <f>INT(I51*N51/1000)</f>
         <v/>
       </c>
-      <c r="V51" s="36">
+      <c r="V51" s="37">
         <f>INT(N51*V$3)</f>
         <v/>
       </c>
-      <c r="W51" s="34" t="n">
+      <c r="W51" s="35" t="n">
         <v>814</v>
       </c>
     </row>
@@ -6589,15 +6578,15 @@
       <c r="H52" s="30" t="n">
         <v>38</v>
       </c>
-      <c r="I52" s="40">
-        <f>$L52*POWER(G52,$M52)</f>
-        <v/>
-      </c>
-      <c r="J52" s="40">
-        <f>$L52*POWER(H52,$M52)</f>
-        <v/>
-      </c>
-      <c r="K52" s="40">
+      <c r="I52" s="33">
+        <f>INT($L52*POWER(G52,$M52))</f>
+        <v/>
+      </c>
+      <c r="J52" s="33">
+        <f>INT($L52*POWER(H52,$M52))</f>
+        <v/>
+      </c>
+      <c r="K52" s="41">
         <f>(I52+J52)/2</f>
         <v/>
       </c>
@@ -6615,29 +6604,29 @@
       <c r="O52" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P52" s="34">
+      <c r="P52" s="35">
         <f>INT(K52*N52/1000)</f>
         <v/>
       </c>
-      <c r="Q52" s="37">
+      <c r="Q52" s="38">
         <f t="array" ref="Q52">INT(SUMPRODUCT(($D$4:$D$90=$D52)*($F$4:$F$90=$F52),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D52)*($F$4:$F$90=$F52),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R52" s="34">
+      <c r="R52" s="35">
         <f t="array" ref="R52">INT(SUMPRODUCT(($D$4:$D$90=$D52)*($F$4:$F$90=$F52),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D52)*($F$4:$F$90=$F52),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S52" s="34" t="n"/>
-      <c r="T52" s="37" t="n"/>
-      <c r="U52" s="34">
+      <c r="S52" s="35" t="n"/>
+      <c r="T52" s="38" t="n"/>
+      <c r="U52" s="35">
         <f>INT(I52*N52/1000)</f>
         <v/>
       </c>
-      <c r="V52" s="36">
+      <c r="V52" s="37">
         <f>INT(N52*V$3)</f>
         <v/>
       </c>
-      <c r="W52" s="34" t="n">
+      <c r="W52" s="35" t="n">
         <v>399</v>
       </c>
     </row>
@@ -6673,15 +6662,15 @@
       <c r="H53" s="30" t="n">
         <v>48</v>
       </c>
-      <c r="I53" s="40">
-        <f>$L53*POWER(G53,$M53)</f>
-        <v/>
-      </c>
-      <c r="J53" s="40">
-        <f>$L53*POWER(H53,$M53)</f>
-        <v/>
-      </c>
-      <c r="K53" s="40">
+      <c r="I53" s="33">
+        <f>INT($L53*POWER(G53,$M53))</f>
+        <v/>
+      </c>
+      <c r="J53" s="33">
+        <f>INT($L53*POWER(H53,$M53))</f>
+        <v/>
+      </c>
+      <c r="K53" s="41">
         <f>(I53+J53)/2</f>
         <v/>
       </c>
@@ -6699,29 +6688,29 @@
       <c r="O53" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="P53" s="34">
+      <c r="P53" s="35">
         <f>INT(K53*N53/1000)</f>
         <v/>
       </c>
-      <c r="Q53" s="37">
+      <c r="Q53" s="38">
         <f t="array" ref="Q53">INT(SUMPRODUCT(($D$4:$D$90=$D53)*($F$4:$F$90=$F53),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D53)*($F$4:$F$90=$F53),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R53" s="34">
+      <c r="R53" s="35">
         <f t="array" ref="R53">INT(SUMPRODUCT(($D$4:$D$90=$D53)*($F$4:$F$90=$F53),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D53)*($F$4:$F$90=$F53),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S53" s="34" t="n"/>
-      <c r="T53" s="37" t="n"/>
-      <c r="U53" s="34">
+      <c r="S53" s="35" t="n"/>
+      <c r="T53" s="38" t="n"/>
+      <c r="U53" s="35">
         <f>INT(I53*N53/1000)</f>
         <v/>
       </c>
-      <c r="V53" s="36">
+      <c r="V53" s="37">
         <f>INT(N53*V$3)</f>
         <v/>
       </c>
-      <c r="W53" s="34" t="n">
+      <c r="W53" s="35" t="n">
         <v>466</v>
       </c>
     </row>
@@ -6757,15 +6746,15 @@
       <c r="H54" s="30" t="n">
         <v>35</v>
       </c>
-      <c r="I54" s="40">
-        <f>$L54*POWER(G54,$M54)</f>
-        <v/>
-      </c>
-      <c r="J54" s="40">
-        <f>$L54*POWER(H54,$M54)</f>
-        <v/>
-      </c>
-      <c r="K54" s="40">
+      <c r="I54" s="33">
+        <f>INT($L54*POWER(G54,$M54))</f>
+        <v/>
+      </c>
+      <c r="J54" s="33">
+        <f>INT($L54*POWER(H54,$M54))</f>
+        <v/>
+      </c>
+      <c r="K54" s="41">
         <f>(I54+J54)/2</f>
         <v/>
       </c>
@@ -6783,29 +6772,29 @@
       <c r="O54" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P54" s="34">
+      <c r="P54" s="35">
         <f>INT(K54*N54/1000)</f>
         <v/>
       </c>
-      <c r="Q54" s="37">
+      <c r="Q54" s="38">
         <f t="array" ref="Q54">INT(SUMPRODUCT(($D$4:$D$90=$D54)*($F$4:$F$90=$F54),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D54)*($F$4:$F$90=$F54),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R54" s="34">
+      <c r="R54" s="35">
         <f t="array" ref="R54">INT(SUMPRODUCT(($D$4:$D$90=$D54)*($F$4:$F$90=$F54),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D54)*($F$4:$F$90=$F54),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S54" s="34" t="n"/>
-      <c r="T54" s="37" t="n"/>
-      <c r="U54" s="34">
+      <c r="S54" s="35" t="n"/>
+      <c r="T54" s="38" t="n"/>
+      <c r="U54" s="35">
         <f>INT(I54*N54/1000)</f>
         <v/>
       </c>
-      <c r="V54" s="36">
+      <c r="V54" s="37">
         <f>INT(N54*V$3)</f>
         <v/>
       </c>
-      <c r="W54" s="34" t="n">
+      <c r="W54" s="35" t="n">
         <v>814</v>
       </c>
     </row>
@@ -6841,15 +6830,15 @@
       <c r="H55" s="30" t="n">
         <v>65</v>
       </c>
-      <c r="I55" s="40">
-        <f>$L55*POWER(G55,$M55)</f>
-        <v/>
-      </c>
-      <c r="J55" s="40">
-        <f>$L55*POWER(H55,$M55)</f>
-        <v/>
-      </c>
-      <c r="K55" s="40">
+      <c r="I55" s="33">
+        <f>INT($L55*POWER(G55,$M55))</f>
+        <v/>
+      </c>
+      <c r="J55" s="33">
+        <f>INT($L55*POWER(H55,$M55))</f>
+        <v/>
+      </c>
+      <c r="K55" s="41">
         <f>(I55+J55)/2</f>
         <v/>
       </c>
@@ -6867,29 +6856,29 @@
       <c r="O55" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P55" s="34">
+      <c r="P55" s="35">
         <f>INT(K55*N55/1000)</f>
         <v/>
       </c>
-      <c r="Q55" s="37">
+      <c r="Q55" s="38">
         <f t="array" ref="Q55">INT(SUMPRODUCT(($D$4:$D$90=$D55)*($F$4:$F$90=$F55),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D55)*($F$4:$F$90=$F55),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R55" s="34">
+      <c r="R55" s="35">
         <f t="array" ref="R55">INT(SUMPRODUCT(($D$4:$D$90=$D55)*($F$4:$F$90=$F55),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D55)*($F$4:$F$90=$F55),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S55" s="34" t="n"/>
-      <c r="T55" s="37" t="n"/>
-      <c r="U55" s="34">
+      <c r="S55" s="35" t="n"/>
+      <c r="T55" s="38" t="n"/>
+      <c r="U55" s="35">
         <f>INT(I55*N55/1000)</f>
         <v/>
       </c>
-      <c r="V55" s="36">
+      <c r="V55" s="37">
         <f>INT(N55*V$3)</f>
         <v/>
       </c>
-      <c r="W55" s="34" t="n">
+      <c r="W55" s="35" t="n">
         <v>925</v>
       </c>
     </row>
@@ -6925,15 +6914,15 @@
       <c r="H56" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="I56" s="40">
-        <f>$L56*POWER(G56,$M56)</f>
-        <v/>
-      </c>
-      <c r="J56" s="40">
-        <f>$L56*POWER(H56,$M56)</f>
-        <v/>
-      </c>
-      <c r="K56" s="40">
+      <c r="I56" s="33">
+        <f>INT($L56*POWER(G56,$M56))</f>
+        <v/>
+      </c>
+      <c r="J56" s="33">
+        <f>INT($L56*POWER(H56,$M56))</f>
+        <v/>
+      </c>
+      <c r="K56" s="41">
         <f>(I56+J56)/2</f>
         <v/>
       </c>
@@ -6951,29 +6940,29 @@
       <c r="O56" s="30" t="n">
         <v>200</v>
       </c>
-      <c r="P56" s="34">
+      <c r="P56" s="35">
         <f>INT(K56*N56/1000)</f>
         <v/>
       </c>
-      <c r="Q56" s="37">
+      <c r="Q56" s="38">
         <f t="array" ref="Q56">INT(SUMPRODUCT(($D$4:$D$90=$D56)*($F$4:$F$90=$F56),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D56)*($F$4:$F$90=$F56),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R56" s="34">
+      <c r="R56" s="35">
         <f t="array" ref="R56">INT(SUMPRODUCT(($D$4:$D$90=$D56)*($F$4:$F$90=$F56),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D56)*($F$4:$F$90=$F56),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S56" s="34" t="n"/>
-      <c r="T56" s="37" t="n"/>
-      <c r="U56" s="34">
+      <c r="S56" s="35" t="n"/>
+      <c r="T56" s="38" t="n"/>
+      <c r="U56" s="35">
         <f>INT(I56*N56/1000)</f>
         <v/>
       </c>
-      <c r="V56" s="36">
+      <c r="V56" s="37">
         <f>INT(N56*V$3)</f>
         <v/>
       </c>
-      <c r="W56" s="34" t="n">
+      <c r="W56" s="35" t="n">
         <v>1036</v>
       </c>
     </row>
@@ -7009,15 +6998,15 @@
       <c r="H57" s="30" t="n">
         <v>43</v>
       </c>
-      <c r="I57" s="40">
-        <f>$L57*POWER(G57,$M57)</f>
-        <v/>
-      </c>
-      <c r="J57" s="40">
-        <f>$L57*POWER(H57,$M57)</f>
-        <v/>
-      </c>
-      <c r="K57" s="40">
+      <c r="I57" s="33">
+        <f>INT($L57*POWER(G57,$M57))</f>
+        <v/>
+      </c>
+      <c r="J57" s="33">
+        <f>INT($L57*POWER(H57,$M57))</f>
+        <v/>
+      </c>
+      <c r="K57" s="41">
         <f>(I57+J57)/2</f>
         <v/>
       </c>
@@ -7035,29 +7024,29 @@
       <c r="O57" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P57" s="34">
+      <c r="P57" s="35">
         <f>INT(K57*N57/1000)</f>
         <v/>
       </c>
-      <c r="Q57" s="37">
+      <c r="Q57" s="38">
         <f t="array" ref="Q57">INT(SUMPRODUCT(($D$4:$D$90=$D57)*($F$4:$F$90=$F57),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D57)*($F$4:$F$90=$F57),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R57" s="34">
+      <c r="R57" s="35">
         <f t="array" ref="R57">INT(SUMPRODUCT(($D$4:$D$90=$D57)*($F$4:$F$90=$F57),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D57)*($F$4:$F$90=$F57),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S57" s="34" t="n"/>
-      <c r="T57" s="37" t="n"/>
-      <c r="U57" s="34">
+      <c r="S57" s="35" t="n"/>
+      <c r="T57" s="38" t="n"/>
+      <c r="U57" s="35">
         <f>INT(I57*N57/1000)</f>
         <v/>
       </c>
-      <c r="V57" s="36">
+      <c r="V57" s="37">
         <f>INT(N57*V$3)</f>
         <v/>
       </c>
-      <c r="W57" s="34" t="n">
+      <c r="W57" s="35" t="n">
         <v>5920</v>
       </c>
     </row>
@@ -7093,15 +7082,15 @@
       <c r="H58" s="30" t="n">
         <v>33</v>
       </c>
-      <c r="I58" s="40">
-        <f>$L58*POWER(G58,$M58)</f>
-        <v/>
-      </c>
-      <c r="J58" s="40">
-        <f>$L58*POWER(H58,$M58)</f>
-        <v/>
-      </c>
-      <c r="K58" s="40">
+      <c r="I58" s="33">
+        <f>INT($L58*POWER(G58,$M58))</f>
+        <v/>
+      </c>
+      <c r="J58" s="33">
+        <f>INT($L58*POWER(H58,$M58))</f>
+        <v/>
+      </c>
+      <c r="K58" s="41">
         <f>(I58+J58)/2</f>
         <v/>
       </c>
@@ -7119,29 +7108,29 @@
       <c r="O58" s="30" t="n">
         <v>400</v>
       </c>
-      <c r="P58" s="34">
+      <c r="P58" s="35">
         <f>INT(K58*N58/1000)</f>
         <v/>
       </c>
-      <c r="Q58" s="37">
+      <c r="Q58" s="38">
         <f t="array" ref="Q58">INT(SUMPRODUCT(($D$4:$D$90=$D58)*($F$4:$F$90=$F58),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D58)*($F$4:$F$90=$F58),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R58" s="34">
+      <c r="R58" s="35">
         <f t="array" ref="R58">INT(SUMPRODUCT(($D$4:$D$90=$D58)*($F$4:$F$90=$F58),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D58)*($F$4:$F$90=$F58),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S58" s="34" t="n"/>
-      <c r="T58" s="37" t="n"/>
-      <c r="U58" s="34">
+      <c r="S58" s="35" t="n"/>
+      <c r="T58" s="38" t="n"/>
+      <c r="U58" s="35">
         <f>INT(I58*N58/1000)</f>
         <v/>
       </c>
-      <c r="V58" s="36">
+      <c r="V58" s="37">
         <f>INT(N58*V$3)</f>
         <v/>
       </c>
-      <c r="W58" s="34" t="n">
+      <c r="W58" s="35" t="n">
         <v>6660</v>
       </c>
     </row>
@@ -7177,15 +7166,15 @@
       <c r="H59" s="30" t="n">
         <v>52</v>
       </c>
-      <c r="I59" s="40">
-        <f>$L59*POWER(G59,$M59)</f>
-        <v/>
-      </c>
-      <c r="J59" s="40">
-        <f>$L59*POWER(H59,$M59)</f>
-        <v/>
-      </c>
-      <c r="K59" s="40">
+      <c r="I59" s="33">
+        <f>INT($L59*POWER(G59,$M59))</f>
+        <v/>
+      </c>
+      <c r="J59" s="33">
+        <f>INT($L59*POWER(H59,$M59))</f>
+        <v/>
+      </c>
+      <c r="K59" s="41">
         <f>(I59+J59)/2</f>
         <v/>
       </c>
@@ -7203,29 +7192,29 @@
       <c r="O59" s="30" t="n">
         <v>200</v>
       </c>
-      <c r="P59" s="34">
+      <c r="P59" s="35">
         <f>INT(K59*N59/1000)</f>
         <v/>
       </c>
-      <c r="Q59" s="37">
+      <c r="Q59" s="38">
         <f t="array" ref="Q59">INT(SUMPRODUCT(($D$4:$D$90=$D59)*($F$4:$F$90=$F59),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D59)*($F$4:$F$90=$F59),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R59" s="34">
+      <c r="R59" s="35">
         <f t="array" ref="R59">INT(SUMPRODUCT(($D$4:$D$90=$D59)*($F$4:$F$90=$F59),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D59)*($F$4:$F$90=$F59),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S59" s="34" t="n"/>
-      <c r="T59" s="37" t="n"/>
-      <c r="U59" s="34">
+      <c r="S59" s="35" t="n"/>
+      <c r="T59" s="38" t="n"/>
+      <c r="U59" s="35">
         <f>INT(I59*N59/1000)</f>
         <v/>
       </c>
-      <c r="V59" s="36">
+      <c r="V59" s="37">
         <f>INT(N59*V$3)</f>
         <v/>
       </c>
-      <c r="W59" s="34" t="n">
+      <c r="W59" s="35" t="n">
         <v>7400</v>
       </c>
     </row>
@@ -7261,15 +7250,15 @@
       <c r="H60" s="30" t="n">
         <v>26</v>
       </c>
-      <c r="I60" s="40">
-        <f>$L60*POWER(G60,$M60)</f>
-        <v/>
-      </c>
-      <c r="J60" s="40">
-        <f>$L60*POWER(H60,$M60)</f>
-        <v/>
-      </c>
-      <c r="K60" s="40">
+      <c r="I60" s="33">
+        <f>INT($L60*POWER(G60,$M60))</f>
+        <v/>
+      </c>
+      <c r="J60" s="33">
+        <f>INT($L60*POWER(H60,$M60))</f>
+        <v/>
+      </c>
+      <c r="K60" s="41">
         <f>(I60+J60)/2</f>
         <v/>
       </c>
@@ -7287,29 +7276,29 @@
       <c r="O60" s="30" t="n">
         <v>363</v>
       </c>
-      <c r="P60" s="34">
+      <c r="P60" s="35">
         <f>INT(K60*N60/1000)</f>
         <v/>
       </c>
-      <c r="Q60" s="37">
+      <c r="Q60" s="38">
         <f t="array" ref="Q60">INT(SUMPRODUCT(($D$4:$D$90=$D60)*($F$4:$F$90=$F60),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D60)*($F$4:$F$90=$F60),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R60" s="34">
+      <c r="R60" s="35">
         <f t="array" ref="R60">INT(SUMPRODUCT(($D$4:$D$90=$D60)*($F$4:$F$90=$F60),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D60)*($F$4:$F$90=$F60),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S60" s="34" t="n"/>
-      <c r="T60" s="37" t="n"/>
-      <c r="U60" s="34">
+      <c r="S60" s="35" t="n"/>
+      <c r="T60" s="38" t="n"/>
+      <c r="U60" s="35">
         <f>INT(I60*N60/1000)</f>
         <v/>
       </c>
-      <c r="V60" s="36">
+      <c r="V60" s="37">
         <f>INT(N60*V$3)</f>
         <v/>
       </c>
-      <c r="W60" s="34" t="n">
+      <c r="W60" s="35" t="n">
         <v>1258</v>
       </c>
       <c r="X60" s="0" t="inlineStr">
@@ -7350,15 +7339,15 @@
       <c r="H61" s="30" t="n">
         <v>40</v>
       </c>
-      <c r="I61" s="40">
-        <f>$L61*POWER(G61,$M61)</f>
-        <v/>
-      </c>
-      <c r="J61" s="40">
-        <f>$L61*POWER(H61,$M61)</f>
-        <v/>
-      </c>
-      <c r="K61" s="40">
+      <c r="I61" s="33">
+        <f>INT($L61*POWER(G61,$M61))</f>
+        <v/>
+      </c>
+      <c r="J61" s="33">
+        <f>INT($L61*POWER(H61,$M61))</f>
+        <v/>
+      </c>
+      <c r="K61" s="41">
         <f>(I61+J61)/2</f>
         <v/>
       </c>
@@ -7376,29 +7365,29 @@
       <c r="O61" s="30" t="n">
         <v>363</v>
       </c>
-      <c r="P61" s="34">
+      <c r="P61" s="35">
         <f>INT(K61*N61/1000)</f>
         <v/>
       </c>
-      <c r="Q61" s="37">
+      <c r="Q61" s="38">
         <f t="array" ref="Q61">INT(SUMPRODUCT(($D$4:$D$90=$D61)*($F$4:$F$90=$F61),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D61)*($F$4:$F$90=$F61),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R61" s="34">
+      <c r="R61" s="35">
         <f t="array" ref="R61">INT(SUMPRODUCT(($D$4:$D$90=$D61)*($F$4:$F$90=$F61),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D61)*($F$4:$F$90=$F61),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S61" s="34" t="n"/>
-      <c r="T61" s="37" t="n"/>
-      <c r="U61" s="34">
+      <c r="S61" s="35" t="n"/>
+      <c r="T61" s="38" t="n"/>
+      <c r="U61" s="35">
         <f>INT(I61*N61/1000)</f>
         <v/>
       </c>
-      <c r="V61" s="36">
+      <c r="V61" s="37">
         <f>INT(N61*V$3)</f>
         <v/>
       </c>
-      <c r="W61" s="34" t="n">
+      <c r="W61" s="35" t="n">
         <v>1369</v>
       </c>
     </row>
@@ -7434,15 +7423,15 @@
       <c r="H62" s="30" t="n">
         <v>50</v>
       </c>
-      <c r="I62" s="40">
-        <f>$L62*POWER(G62,$M62)</f>
-        <v/>
-      </c>
-      <c r="J62" s="40">
-        <f>$L62*POWER(H62,$M62)</f>
-        <v/>
-      </c>
-      <c r="K62" s="40">
+      <c r="I62" s="33">
+        <f>INT($L62*POWER(G62,$M62))</f>
+        <v/>
+      </c>
+      <c r="J62" s="33">
+        <f>INT($L62*POWER(H62,$M62))</f>
+        <v/>
+      </c>
+      <c r="K62" s="41">
         <f>(I62+J62)/2</f>
         <v/>
       </c>
@@ -7460,29 +7449,29 @@
       <c r="O62" s="30" t="n">
         <v>181</v>
       </c>
-      <c r="P62" s="34">
+      <c r="P62" s="35">
         <f>INT(K62*N62/1000)</f>
         <v/>
       </c>
-      <c r="Q62" s="37">
+      <c r="Q62" s="38">
         <f t="array" ref="Q62">INT(SUMPRODUCT(($D$4:$D$90=$D62)*($F$4:$F$90=$F62),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D62)*($F$4:$F$90=$F62),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R62" s="34">
+      <c r="R62" s="35">
         <f t="array" ref="R62">INT(SUMPRODUCT(($D$4:$D$90=$D62)*($F$4:$F$90=$F62),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D62)*($F$4:$F$90=$F62),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S62" s="34" t="n"/>
-      <c r="T62" s="37" t="n"/>
-      <c r="U62" s="34">
+      <c r="S62" s="35" t="n"/>
+      <c r="T62" s="38" t="n"/>
+      <c r="U62" s="35">
         <f>INT(I62*N62/1000)</f>
         <v/>
       </c>
-      <c r="V62" s="36">
+      <c r="V62" s="37">
         <f>INT(N62*V$3)</f>
         <v/>
       </c>
-      <c r="W62" s="34" t="n">
+      <c r="W62" s="35" t="n">
         <v>1554</v>
       </c>
     </row>
@@ -7518,15 +7507,15 @@
       <c r="H63" s="30" t="n">
         <v>22</v>
       </c>
-      <c r="I63" s="40">
-        <f>$L63*POWER(G63,$M63)</f>
-        <v/>
-      </c>
-      <c r="J63" s="40">
-        <f>$L63*POWER(H63,$M63)</f>
-        <v/>
-      </c>
-      <c r="K63" s="40">
+      <c r="I63" s="33">
+        <f>INT($L63*POWER(G63,$M63))</f>
+        <v/>
+      </c>
+      <c r="J63" s="33">
+        <f>INT($L63*POWER(H63,$M63))</f>
+        <v/>
+      </c>
+      <c r="K63" s="41">
         <f>(I63+J63)/2</f>
         <v/>
       </c>
@@ -7544,29 +7533,29 @@
       <c r="O63" s="30" t="n">
         <v>90</v>
       </c>
-      <c r="P63" s="34">
+      <c r="P63" s="35">
         <f>INT(K63*N63/1000)</f>
         <v/>
       </c>
-      <c r="Q63" s="37">
+      <c r="Q63" s="38">
         <f t="array" ref="Q63">INT(SUMPRODUCT(($D$4:$D$90=$D63)*($F$4:$F$90=$F63),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D63)*($F$4:$F$90=$F63),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R63" s="34">
+      <c r="R63" s="35">
         <f t="array" ref="R63">INT(SUMPRODUCT(($D$4:$D$90=$D63)*($F$4:$F$90=$F63),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D63)*($F$4:$F$90=$F63),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S63" s="34" t="n"/>
-      <c r="T63" s="37" t="n"/>
-      <c r="U63" s="34">
+      <c r="S63" s="35" t="n"/>
+      <c r="T63" s="38" t="n"/>
+      <c r="U63" s="35">
         <f>INT(I63*N63/1000)</f>
         <v/>
       </c>
-      <c r="V63" s="36">
+      <c r="V63" s="37">
         <f>INT(N63*V$3)</f>
         <v/>
       </c>
-      <c r="W63" s="34" t="n">
+      <c r="W63" s="35" t="n">
         <v>1702</v>
       </c>
     </row>
@@ -7602,15 +7591,15 @@
       <c r="H64" s="30" t="n">
         <v>32</v>
       </c>
-      <c r="I64" s="40">
-        <f>$L64*POWER(G64,$M64)</f>
-        <v/>
-      </c>
-      <c r="J64" s="40">
-        <f>$L64*POWER(H64,$M64)</f>
-        <v/>
-      </c>
-      <c r="K64" s="40">
+      <c r="I64" s="33">
+        <f>INT($L64*POWER(G64,$M64))</f>
+        <v/>
+      </c>
+      <c r="J64" s="33">
+        <f>INT($L64*POWER(H64,$M64))</f>
+        <v/>
+      </c>
+      <c r="K64" s="41">
         <f>(I64+J64)/2</f>
         <v/>
       </c>
@@ -7628,29 +7617,29 @@
       <c r="O64" s="30" t="n">
         <v>350</v>
       </c>
-      <c r="P64" s="34">
+      <c r="P64" s="35">
         <f>INT(K64*N64/1000)</f>
         <v/>
       </c>
-      <c r="Q64" s="37">
+      <c r="Q64" s="38">
         <f t="array" ref="Q64">INT(SUMPRODUCT(($D$4:$D$90=$D64)*($F$4:$F$90=$F64),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D64)*($F$4:$F$90=$F64),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R64" s="34">
+      <c r="R64" s="35">
         <f t="array" ref="R64">INT(SUMPRODUCT(($D$4:$D$90=$D64)*($F$4:$F$90=$F64),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D64)*($F$4:$F$90=$F64),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S64" s="34" t="n"/>
-      <c r="T64" s="37" t="n"/>
-      <c r="U64" s="34">
+      <c r="S64" s="35" t="n"/>
+      <c r="T64" s="38" t="n"/>
+      <c r="U64" s="35">
         <f>INT(I64*N64/1000)</f>
         <v/>
       </c>
-      <c r="V64" s="36">
+      <c r="V64" s="37">
         <f>INT(N64*V$3)</f>
         <v/>
       </c>
-      <c r="W64" s="34" t="n">
+      <c r="W64" s="35" t="n">
         <v>740</v>
       </c>
     </row>
@@ -7686,15 +7675,15 @@
       <c r="H65" s="30" t="n">
         <v>39</v>
       </c>
-      <c r="I65" s="40">
-        <f>$L65*POWER(G65,$M65)</f>
-        <v/>
-      </c>
-      <c r="J65" s="40">
-        <f>$L65*POWER(H65,$M65)</f>
-        <v/>
-      </c>
-      <c r="K65" s="40">
+      <c r="I65" s="33">
+        <f>INT($L65*POWER(G65,$M65))</f>
+        <v/>
+      </c>
+      <c r="J65" s="33">
+        <f>INT($L65*POWER(H65,$M65))</f>
+        <v/>
+      </c>
+      <c r="K65" s="41">
         <f>(I65+J65)/2</f>
         <v/>
       </c>
@@ -7712,29 +7701,29 @@
       <c r="O65" s="30" t="n">
         <v>350</v>
       </c>
-      <c r="P65" s="34">
+      <c r="P65" s="35">
         <f>INT(K65*N65/1000)</f>
         <v/>
       </c>
-      <c r="Q65" s="37">
+      <c r="Q65" s="38">
         <f t="array" ref="Q65">INT(SUMPRODUCT(($D$4:$D$90=$D65)*($F$4:$F$90=$F65),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D65)*($F$4:$F$90=$F65),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R65" s="34">
+      <c r="R65" s="35">
         <f t="array" ref="R65">INT(SUMPRODUCT(($D$4:$D$90=$D65)*($F$4:$F$90=$F65),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D65)*($F$4:$F$90=$F65),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S65" s="34" t="n"/>
-      <c r="T65" s="37" t="n"/>
-      <c r="U65" s="34">
+      <c r="S65" s="35" t="n"/>
+      <c r="T65" s="38" t="n"/>
+      <c r="U65" s="35">
         <f>INT(I65*N65/1000)</f>
         <v/>
       </c>
-      <c r="V65" s="36">
+      <c r="V65" s="37">
         <f>INT(N65*V$3)</f>
         <v/>
       </c>
-      <c r="W65" s="34" t="n">
+      <c r="W65" s="35" t="n">
         <v>814</v>
       </c>
     </row>
@@ -7770,15 +7759,15 @@
       <c r="H66" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="I66" s="40">
-        <f>$L66*POWER(G66,$M66)</f>
-        <v/>
-      </c>
-      <c r="J66" s="40">
-        <f>$L66*POWER(H66,$M66)</f>
-        <v/>
-      </c>
-      <c r="K66" s="40">
+      <c r="I66" s="33">
+        <f>INT($L66*POWER(G66,$M66))</f>
+        <v/>
+      </c>
+      <c r="J66" s="33">
+        <f>INT($L66*POWER(H66,$M66))</f>
+        <v/>
+      </c>
+      <c r="K66" s="41">
         <f>(I66+J66)/2</f>
         <v/>
       </c>
@@ -7796,29 +7785,29 @@
       <c r="O66" s="30" t="n">
         <v>175</v>
       </c>
-      <c r="P66" s="34">
+      <c r="P66" s="35">
         <f>INT(K66*N66/1000)</f>
         <v/>
       </c>
-      <c r="Q66" s="37">
+      <c r="Q66" s="38">
         <f t="array" ref="Q66">INT(SUMPRODUCT(($D$4:$D$90=$D66)*($F$4:$F$90=$F66),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D66)*($F$4:$F$90=$F66),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R66" s="34">
+      <c r="R66" s="35">
         <f t="array" ref="R66">INT(SUMPRODUCT(($D$4:$D$90=$D66)*($F$4:$F$90=$F66),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D66)*($F$4:$F$90=$F66),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S66" s="34" t="n"/>
-      <c r="T66" s="37" t="n"/>
-      <c r="U66" s="34">
+      <c r="S66" s="35" t="n"/>
+      <c r="T66" s="38" t="n"/>
+      <c r="U66" s="35">
         <f>INT(I66*N66/1000)</f>
         <v/>
       </c>
-      <c r="V66" s="36">
+      <c r="V66" s="37">
         <f>INT(N66*V$3)</f>
         <v/>
       </c>
-      <c r="W66" s="34" t="n">
+      <c r="W66" s="35" t="n">
         <v>888</v>
       </c>
     </row>
@@ -7854,15 +7843,15 @@
       <c r="H67" s="30" t="n">
         <v>46</v>
       </c>
-      <c r="I67" s="40">
-        <f>$L67*POWER(G67,$M67)</f>
-        <v/>
-      </c>
-      <c r="J67" s="40">
-        <f>$L67*POWER(H67,$M67)</f>
-        <v/>
-      </c>
-      <c r="K67" s="40">
+      <c r="I67" s="33">
+        <f>INT($L67*POWER(G67,$M67))</f>
+        <v/>
+      </c>
+      <c r="J67" s="33">
+        <f>INT($L67*POWER(H67,$M67))</f>
+        <v/>
+      </c>
+      <c r="K67" s="41">
         <f>(I67+J67)/2</f>
         <v/>
       </c>
@@ -7880,29 +7869,29 @@
       <c r="O67" s="30" t="n">
         <v>87</v>
       </c>
-      <c r="P67" s="34">
+      <c r="P67" s="35">
         <f>INT(K67*N67/1000)</f>
         <v/>
       </c>
-      <c r="Q67" s="37">
+      <c r="Q67" s="38">
         <f t="array" ref="Q67">INT(SUMPRODUCT(($D$4:$D$90=$D67)*($F$4:$F$90=$F67),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D67)*($F$4:$F$90=$F67),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R67" s="34">
+      <c r="R67" s="35">
         <f t="array" ref="R67">INT(SUMPRODUCT(($D$4:$D$90=$D67)*($F$4:$F$90=$F67),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D67)*($F$4:$F$90=$F67),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S67" s="34" t="n"/>
-      <c r="T67" s="37" t="n"/>
-      <c r="U67" s="34">
+      <c r="S67" s="35" t="n"/>
+      <c r="T67" s="38" t="n"/>
+      <c r="U67" s="35">
         <f>INT(I67*N67/1000)</f>
         <v/>
       </c>
-      <c r="V67" s="36">
+      <c r="V67" s="37">
         <f>INT(N67*V$3)</f>
         <v/>
       </c>
-      <c r="W67" s="34" t="n">
+      <c r="W67" s="35" t="n">
         <v>925</v>
       </c>
     </row>
@@ -7938,15 +7927,15 @@
       <c r="H68" s="30" t="n">
         <v>56</v>
       </c>
-      <c r="I68" s="40">
-        <f>$L68*POWER(G68,$M68)</f>
-        <v/>
-      </c>
-      <c r="J68" s="40">
-        <f>$L68*POWER(H68,$M68)</f>
-        <v/>
-      </c>
-      <c r="K68" s="40">
+      <c r="I68" s="33">
+        <f>INT($L68*POWER(G68,$M68))</f>
+        <v/>
+      </c>
+      <c r="J68" s="33">
+        <f>INT($L68*POWER(H68,$M68))</f>
+        <v/>
+      </c>
+      <c r="K68" s="41">
         <f>(I68+J68)/2</f>
         <v/>
       </c>
@@ -7964,29 +7953,29 @@
       <c r="O68" s="30" t="n">
         <v>35</v>
       </c>
-      <c r="P68" s="34">
+      <c r="P68" s="35">
         <f>INT(K68*N68/1000)</f>
         <v/>
       </c>
-      <c r="Q68" s="37">
+      <c r="Q68" s="38">
         <f t="array" ref="Q68">INT(SUMPRODUCT(($D$4:$D$90=$D68)*($F$4:$F$90=$F68),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D68)*($F$4:$F$90=$F68),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R68" s="34">
+      <c r="R68" s="35">
         <f t="array" ref="R68">INT(SUMPRODUCT(($D$4:$D$90=$D68)*($F$4:$F$90=$F68),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D68)*($F$4:$F$90=$F68),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S68" s="34" t="n"/>
-      <c r="T68" s="37" t="n"/>
-      <c r="U68" s="34">
+      <c r="S68" s="35" t="n"/>
+      <c r="T68" s="38" t="n"/>
+      <c r="U68" s="35">
         <f>INT(I68*N68/1000)</f>
         <v/>
       </c>
-      <c r="V68" s="36">
+      <c r="V68" s="37">
         <f>INT(N68*V$3)</f>
         <v/>
       </c>
-      <c r="W68" s="34" t="n">
+      <c r="W68" s="35" t="n">
         <v>962</v>
       </c>
     </row>
@@ -8022,15 +8011,15 @@
       <c r="H69" s="30" t="n">
         <v>64</v>
       </c>
-      <c r="I69" s="40">
-        <f>$L69*POWER(G69,$M69)</f>
-        <v/>
-      </c>
-      <c r="J69" s="40">
-        <f>$L69*POWER(H69,$M69)</f>
-        <v/>
-      </c>
-      <c r="K69" s="40">
+      <c r="I69" s="33">
+        <f>INT($L69*POWER(G69,$M69))</f>
+        <v/>
+      </c>
+      <c r="J69" s="33">
+        <f>INT($L69*POWER(H69,$M69))</f>
+        <v/>
+      </c>
+      <c r="K69" s="41">
         <f>(I69+J69)/2</f>
         <v/>
       </c>
@@ -8048,29 +8037,29 @@
       <c r="O69" s="30" t="n">
         <v>350</v>
       </c>
-      <c r="P69" s="34">
+      <c r="P69" s="35">
         <f>INT(K69*N69/1000)</f>
         <v/>
       </c>
-      <c r="Q69" s="37">
+      <c r="Q69" s="38">
         <f t="array" ref="Q69">INT(SUMPRODUCT(($D$4:$D$90=$D69)*($F$4:$F$90=$F69),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D69)*($F$4:$F$90=$F69),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R69" s="34">
+      <c r="R69" s="35">
         <f t="array" ref="R69">INT(SUMPRODUCT(($D$4:$D$90=$D69)*($F$4:$F$90=$F69),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D69)*($F$4:$F$90=$F69),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S69" s="34" t="n"/>
-      <c r="T69" s="37" t="n"/>
-      <c r="U69" s="34">
+      <c r="S69" s="35" t="n"/>
+      <c r="T69" s="38" t="n"/>
+      <c r="U69" s="35">
         <f>INT(I69*N69/1000)</f>
         <v/>
       </c>
-      <c r="V69" s="36">
+      <c r="V69" s="37">
         <f>INT(N69*V$3)</f>
         <v/>
       </c>
-      <c r="W69" s="34" t="n">
+      <c r="W69" s="35" t="n">
         <v>333</v>
       </c>
     </row>
@@ -8106,15 +8095,15 @@
       <c r="H70" s="30" t="n">
         <v>40</v>
       </c>
-      <c r="I70" s="40">
-        <f>$L70*POWER(G70,$M70)</f>
-        <v/>
-      </c>
-      <c r="J70" s="40">
-        <f>$L70*POWER(H70,$M70)</f>
-        <v/>
-      </c>
-      <c r="K70" s="40">
+      <c r="I70" s="33">
+        <f>INT($L70*POWER(G70,$M70))</f>
+        <v/>
+      </c>
+      <c r="J70" s="33">
+        <f>INT($L70*POWER(H70,$M70))</f>
+        <v/>
+      </c>
+      <c r="K70" s="41">
         <f>(I70+J70)/2</f>
         <v/>
       </c>
@@ -8132,29 +8121,29 @@
       <c r="O70" s="30" t="n">
         <v>350</v>
       </c>
-      <c r="P70" s="34">
+      <c r="P70" s="35">
         <f>INT(K70*N70/1000)</f>
         <v/>
       </c>
-      <c r="Q70" s="37">
+      <c r="Q70" s="38">
         <f t="array" ref="Q70">INT(SUMPRODUCT(($D$4:$D$90=$D70)*($F$4:$F$90=$F70),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D70)*($F$4:$F$90=$F70),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R70" s="34">
+      <c r="R70" s="35">
         <f t="array" ref="R70">INT(SUMPRODUCT(($D$4:$D$90=$D70)*($F$4:$F$90=$F70),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D70)*($F$4:$F$90=$F70),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S70" s="34" t="n"/>
-      <c r="T70" s="37" t="n"/>
-      <c r="U70" s="34">
+      <c r="S70" s="35" t="n"/>
+      <c r="T70" s="38" t="n"/>
+      <c r="U70" s="35">
         <f>INT(I70*N70/1000)</f>
         <v/>
       </c>
-      <c r="V70" s="36">
+      <c r="V70" s="37">
         <f>INT(N70*V$3)</f>
         <v/>
       </c>
-      <c r="W70" s="34" t="n">
+      <c r="W70" s="35" t="n">
         <v>340</v>
       </c>
     </row>
@@ -8190,15 +8179,15 @@
       <c r="H71" s="30" t="n">
         <v>61</v>
       </c>
-      <c r="I71" s="40">
-        <f>$L71*POWER(G71,$M71)</f>
-        <v/>
-      </c>
-      <c r="J71" s="40">
-        <f>$L71*POWER(H71,$M71)</f>
-        <v/>
-      </c>
-      <c r="K71" s="40">
+      <c r="I71" s="33">
+        <f>INT($L71*POWER(G71,$M71))</f>
+        <v/>
+      </c>
+      <c r="J71" s="33">
+        <f>INT($L71*POWER(H71,$M71))</f>
+        <v/>
+      </c>
+      <c r="K71" s="41">
         <f>(I71+J71)/2</f>
         <v/>
       </c>
@@ -8216,29 +8205,29 @@
       <c r="O71" s="30" t="n">
         <v>175</v>
       </c>
-      <c r="P71" s="34">
+      <c r="P71" s="35">
         <f>INT(K71*N71/1000)</f>
         <v/>
       </c>
-      <c r="Q71" s="37">
+      <c r="Q71" s="38">
         <f t="array" ref="Q71">INT(SUMPRODUCT(($D$4:$D$90=$D71)*($F$4:$F$90=$F71),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D71)*($F$4:$F$90=$F71),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R71" s="34">
+      <c r="R71" s="35">
         <f t="array" ref="R71">INT(SUMPRODUCT(($D$4:$D$90=$D71)*($F$4:$F$90=$F71),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D71)*($F$4:$F$90=$F71),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S71" s="34" t="n"/>
-      <c r="T71" s="37" t="n"/>
-      <c r="U71" s="34">
+      <c r="S71" s="35" t="n"/>
+      <c r="T71" s="38" t="n"/>
+      <c r="U71" s="35">
         <f>INT(I71*N71/1000)</f>
         <v/>
       </c>
-      <c r="V71" s="36">
+      <c r="V71" s="37">
         <f>INT(N71*V$3)</f>
         <v/>
       </c>
-      <c r="W71" s="34" t="n">
+      <c r="W71" s="35" t="n">
         <v>347</v>
       </c>
     </row>
@@ -8274,15 +8263,15 @@
       <c r="H72" s="30" t="n">
         <v>77</v>
       </c>
-      <c r="I72" s="40">
-        <f>$L72*POWER(G72,$M72)</f>
-        <v/>
-      </c>
-      <c r="J72" s="40">
-        <f>$L72*POWER(H72,$M72)</f>
-        <v/>
-      </c>
-      <c r="K72" s="40">
+      <c r="I72" s="33">
+        <f>INT($L72*POWER(G72,$M72))</f>
+        <v/>
+      </c>
+      <c r="J72" s="33">
+        <f>INT($L72*POWER(H72,$M72))</f>
+        <v/>
+      </c>
+      <c r="K72" s="41">
         <f>(I72+J72)/2</f>
         <v/>
       </c>
@@ -8300,29 +8289,29 @@
       <c r="O72" s="30" t="n">
         <v>87</v>
       </c>
-      <c r="P72" s="34">
+      <c r="P72" s="35">
         <f>INT(K72*N72/1000)</f>
         <v/>
       </c>
-      <c r="Q72" s="37">
+      <c r="Q72" s="38">
         <f t="array" ref="Q72">INT(SUMPRODUCT(($D$4:$D$90=$D72)*($F$4:$F$90=$F72),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D72)*($F$4:$F$90=$F72),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R72" s="34">
+      <c r="R72" s="35">
         <f t="array" ref="R72">INT(SUMPRODUCT(($D$4:$D$90=$D72)*($F$4:$F$90=$F72),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D72)*($F$4:$F$90=$F72),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S72" s="34" t="n"/>
-      <c r="T72" s="37" t="n"/>
-      <c r="U72" s="34">
+      <c r="S72" s="35" t="n"/>
+      <c r="T72" s="38" t="n"/>
+      <c r="U72" s="35">
         <f>INT(I72*N72/1000)</f>
         <v/>
       </c>
-      <c r="V72" s="36">
+      <c r="V72" s="37">
         <f>INT(N72*V$3)</f>
         <v/>
       </c>
-      <c r="W72" s="34" t="n">
+      <c r="W72" s="35" t="n">
         <v>370</v>
       </c>
     </row>
@@ -8358,15 +8347,15 @@
       <c r="H73" s="30" t="n">
         <v>89</v>
       </c>
-      <c r="I73" s="40">
-        <f>$L73*POWER(G73,$M73)</f>
-        <v/>
-      </c>
-      <c r="J73" s="40">
-        <f>$L73*POWER(H73,$M73)</f>
-        <v/>
-      </c>
-      <c r="K73" s="40">
+      <c r="I73" s="33">
+        <f>INT($L73*POWER(G73,$M73))</f>
+        <v/>
+      </c>
+      <c r="J73" s="33">
+        <f>INT($L73*POWER(H73,$M73))</f>
+        <v/>
+      </c>
+      <c r="K73" s="41">
         <f>(I73+J73)/2</f>
         <v/>
       </c>
@@ -8384,29 +8373,29 @@
       <c r="O73" s="30" t="n">
         <v>35</v>
       </c>
-      <c r="P73" s="34">
+      <c r="P73" s="35">
         <f>INT(K73*N73/1000)</f>
         <v/>
       </c>
-      <c r="Q73" s="37">
+      <c r="Q73" s="38">
         <f t="array" ref="Q73">INT(SUMPRODUCT(($D$4:$D$90=$D73)*($F$4:$F$90=$F73),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D73)*($F$4:$F$90=$F73),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R73" s="34">
+      <c r="R73" s="35">
         <f t="array" ref="R73">INT(SUMPRODUCT(($D$4:$D$90=$D73)*($F$4:$F$90=$F73),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D73)*($F$4:$F$90=$F73),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S73" s="34" t="n"/>
-      <c r="T73" s="37" t="n"/>
-      <c r="U73" s="34">
+      <c r="S73" s="35" t="n"/>
+      <c r="T73" s="38" t="n"/>
+      <c r="U73" s="35">
         <f>INT(I73*N73/1000)</f>
         <v/>
       </c>
-      <c r="V73" s="36">
+      <c r="V73" s="37">
         <f>INT(N73*V$3)</f>
         <v/>
       </c>
-      <c r="W73" s="34" t="n">
+      <c r="W73" s="35" t="n">
         <v>444</v>
       </c>
     </row>
@@ -8442,15 +8431,15 @@
       <c r="H74" s="30" t="n">
         <v>97</v>
       </c>
-      <c r="I74" s="40">
-        <f>$L74*POWER(G74,$M74)</f>
-        <v/>
-      </c>
-      <c r="J74" s="40">
-        <f>$L74*POWER(H74,$M74)</f>
-        <v/>
-      </c>
-      <c r="K74" s="40">
+      <c r="I74" s="33">
+        <f>INT($L74*POWER(G74,$M74))</f>
+        <v/>
+      </c>
+      <c r="J74" s="33">
+        <f>INT($L74*POWER(H74,$M74))</f>
+        <v/>
+      </c>
+      <c r="K74" s="41">
         <f>(I74+J74)/2</f>
         <v/>
       </c>
@@ -8468,29 +8457,29 @@
       <c r="O74" s="30" t="n">
         <v>350</v>
       </c>
-      <c r="P74" s="34">
+      <c r="P74" s="35">
         <f>INT(K74*N74/1000)</f>
         <v/>
       </c>
-      <c r="Q74" s="37">
+      <c r="Q74" s="38">
         <f t="array" ref="Q74">INT(SUMPRODUCT(($D$4:$D$90=$D74)*($F$4:$F$90=$F74),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D74)*($F$4:$F$90=$F74),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R74" s="34">
+      <c r="R74" s="35">
         <f t="array" ref="R74">INT(SUMPRODUCT(($D$4:$D$90=$D74)*($F$4:$F$90=$F74),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D74)*($F$4:$F$90=$F74),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S74" s="34" t="n"/>
-      <c r="T74" s="37" t="n"/>
-      <c r="U74" s="34">
+      <c r="S74" s="35" t="n"/>
+      <c r="T74" s="38" t="n"/>
+      <c r="U74" s="35">
         <f>INT(I74*N74/1000)</f>
         <v/>
       </c>
-      <c r="V74" s="36">
+      <c r="V74" s="37">
         <f>INT(N74*V$3)</f>
         <v/>
       </c>
-      <c r="W74" s="34" t="n">
+      <c r="W74" s="35" t="n">
         <v>555</v>
       </c>
     </row>
@@ -8526,15 +8515,15 @@
       <c r="H75" s="30" t="n">
         <v>60</v>
       </c>
-      <c r="I75" s="40">
-        <f>$L75*POWER(G75,$M75)</f>
-        <v/>
-      </c>
-      <c r="J75" s="40">
-        <f>$L75*POWER(H75,$M75)</f>
-        <v/>
-      </c>
-      <c r="K75" s="40">
+      <c r="I75" s="33">
+        <f>INT($L75*POWER(G75,$M75))</f>
+        <v/>
+      </c>
+      <c r="J75" s="33">
+        <f>INT($L75*POWER(H75,$M75))</f>
+        <v/>
+      </c>
+      <c r="K75" s="41">
         <f>(I75+J75)/2</f>
         <v/>
       </c>
@@ -8552,29 +8541,29 @@
       <c r="O75" s="30" t="n">
         <v>350</v>
       </c>
-      <c r="P75" s="34">
+      <c r="P75" s="35">
         <f>INT(K75*N75/1000)</f>
         <v/>
       </c>
-      <c r="Q75" s="37">
+      <c r="Q75" s="38">
         <f t="array" ref="Q75">INT(SUMPRODUCT(($D$4:$D$90=$D75)*($F$4:$F$90=$F75),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D75)*($F$4:$F$90=$F75),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R75" s="34">
+      <c r="R75" s="35">
         <f t="array" ref="R75">INT(SUMPRODUCT(($D$4:$D$90=$D75)*($F$4:$F$90=$F75),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D75)*($F$4:$F$90=$F75),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S75" s="34" t="n"/>
-      <c r="T75" s="37" t="n"/>
-      <c r="U75" s="34">
+      <c r="S75" s="35" t="n"/>
+      <c r="T75" s="38" t="n"/>
+      <c r="U75" s="35">
         <f>INT(I75*N75/1000)</f>
         <v/>
       </c>
-      <c r="V75" s="36">
+      <c r="V75" s="37">
         <f>INT(N75*V$3)</f>
         <v/>
       </c>
-      <c r="W75" s="34" t="n">
+      <c r="W75" s="35" t="n">
         <v>592</v>
       </c>
     </row>
@@ -8610,15 +8599,15 @@
       <c r="H76" s="30" t="n">
         <v>93</v>
       </c>
-      <c r="I76" s="40">
-        <f>$L76*POWER(G76,$M76)</f>
-        <v/>
-      </c>
-      <c r="J76" s="40">
-        <f>$L76*POWER(H76,$M76)</f>
-        <v/>
-      </c>
-      <c r="K76" s="40">
+      <c r="I76" s="33">
+        <f>INT($L76*POWER(G76,$M76))</f>
+        <v/>
+      </c>
+      <c r="J76" s="33">
+        <f>INT($L76*POWER(H76,$M76))</f>
+        <v/>
+      </c>
+      <c r="K76" s="41">
         <f>(I76+J76)/2</f>
         <v/>
       </c>
@@ -8636,29 +8625,29 @@
       <c r="O76" s="30" t="n">
         <v>175</v>
       </c>
-      <c r="P76" s="34">
+      <c r="P76" s="35">
         <f>INT(K76*N76/1000)</f>
         <v/>
       </c>
-      <c r="Q76" s="37">
+      <c r="Q76" s="38">
         <f t="array" ref="Q76">INT(SUMPRODUCT(($D$4:$D$90=$D76)*($F$4:$F$90=$F76),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D76)*($F$4:$F$90=$F76),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R76" s="34">
+      <c r="R76" s="35">
         <f t="array" ref="R76">INT(SUMPRODUCT(($D$4:$D$90=$D76)*($F$4:$F$90=$F76),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D76)*($F$4:$F$90=$F76),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S76" s="34" t="n"/>
-      <c r="T76" s="37" t="n"/>
-      <c r="U76" s="34">
+      <c r="S76" s="35" t="n"/>
+      <c r="T76" s="38" t="n"/>
+      <c r="U76" s="35">
         <f>INT(I76*N76/1000)</f>
         <v/>
       </c>
-      <c r="V76" s="36">
+      <c r="V76" s="37">
         <f>INT(N76*V$3)</f>
         <v/>
       </c>
-      <c r="W76" s="34" t="n">
+      <c r="W76" s="35" t="n">
         <v>629</v>
       </c>
     </row>
@@ -8694,15 +8683,15 @@
       <c r="H77" s="30" t="n">
         <v>119</v>
       </c>
-      <c r="I77" s="40">
-        <f>$L77*POWER(G77,$M77)</f>
-        <v/>
-      </c>
-      <c r="J77" s="40">
-        <f>$L77*POWER(H77,$M77)</f>
-        <v/>
-      </c>
-      <c r="K77" s="40">
+      <c r="I77" s="33">
+        <f>INT($L77*POWER(G77,$M77))</f>
+        <v/>
+      </c>
+      <c r="J77" s="33">
+        <f>INT($L77*POWER(H77,$M77))</f>
+        <v/>
+      </c>
+      <c r="K77" s="41">
         <f>(I77+J77)/2</f>
         <v/>
       </c>
@@ -8720,29 +8709,29 @@
       <c r="O77" s="30" t="n">
         <v>87</v>
       </c>
-      <c r="P77" s="34">
+      <c r="P77" s="35">
         <f>INT(K77*N77/1000)</f>
         <v/>
       </c>
-      <c r="Q77" s="37">
+      <c r="Q77" s="38">
         <f t="array" ref="Q77">INT(SUMPRODUCT(($D$4:$D$90=$D77)*($F$4:$F$90=$F77),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D77)*($F$4:$F$90=$F77),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R77" s="34">
+      <c r="R77" s="35">
         <f t="array" ref="R77">INT(SUMPRODUCT(($D$4:$D$90=$D77)*($F$4:$F$90=$F77),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D77)*($F$4:$F$90=$F77),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S77" s="34" t="n"/>
-      <c r="T77" s="37" t="n"/>
-      <c r="U77" s="34">
+      <c r="S77" s="35" t="n"/>
+      <c r="T77" s="38" t="n"/>
+      <c r="U77" s="35">
         <f>INT(I77*N77/1000)</f>
         <v/>
       </c>
-      <c r="V77" s="36">
+      <c r="V77" s="37">
         <f>INT(N77*V$3)</f>
         <v/>
       </c>
-      <c r="W77" s="34" t="n">
+      <c r="W77" s="35" t="n">
         <v>666</v>
       </c>
     </row>
@@ -8778,15 +8767,15 @@
       <c r="H78" s="30" t="n">
         <v>139</v>
       </c>
-      <c r="I78" s="40">
-        <f>$L78*POWER(G78,$M78)</f>
-        <v/>
-      </c>
-      <c r="J78" s="40">
-        <f>$L78*POWER(H78,$M78)</f>
-        <v/>
-      </c>
-      <c r="K78" s="40">
+      <c r="I78" s="33">
+        <f>INT($L78*POWER(G78,$M78))</f>
+        <v/>
+      </c>
+      <c r="J78" s="33">
+        <f>INT($L78*POWER(H78,$M78))</f>
+        <v/>
+      </c>
+      <c r="K78" s="41">
         <f>(I78+J78)/2</f>
         <v/>
       </c>
@@ -8804,29 +8793,29 @@
       <c r="O78" s="30" t="n">
         <v>35</v>
       </c>
-      <c r="P78" s="34">
+      <c r="P78" s="35">
         <f>INT(K78*N78/1000)</f>
         <v/>
       </c>
-      <c r="Q78" s="37">
+      <c r="Q78" s="38">
         <f t="array" ref="Q78">INT(SUMPRODUCT(($D$4:$D$90=$D78)*($F$4:$F$90=$F78),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D78)*($F$4:$F$90=$F78),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R78" s="34">
+      <c r="R78" s="35">
         <f t="array" ref="R78">INT(SUMPRODUCT(($D$4:$D$90=$D78)*($F$4:$F$90=$F78),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D78)*($F$4:$F$90=$F78),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S78" s="34" t="n"/>
-      <c r="T78" s="37" t="n"/>
-      <c r="U78" s="34">
+      <c r="S78" s="35" t="n"/>
+      <c r="T78" s="38" t="n"/>
+      <c r="U78" s="35">
         <f>INT(I78*N78/1000)</f>
         <v/>
       </c>
-      <c r="V78" s="36">
+      <c r="V78" s="37">
         <f>INT(N78*V$3)</f>
         <v/>
       </c>
-      <c r="W78" s="34" t="n">
+      <c r="W78" s="35" t="n">
         <v>740</v>
       </c>
     </row>
@@ -8862,15 +8851,15 @@
       <c r="H79" s="30" t="n">
         <v>152</v>
       </c>
-      <c r="I79" s="40">
-        <f>$L79*POWER(G79,$M79)</f>
-        <v/>
-      </c>
-      <c r="J79" s="40">
-        <f>$L79*POWER(H79,$M79)</f>
-        <v/>
-      </c>
-      <c r="K79" s="40">
+      <c r="I79" s="33">
+        <f>INT($L79*POWER(G79,$M79))</f>
+        <v/>
+      </c>
+      <c r="J79" s="33">
+        <f>INT($L79*POWER(H79,$M79))</f>
+        <v/>
+      </c>
+      <c r="K79" s="41">
         <f>(I79+J79)/2</f>
         <v/>
       </c>
@@ -8888,29 +8877,29 @@
       <c r="O79" s="30" t="n">
         <v>36</v>
       </c>
-      <c r="P79" s="34">
+      <c r="P79" s="35">
         <f>INT(K79*N79/1000)</f>
         <v/>
       </c>
-      <c r="Q79" s="37">
+      <c r="Q79" s="38">
         <f t="array" ref="Q79">INT(SUMPRODUCT(($D$4:$D$90=$D79)*($F$4:$F$90=$F79),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D79)*($F$4:$F$90=$F79),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R79" s="34">
+      <c r="R79" s="35">
         <f t="array" ref="R79">INT(SUMPRODUCT(($D$4:$D$90=$D79)*($F$4:$F$90=$F79),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D79)*($F$4:$F$90=$F79),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S79" s="34" t="n"/>
-      <c r="T79" s="37" t="n"/>
-      <c r="U79" s="34">
+      <c r="S79" s="35" t="n"/>
+      <c r="T79" s="38" t="n"/>
+      <c r="U79" s="35">
         <f>INT(I79*N79/1000)</f>
         <v/>
       </c>
-      <c r="V79" s="36">
+      <c r="V79" s="37">
         <f>INT(N79*V$3)</f>
         <v/>
       </c>
-      <c r="W79" s="34" t="n">
+      <c r="W79" s="35" t="n">
         <v>741</v>
       </c>
     </row>
@@ -8946,15 +8935,15 @@
       <c r="H80" s="30" t="n">
         <v>46</v>
       </c>
-      <c r="I80" s="40">
-        <f>$L80*POWER(G80,$M80)</f>
-        <v/>
-      </c>
-      <c r="J80" s="40">
-        <f>$L80*POWER(H80,$M80)</f>
-        <v/>
-      </c>
-      <c r="K80" s="40">
+      <c r="I80" s="33">
+        <f>INT($L80*POWER(G80,$M80))</f>
+        <v/>
+      </c>
+      <c r="J80" s="33">
+        <f>INT($L80*POWER(H80,$M80))</f>
+        <v/>
+      </c>
+      <c r="K80" s="41">
         <f>(I80+J80)/2</f>
         <v/>
       </c>
@@ -8972,29 +8961,29 @@
       <c r="O80" s="30" t="n">
         <v>37</v>
       </c>
-      <c r="P80" s="34">
+      <c r="P80" s="35">
         <f>INT(K80*N80/1000)</f>
         <v/>
       </c>
-      <c r="Q80" s="37">
+      <c r="Q80" s="38">
         <f t="array" ref="Q80">INT(SUMPRODUCT(($D$4:$D$90=$D80)*($F$4:$F$90=$F80),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D80)*($F$4:$F$90=$F80),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R80" s="34">
+      <c r="R80" s="35">
         <f t="array" ref="R80">INT(SUMPRODUCT(($D$4:$D$90=$D80)*($F$4:$F$90=$F80),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D80)*($F$4:$F$90=$F80),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S80" s="34" t="n"/>
-      <c r="T80" s="37" t="n"/>
-      <c r="U80" s="34">
+      <c r="S80" s="35" t="n"/>
+      <c r="T80" s="38" t="n"/>
+      <c r="U80" s="35">
         <f>INT(I80*N80/1000)</f>
         <v/>
       </c>
-      <c r="V80" s="36">
+      <c r="V80" s="37">
         <f>INT(N80*V$3)</f>
         <v/>
       </c>
-      <c r="W80" s="34" t="n">
+      <c r="W80" s="35" t="n">
         <v>742</v>
       </c>
     </row>
@@ -9030,15 +9019,15 @@
       <c r="H81" s="30" t="n">
         <v>68</v>
       </c>
-      <c r="I81" s="40">
-        <f>$L81*POWER(G81,$M81)</f>
-        <v/>
-      </c>
-      <c r="J81" s="40">
-        <f>$L81*POWER(H81,$M81)</f>
-        <v/>
-      </c>
-      <c r="K81" s="40">
+      <c r="I81" s="33">
+        <f>INT($L81*POWER(G81,$M81))</f>
+        <v/>
+      </c>
+      <c r="J81" s="33">
+        <f>INT($L81*POWER(H81,$M81))</f>
+        <v/>
+      </c>
+      <c r="K81" s="41">
         <f>(I81+J81)/2</f>
         <v/>
       </c>
@@ -9056,29 +9045,29 @@
       <c r="O81" s="30" t="n">
         <v>38</v>
       </c>
-      <c r="P81" s="34">
+      <c r="P81" s="35">
         <f>INT(K81*N81/1000)</f>
         <v/>
       </c>
-      <c r="Q81" s="37">
+      <c r="Q81" s="38">
         <f t="array" ref="Q81">INT(SUMPRODUCT(($D$4:$D$90=$D81)*($F$4:$F$90=$F81),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D81)*($F$4:$F$90=$F81),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R81" s="34">
+      <c r="R81" s="35">
         <f t="array" ref="R81">INT(SUMPRODUCT(($D$4:$D$90=$D81)*($F$4:$F$90=$F81),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D81)*($F$4:$F$90=$F81),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S81" s="34" t="n"/>
-      <c r="T81" s="37" t="n"/>
-      <c r="U81" s="34">
+      <c r="S81" s="35" t="n"/>
+      <c r="T81" s="38" t="n"/>
+      <c r="U81" s="35">
         <f>INT(I81*N81/1000)</f>
         <v/>
       </c>
-      <c r="V81" s="36">
+      <c r="V81" s="37">
         <f>INT(N81*V$3)</f>
         <v/>
       </c>
-      <c r="W81" s="34" t="n">
+      <c r="W81" s="35" t="n">
         <v>743</v>
       </c>
     </row>
@@ -9114,15 +9103,15 @@
       <c r="H82" s="30" t="n">
         <v>85</v>
       </c>
-      <c r="I82" s="40">
-        <f>$L82*POWER(G82,$M82)</f>
-        <v/>
-      </c>
-      <c r="J82" s="40">
-        <f>$L82*POWER(H82,$M82)</f>
-        <v/>
-      </c>
-      <c r="K82" s="40">
+      <c r="I82" s="33">
+        <f>INT($L82*POWER(G82,$M82))</f>
+        <v/>
+      </c>
+      <c r="J82" s="33">
+        <f>INT($L82*POWER(H82,$M82))</f>
+        <v/>
+      </c>
+      <c r="K82" s="41">
         <f>(I82+J82)/2</f>
         <v/>
       </c>
@@ -9140,29 +9129,29 @@
       <c r="O82" s="30" t="n">
         <v>39</v>
       </c>
-      <c r="P82" s="34">
+      <c r="P82" s="35">
         <f>INT(K82*N82/1000)</f>
         <v/>
       </c>
-      <c r="Q82" s="37">
+      <c r="Q82" s="38">
         <f t="array" ref="Q82">INT(SUMPRODUCT(($D$4:$D$90=$D82)*($F$4:$F$90=$F82),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D82)*($F$4:$F$90=$F82),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R82" s="34">
+      <c r="R82" s="35">
         <f t="array" ref="R82">INT(SUMPRODUCT(($D$4:$D$90=$D82)*($F$4:$F$90=$F82),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D82)*($F$4:$F$90=$F82),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S82" s="34" t="n"/>
-      <c r="T82" s="37" t="n"/>
-      <c r="U82" s="34">
+      <c r="S82" s="35" t="n"/>
+      <c r="T82" s="38" t="n"/>
+      <c r="U82" s="35">
         <f>INT(I82*N82/1000)</f>
         <v/>
       </c>
-      <c r="V82" s="36">
+      <c r="V82" s="37">
         <f>INT(N82*V$3)</f>
         <v/>
       </c>
-      <c r="W82" s="34" t="n">
+      <c r="W82" s="35" t="n">
         <v>744</v>
       </c>
     </row>
@@ -9198,15 +9187,15 @@
       <c r="H83" s="30" t="n">
         <v>98</v>
       </c>
-      <c r="I83" s="40">
-        <f>$L83*POWER(G83,$M83)</f>
-        <v/>
-      </c>
-      <c r="J83" s="40">
-        <f>$L83*POWER(H83,$M83)</f>
-        <v/>
-      </c>
-      <c r="K83" s="40">
+      <c r="I83" s="33">
+        <f>INT($L83*POWER(G83,$M83))</f>
+        <v/>
+      </c>
+      <c r="J83" s="33">
+        <f>INT($L83*POWER(H83,$M83))</f>
+        <v/>
+      </c>
+      <c r="K83" s="41">
         <f>(I83+J83)/2</f>
         <v/>
       </c>
@@ -9224,29 +9213,29 @@
       <c r="O83" s="30" t="n">
         <v>40</v>
       </c>
-      <c r="P83" s="34">
+      <c r="P83" s="35">
         <f>INT(K83*N83/1000)</f>
         <v/>
       </c>
-      <c r="Q83" s="37">
+      <c r="Q83" s="38">
         <f t="array" ref="Q83">INT(SUMPRODUCT(($D$4:$D$90=$D83)*($F$4:$F$90=$F83),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D83)*($F$4:$F$90=$F83),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R83" s="34">
+      <c r="R83" s="35">
         <f t="array" ref="R83">INT(SUMPRODUCT(($D$4:$D$90=$D83)*($F$4:$F$90=$F83),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D83)*($F$4:$F$90=$F83),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S83" s="34" t="n"/>
-      <c r="T83" s="37" t="n"/>
-      <c r="U83" s="34">
+      <c r="S83" s="35" t="n"/>
+      <c r="T83" s="38" t="n"/>
+      <c r="U83" s="35">
         <f>INT(I83*N83/1000)</f>
         <v/>
       </c>
-      <c r="V83" s="36">
+      <c r="V83" s="37">
         <f>INT(N83*V$3)</f>
         <v/>
       </c>
-      <c r="W83" s="34" t="n">
+      <c r="W83" s="35" t="n">
         <v>745</v>
       </c>
     </row>
@@ -9282,15 +9271,15 @@
       <c r="H84" s="30" t="n">
         <v>107</v>
       </c>
-      <c r="I84" s="40">
-        <f>$L84*POWER(G84,$M84)</f>
-        <v/>
-      </c>
-      <c r="J84" s="40">
-        <f>$L84*POWER(H84,$M84)</f>
-        <v/>
-      </c>
-      <c r="K84" s="40">
+      <c r="I84" s="33">
+        <f>INT($L84*POWER(G84,$M84))</f>
+        <v/>
+      </c>
+      <c r="J84" s="33">
+        <f>INT($L84*POWER(H84,$M84))</f>
+        <v/>
+      </c>
+      <c r="K84" s="41">
         <f>(I84+J84)/2</f>
         <v/>
       </c>
@@ -9308,29 +9297,29 @@
       <c r="O84" s="30" t="n">
         <v>41</v>
       </c>
-      <c r="P84" s="34">
+      <c r="P84" s="35">
         <f>INT(K84*N84/1000)</f>
         <v/>
       </c>
-      <c r="Q84" s="37">
+      <c r="Q84" s="38">
         <f t="array" ref="Q84">INT(SUMPRODUCT(($D$4:$D$90=$D84)*($F$4:$F$90=$F84),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D84)*($F$4:$F$90=$F84),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="R84" s="34">
+      <c r="R84" s="35">
         <f t="array" ref="R84">INT(SUMPRODUCT(($D$4:$D$90=$D84)*($F$4:$F$90=$F84),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D84)*($F$4:$F$90=$F84),$O$4:$O$90))</f>
         <v/>
       </c>
-      <c r="S84" s="34" t="n"/>
-      <c r="T84" s="37" t="n"/>
-      <c r="U84" s="34">
+      <c r="S84" s="35" t="n"/>
+      <c r="T84" s="38" t="n"/>
+      <c r="U84" s="35">
         <f>INT(I84*N84/1000)</f>
         <v/>
       </c>
-      <c r="V84" s="36">
+      <c r="V84" s="37">
         <f>INT(N84*V$3)</f>
         <v/>
       </c>
-      <c r="W84" s="34" t="n">
+      <c r="W84" s="35" t="n">
         <v>746</v>
       </c>
     </row>
@@ -9341,14 +9330,14 @@
       <c r="F85" s="7" t="n"/>
       <c r="G85" s="7" t="n"/>
       <c r="H85" s="7" t="n"/>
-      <c r="I85" s="40" t="n"/>
-      <c r="J85" s="40" t="n"/>
-      <c r="K85" s="40" t="n"/>
+      <c r="I85" s="41" t="n"/>
+      <c r="J85" s="41" t="n"/>
+      <c r="K85" s="41" t="n"/>
       <c r="L85" s="7" t="n"/>
       <c r="M85" s="7" t="n"/>
       <c r="N85" s="7" t="n"/>
       <c r="U85" s="7" t="n"/>
-      <c r="V85" s="36" t="n"/>
+      <c r="V85" s="37" t="n"/>
       <c r="W85" s="7" t="n"/>
     </row>
     <row r="86">
@@ -9358,14 +9347,14 @@
       <c r="F86" s="7" t="n"/>
       <c r="G86" s="7" t="n"/>
       <c r="H86" s="7" t="n"/>
-      <c r="I86" s="40" t="n"/>
-      <c r="J86" s="40" t="n"/>
-      <c r="K86" s="40" t="n"/>
+      <c r="I86" s="41" t="n"/>
+      <c r="J86" s="41" t="n"/>
+      <c r="K86" s="41" t="n"/>
       <c r="L86" s="7" t="n"/>
       <c r="M86" s="7" t="n"/>
       <c r="N86" s="7" t="n"/>
       <c r="U86" s="7" t="n"/>
-      <c r="V86" s="36" t="n"/>
+      <c r="V86" s="37" t="n"/>
       <c r="W86" s="7" t="n"/>
     </row>
     <row r="87">
@@ -9375,14 +9364,14 @@
       <c r="F87" s="7" t="n"/>
       <c r="G87" s="7" t="n"/>
       <c r="H87" s="7" t="n"/>
-      <c r="I87" s="40" t="n"/>
-      <c r="J87" s="40" t="n"/>
-      <c r="K87" s="40" t="n"/>
+      <c r="I87" s="41" t="n"/>
+      <c r="J87" s="41" t="n"/>
+      <c r="K87" s="41" t="n"/>
       <c r="L87" s="7" t="n"/>
       <c r="M87" s="7" t="n"/>
       <c r="N87" s="7" t="n"/>
       <c r="U87" s="7" t="n"/>
-      <c r="V87" s="36" t="n"/>
+      <c r="V87" s="37" t="n"/>
       <c r="W87" s="7" t="n"/>
     </row>
     <row r="88">
@@ -9392,14 +9381,14 @@
       <c r="F88" s="7" t="n"/>
       <c r="G88" s="7" t="n"/>
       <c r="H88" s="7" t="n"/>
-      <c r="I88" s="40" t="n"/>
-      <c r="J88" s="40" t="n"/>
-      <c r="K88" s="40" t="n"/>
+      <c r="I88" s="41" t="n"/>
+      <c r="J88" s="41" t="n"/>
+      <c r="K88" s="41" t="n"/>
       <c r="L88" s="7" t="n"/>
       <c r="M88" s="7" t="n"/>
       <c r="N88" s="7" t="n"/>
       <c r="U88" s="7" t="n"/>
-      <c r="V88" s="36" t="n"/>
+      <c r="V88" s="37" t="n"/>
       <c r="W88" s="7" t="n"/>
     </row>
     <row r="89">
@@ -9409,14 +9398,14 @@
       <c r="F89" s="7" t="n"/>
       <c r="G89" s="7" t="n"/>
       <c r="H89" s="7" t="n"/>
-      <c r="I89" s="40" t="n"/>
-      <c r="J89" s="40" t="n"/>
-      <c r="K89" s="40" t="n"/>
+      <c r="I89" s="41" t="n"/>
+      <c r="J89" s="41" t="n"/>
+      <c r="K89" s="41" t="n"/>
       <c r="L89" s="7" t="n"/>
       <c r="M89" s="7" t="n"/>
       <c r="N89" s="7" t="n"/>
       <c r="U89" s="7" t="n"/>
-      <c r="V89" s="36" t="n"/>
+      <c r="V89" s="37" t="n"/>
       <c r="W89" s="7" t="n"/>
     </row>
     <row r="90">
@@ -9426,14 +9415,14 @@
       <c r="F90" s="7" t="n"/>
       <c r="G90" s="7" t="n"/>
       <c r="H90" s="7" t="n"/>
-      <c r="I90" s="40" t="n"/>
-      <c r="J90" s="40" t="n"/>
-      <c r="K90" s="40" t="n"/>
+      <c r="I90" s="41" t="n"/>
+      <c r="J90" s="41" t="n"/>
+      <c r="K90" s="41" t="n"/>
       <c r="L90" s="7" t="n"/>
       <c r="M90" s="7" t="n"/>
       <c r="N90" s="7" t="n"/>
       <c r="U90" s="7" t="n"/>
-      <c r="V90" s="36" t="n"/>
+      <c r="V90" s="37" t="n"/>
       <c r="W90" s="7" t="n"/>
     </row>
     <row r="91">
@@ -9443,14 +9432,14 @@
       <c r="F91" s="7" t="n"/>
       <c r="G91" s="7" t="n"/>
       <c r="H91" s="7" t="n"/>
-      <c r="I91" s="40" t="n"/>
-      <c r="J91" s="40" t="n"/>
-      <c r="K91" s="40" t="n"/>
+      <c r="I91" s="41" t="n"/>
+      <c r="J91" s="41" t="n"/>
+      <c r="K91" s="41" t="n"/>
       <c r="L91" s="7" t="n"/>
       <c r="M91" s="7" t="n"/>
       <c r="N91" s="7" t="n"/>
       <c r="U91" s="7" t="n"/>
-      <c r="V91" s="36" t="n"/>
+      <c r="V91" s="37" t="n"/>
       <c r="W91" s="7" t="n"/>
     </row>
     <row r="92">
@@ -9460,14 +9449,14 @@
       <c r="F92" s="7" t="n"/>
       <c r="G92" s="7" t="n"/>
       <c r="H92" s="7" t="n"/>
-      <c r="I92" s="40" t="n"/>
-      <c r="J92" s="40" t="n"/>
-      <c r="K92" s="40" t="n"/>
+      <c r="I92" s="41" t="n"/>
+      <c r="J92" s="41" t="n"/>
+      <c r="K92" s="41" t="n"/>
       <c r="L92" s="7" t="n"/>
       <c r="M92" s="7" t="n"/>
       <c r="N92" s="7" t="n"/>
       <c r="U92" s="7" t="n"/>
-      <c r="V92" s="36" t="n"/>
+      <c r="V92" s="37" t="n"/>
       <c r="W92" s="7" t="n"/>
     </row>
     <row r="93">
@@ -9477,14 +9466,14 @@
       <c r="F93" s="7" t="n"/>
       <c r="G93" s="7" t="n"/>
       <c r="H93" s="7" t="n"/>
-      <c r="I93" s="40" t="n"/>
-      <c r="J93" s="40" t="n"/>
-      <c r="K93" s="40" t="n"/>
+      <c r="I93" s="41" t="n"/>
+      <c r="J93" s="41" t="n"/>
+      <c r="K93" s="41" t="n"/>
       <c r="L93" s="7" t="n"/>
       <c r="M93" s="7" t="n"/>
       <c r="N93" s="7" t="n"/>
       <c r="U93" s="7" t="n"/>
-      <c r="V93" s="36" t="n"/>
+      <c r="V93" s="37" t="n"/>
       <c r="W93" s="7" t="n"/>
     </row>
     <row r="94">
@@ -9494,14 +9483,14 @@
       <c r="F94" s="7" t="n"/>
       <c r="G94" s="7" t="n"/>
       <c r="H94" s="7" t="n"/>
-      <c r="I94" s="40" t="n"/>
-      <c r="J94" s="40" t="n"/>
-      <c r="K94" s="40" t="n"/>
+      <c r="I94" s="41" t="n"/>
+      <c r="J94" s="41" t="n"/>
+      <c r="K94" s="41" t="n"/>
       <c r="L94" s="7" t="n"/>
       <c r="M94" s="7" t="n"/>
       <c r="N94" s="7" t="n"/>
       <c r="U94" s="7" t="n"/>
-      <c r="V94" s="36" t="n"/>
+      <c r="V94" s="37" t="n"/>
       <c r="W94" s="7" t="n"/>
     </row>
     <row r="95">
@@ -9511,14 +9500,14 @@
       <c r="F95" s="7" t="n"/>
       <c r="G95" s="7" t="n"/>
       <c r="H95" s="7" t="n"/>
-      <c r="I95" s="40" t="n"/>
-      <c r="J95" s="40" t="n"/>
-      <c r="K95" s="40" t="n"/>
+      <c r="I95" s="41" t="n"/>
+      <c r="J95" s="41" t="n"/>
+      <c r="K95" s="41" t="n"/>
       <c r="L95" s="7" t="n"/>
       <c r="M95" s="7" t="n"/>
       <c r="N95" s="7" t="n"/>
       <c r="U95" s="7" t="n"/>
-      <c r="V95" s="36" t="n"/>
+      <c r="V95" s="37" t="n"/>
       <c r="W95" s="7" t="n"/>
     </row>
     <row r="96">
@@ -9528,14 +9517,14 @@
       <c r="F96" s="7" t="n"/>
       <c r="G96" s="7" t="n"/>
       <c r="H96" s="7" t="n"/>
-      <c r="I96" s="40" t="n"/>
-      <c r="J96" s="40" t="n"/>
-      <c r="K96" s="40" t="n"/>
+      <c r="I96" s="41" t="n"/>
+      <c r="J96" s="41" t="n"/>
+      <c r="K96" s="41" t="n"/>
       <c r="L96" s="7" t="n"/>
       <c r="M96" s="7" t="n"/>
       <c r="N96" s="7" t="n"/>
       <c r="U96" s="7" t="n"/>
-      <c r="V96" s="36" t="n"/>
+      <c r="V96" s="37" t="n"/>
       <c r="W96" s="7" t="n"/>
     </row>
     <row r="97">
@@ -9545,14 +9534,14 @@
       <c r="F97" s="7" t="n"/>
       <c r="G97" s="7" t="n"/>
       <c r="H97" s="7" t="n"/>
-      <c r="I97" s="40" t="n"/>
-      <c r="J97" s="40" t="n"/>
-      <c r="K97" s="40" t="n"/>
+      <c r="I97" s="41" t="n"/>
+      <c r="J97" s="41" t="n"/>
+      <c r="K97" s="41" t="n"/>
       <c r="L97" s="7" t="n"/>
       <c r="M97" s="7" t="n"/>
       <c r="N97" s="7" t="n"/>
       <c r="U97" s="7" t="n"/>
-      <c r="V97" s="36" t="n"/>
+      <c r="V97" s="37" t="n"/>
       <c r="W97" s="7" t="n"/>
     </row>
     <row r="98">
@@ -9562,119 +9551,119 @@
       <c r="F98" s="7" t="n"/>
       <c r="G98" s="7" t="n"/>
       <c r="H98" s="7" t="n"/>
-      <c r="I98" s="40" t="n"/>
-      <c r="J98" s="40" t="n"/>
-      <c r="K98" s="40" t="n"/>
+      <c r="I98" s="41" t="n"/>
+      <c r="J98" s="41" t="n"/>
+      <c r="K98" s="41" t="n"/>
       <c r="L98" s="7" t="n"/>
       <c r="M98" s="7" t="n"/>
       <c r="N98" s="7" t="n"/>
       <c r="U98" s="7" t="n"/>
-      <c r="V98" s="36" t="n"/>
+      <c r="V98" s="37" t="n"/>
       <c r="W98" s="7" t="n"/>
     </row>
     <row r="99">
       <c r="U99" s="7" t="n"/>
-      <c r="V99" s="36" t="n"/>
+      <c r="V99" s="37" t="n"/>
       <c r="W99" s="7" t="n"/>
     </row>
     <row r="100">
       <c r="U100" s="7" t="n"/>
-      <c r="V100" s="36" t="n"/>
+      <c r="V100" s="37" t="n"/>
       <c r="W100" s="7" t="n"/>
     </row>
     <row r="101">
       <c r="U101" s="7" t="n"/>
-      <c r="V101" s="36" t="n"/>
+      <c r="V101" s="37" t="n"/>
       <c r="W101" s="7" t="n"/>
     </row>
     <row r="102">
       <c r="U102" s="7" t="n"/>
-      <c r="V102" s="36" t="n"/>
+      <c r="V102" s="37" t="n"/>
       <c r="W102" s="7" t="n"/>
     </row>
     <row r="103">
       <c r="U103" s="7" t="n"/>
-      <c r="V103" s="36" t="n"/>
+      <c r="V103" s="37" t="n"/>
       <c r="W103" s="7" t="n"/>
     </row>
     <row r="104">
       <c r="U104" s="7" t="n"/>
-      <c r="V104" s="36" t="n"/>
+      <c r="V104" s="37" t="n"/>
       <c r="W104" s="7" t="n"/>
     </row>
     <row r="105">
       <c r="U105" s="7" t="n"/>
-      <c r="V105" s="36" t="n"/>
+      <c r="V105" s="37" t="n"/>
       <c r="W105" s="7" t="n"/>
     </row>
     <row r="106">
       <c r="U106" s="7" t="n"/>
-      <c r="V106" s="36" t="n"/>
+      <c r="V106" s="37" t="n"/>
       <c r="W106" s="7" t="n"/>
     </row>
     <row r="107">
       <c r="U107" s="7" t="n"/>
-      <c r="V107" s="36" t="n"/>
+      <c r="V107" s="37" t="n"/>
       <c r="W107" s="7" t="n"/>
     </row>
     <row r="108">
       <c r="U108" s="7" t="n"/>
-      <c r="V108" s="36" t="n"/>
+      <c r="V108" s="37" t="n"/>
       <c r="W108" s="7" t="n"/>
     </row>
     <row r="109">
       <c r="U109" s="7" t="n"/>
-      <c r="V109" s="36" t="n"/>
+      <c r="V109" s="37" t="n"/>
       <c r="W109" s="7" t="n"/>
     </row>
     <row r="110">
       <c r="U110" s="7" t="n"/>
-      <c r="V110" s="36" t="n"/>
+      <c r="V110" s="37" t="n"/>
       <c r="W110" s="7" t="n"/>
     </row>
     <row r="111">
       <c r="U111" s="7" t="n"/>
-      <c r="V111" s="36" t="n"/>
+      <c r="V111" s="37" t="n"/>
       <c r="W111" s="7" t="n"/>
     </row>
     <row r="112">
       <c r="U112" s="7" t="n"/>
-      <c r="V112" s="36" t="n"/>
+      <c r="V112" s="37" t="n"/>
       <c r="W112" s="7" t="n"/>
     </row>
     <row r="113">
       <c r="U113" s="7" t="n"/>
-      <c r="V113" s="36" t="n"/>
+      <c r="V113" s="37" t="n"/>
       <c r="W113" s="7" t="n"/>
     </row>
     <row r="114">
       <c r="U114" s="7" t="n"/>
-      <c r="V114" s="36" t="n"/>
+      <c r="V114" s="37" t="n"/>
       <c r="W114" s="7" t="n"/>
     </row>
     <row r="115">
       <c r="U115" s="7" t="n"/>
-      <c r="V115" s="36" t="n"/>
+      <c r="V115" s="37" t="n"/>
       <c r="W115" s="7" t="n"/>
     </row>
     <row r="116">
       <c r="U116" s="7" t="n"/>
-      <c r="V116" s="36" t="n"/>
+      <c r="V116" s="37" t="n"/>
       <c r="W116" s="7" t="n"/>
     </row>
     <row r="117">
       <c r="U117" s="7" t="n"/>
-      <c r="V117" s="36" t="n"/>
+      <c r="V117" s="37" t="n"/>
       <c r="W117" s="7" t="n"/>
     </row>
     <row r="118">
       <c r="U118" s="7" t="n"/>
-      <c r="V118" s="36" t="n"/>
+      <c r="V118" s="37" t="n"/>
       <c r="W118" s="7" t="n"/>
     </row>
     <row r="119">
       <c r="U119" s="7" t="n"/>
-      <c r="V119" s="36" t="n"/>
+      <c r="V119" s="37" t="n"/>
       <c r="W119" s="7" t="n"/>
     </row>
   </sheetData>
@@ -12039,1740 +12028,1740 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="inlineStr">
+      <c r="A1" s="42" t="inlineStr">
         <is>
           <t>鱼种</t>
         </is>
       </c>
-      <c r="B1" s="41" t="inlineStr">
+      <c r="B1" s="42" t="inlineStr">
         <is>
           <t>品质</t>
         </is>
       </c>
-      <c r="C1" s="41" t="inlineStr">
+      <c r="C1" s="42" t="inlineStr">
         <is>
           <t>钓场</t>
         </is>
       </c>
-      <c r="D1" s="41" t="inlineStr">
+      <c r="D1" s="42" t="inlineStr">
         <is>
           <t>等阶</t>
         </is>
       </c>
-      <c r="E1" s="41" t="inlineStr">
+      <c r="E1" s="42" t="inlineStr">
         <is>
           <t>随机权重</t>
         </is>
       </c>
-      <c r="F1" s="41" t="inlineStr">
+      <c r="F1" s="42" t="inlineStr">
         <is>
           <t>最小长度</t>
         </is>
       </c>
-      <c r="G1" s="41" t="inlineStr">
+      <c r="G1" s="42" t="inlineStr">
         <is>
           <t>最大长度</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="inlineStr">
+      <c r="A2" s="43" t="inlineStr">
         <is>
           <t>Alewife</t>
         </is>
       </c>
-      <c r="B2" s="42" t="inlineStr">
+      <c r="B2" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C2" s="42" t="n">
+      <c r="C2" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="42" t="n">
+      <c r="D2" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="42" t="n">
+      <c r="E2" s="43" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Alewife</t>
         </is>
       </c>
-      <c r="B3" s="42" t="inlineStr">
+      <c r="B3" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C3" s="42" t="n">
+      <c r="C3" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="42" t="n">
+      <c r="D3" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="42" t="n">
+      <c r="E3" s="43" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Common_Shiner</t>
         </is>
       </c>
-      <c r="B4" s="42" t="inlineStr">
+      <c r="B4" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C4" s="42" t="n">
+      <c r="C4" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="42" t="n">
+      <c r="D4" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="42" t="n">
+      <c r="E4" s="43" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Common_Shiner</t>
         </is>
       </c>
-      <c r="B5" s="42" t="inlineStr">
+      <c r="B5" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C5" s="42" t="n">
+      <c r="C5" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="42" t="n">
+      <c r="D5" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="42" t="n">
+      <c r="E5" s="43" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="42" t="inlineStr">
+      <c r="A6" s="43" t="inlineStr">
         <is>
           <t>Green_Sunfish</t>
         </is>
       </c>
-      <c r="B6" s="42" t="inlineStr">
+      <c r="B6" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C6" s="42" t="n">
+      <c r="C6" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="42" t="n">
+      <c r="D6" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="42" t="n">
+      <c r="E6" s="43" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>Green_Sunfish</t>
         </is>
       </c>
-      <c r="B7" s="42" t="inlineStr">
+      <c r="B7" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C7" s="42" t="n">
+      <c r="C7" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="42" t="n">
+      <c r="D7" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="42" t="n">
+      <c r="E7" s="43" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="inlineStr">
+      <c r="A8" s="43" t="inlineStr">
         <is>
           <t>Pumpkinseed_Sunfish</t>
         </is>
       </c>
-      <c r="B8" s="42" t="inlineStr">
+      <c r="B8" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C8" s="42" t="n">
+      <c r="C8" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="42" t="n">
+      <c r="D8" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="42" t="n">
+      <c r="E8" s="43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42" t="inlineStr">
+      <c r="A9" s="43" t="inlineStr">
         <is>
           <t>Pumpkinseed_Sunfish</t>
         </is>
       </c>
-      <c r="B9" s="42" t="inlineStr">
+      <c r="B9" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C9" s="42" t="n">
+      <c r="C9" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="42" t="n">
+      <c r="D9" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="42" t="n">
+      <c r="E9" s="43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="42" t="inlineStr">
+      <c r="A10" s="43" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B10" s="42" t="inlineStr">
+      <c r="B10" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C10" s="42" t="n">
+      <c r="C10" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="42" t="n">
+      <c r="D10" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="42" t="n">
+      <c r="E10" s="43" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42" t="inlineStr">
+      <c r="A11" s="43" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B11" s="42" t="inlineStr">
+      <c r="B11" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C11" s="42" t="n">
+      <c r="C11" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="42" t="n">
+      <c r="D11" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="42" t="n">
+      <c r="E11" s="43" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="42" t="inlineStr">
+      <c r="A12" s="43" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B12" s="42" t="inlineStr">
+      <c r="B12" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C12" s="42" t="n">
+      <c r="C12" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="42" t="n">
+      <c r="D12" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="42" t="n">
+      <c r="E12" s="43" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="42" t="inlineStr">
+      <c r="A13" s="43" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B13" s="42" t="inlineStr">
+      <c r="B13" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C13" s="42" t="n">
+      <c r="C13" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="42" t="n">
+      <c r="D13" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="42" t="n">
+      <c r="E13" s="43" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="42" t="inlineStr">
+      <c r="A14" s="43" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B14" s="42" t="inlineStr">
+      <c r="B14" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C14" s="42" t="n">
+      <c r="C14" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="42" t="n">
+      <c r="D14" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="42" t="n">
+      <c r="E14" s="43" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="42" t="inlineStr">
+      <c r="A15" s="43" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B15" s="42" t="inlineStr">
+      <c r="B15" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C15" s="42" t="n">
+      <c r="C15" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="42" t="n">
+      <c r="D15" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="42" t="n">
+      <c r="E15" s="43" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="42" t="inlineStr">
+      <c r="A16" s="43" t="inlineStr">
         <is>
           <t>Yaqui_Sucker</t>
         </is>
       </c>
-      <c r="B16" s="42" t="inlineStr">
+      <c r="B16" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C16" s="42" t="n">
+      <c r="C16" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="42" t="n">
+      <c r="D16" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E16" s="42" t="n">
+      <c r="E16" s="43" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="42" t="inlineStr">
+      <c r="A17" s="43" t="inlineStr">
         <is>
           <t>Yaqui_Sucker</t>
         </is>
       </c>
-      <c r="B17" s="42" t="inlineStr">
+      <c r="B17" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C17" s="42" t="n">
+      <c r="C17" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="42" t="n">
+      <c r="D17" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="42" t="n">
+      <c r="E17" s="43" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="42" t="inlineStr">
+      <c r="A18" s="43" t="inlineStr">
         <is>
           <t>Yaqui_Sucker</t>
         </is>
       </c>
-      <c r="B18" s="42" t="inlineStr">
+      <c r="B18" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C18" s="42" t="n">
+      <c r="C18" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="42" t="n">
+      <c r="D18" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="42" t="n">
+      <c r="E18" s="43" t="n">
         <v>181</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="42" t="inlineStr">
+      <c r="A19" s="43" t="inlineStr">
         <is>
           <t>Yaqui_Sucker</t>
         </is>
       </c>
-      <c r="B19" s="42" t="inlineStr">
+      <c r="B19" s="43" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C19" s="42" t="n">
+      <c r="C19" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="42" t="n">
+      <c r="D19" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="42" t="n">
+      <c r="E19" s="43" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="42" t="inlineStr">
+      <c r="A20" s="43" t="inlineStr">
         <is>
           <t>Buffalo</t>
         </is>
       </c>
-      <c r="B20" s="42" t="inlineStr">
+      <c r="B20" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C20" s="42" t="n">
+      <c r="C20" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="42" t="n">
+      <c r="D20" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="42" t="n">
+      <c r="E20" s="43" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="42" t="inlineStr">
+      <c r="A21" s="43" t="inlineStr">
         <is>
           <t>Buffalo</t>
         </is>
       </c>
-      <c r="B21" s="42" t="inlineStr">
+      <c r="B21" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C21" s="42" t="n">
+      <c r="C21" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="42" t="n">
+      <c r="D21" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="42" t="n">
+      <c r="E21" s="43" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="42" t="inlineStr">
+      <c r="A22" s="43" t="inlineStr">
         <is>
           <t>Buffalo</t>
         </is>
       </c>
-      <c r="B22" s="42" t="inlineStr">
+      <c r="B22" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C22" s="42" t="n">
+      <c r="C22" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="42" t="n">
+      <c r="D22" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E22" s="42" t="n">
+      <c r="E22" s="43" t="n">
         <v>181</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="42" t="inlineStr">
+      <c r="A23" s="43" t="inlineStr">
         <is>
           <t>Buffalo</t>
         </is>
       </c>
-      <c r="B23" s="42" t="inlineStr">
+      <c r="B23" s="43" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C23" s="42" t="n">
+      <c r="C23" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="42" t="n">
+      <c r="D23" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="42" t="n">
+      <c r="E23" s="43" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="42" t="inlineStr">
+      <c r="A24" s="43" t="inlineStr">
         <is>
           <t>Bigmouth_Buffalo</t>
         </is>
       </c>
-      <c r="B24" s="42" t="inlineStr">
+      <c r="B24" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C24" s="42" t="n">
+      <c r="C24" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="42" t="n">
+      <c r="D24" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="42" t="n">
+      <c r="E24" s="43" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="42" t="inlineStr">
+      <c r="A25" s="43" t="inlineStr">
         <is>
           <t>Bigmouth_Buffalo</t>
         </is>
       </c>
-      <c r="B25" s="42" t="inlineStr">
+      <c r="B25" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C25" s="42" t="n">
+      <c r="C25" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="42" t="n">
+      <c r="D25" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="42" t="n">
+      <c r="E25" s="43" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="42" t="inlineStr">
+      <c r="A26" s="43" t="inlineStr">
         <is>
           <t>Bigmouth_Buffalo</t>
         </is>
       </c>
-      <c r="B26" s="42" t="inlineStr">
+      <c r="B26" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C26" s="42" t="n">
+      <c r="C26" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="42" t="n">
+      <c r="D26" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E26" s="42" t="n">
+      <c r="E26" s="43" t="n">
         <v>181</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="42" t="inlineStr">
+      <c r="A27" s="43" t="inlineStr">
         <is>
           <t>Bigmouth_Buffalo</t>
         </is>
       </c>
-      <c r="B27" s="42" t="inlineStr">
+      <c r="B27" s="43" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C27" s="42" t="n">
+      <c r="C27" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="42" t="n">
+      <c r="D27" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E27" s="42" t="n">
+      <c r="E27" s="43" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="42" t="inlineStr">
+      <c r="A28" s="43" t="inlineStr">
         <is>
           <t>Tench</t>
         </is>
       </c>
-      <c r="B28" s="42" t="inlineStr">
+      <c r="B28" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C28" s="42" t="n">
+      <c r="C28" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="42" t="n">
+      <c r="D28" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="42" t="n">
+      <c r="E28" s="43" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="42" t="inlineStr">
+      <c r="A29" s="43" t="inlineStr">
         <is>
           <t>Tench</t>
         </is>
       </c>
-      <c r="B29" s="42" t="inlineStr">
+      <c r="B29" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C29" s="42" t="n">
+      <c r="C29" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="42" t="n">
+      <c r="D29" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E29" s="42" t="n">
+      <c r="E29" s="43" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="42" t="inlineStr">
+      <c r="A30" s="43" t="inlineStr">
         <is>
           <t>Tench</t>
         </is>
       </c>
-      <c r="B30" s="42" t="inlineStr">
+      <c r="B30" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C30" s="42" t="n">
+      <c r="C30" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="42" t="n">
+      <c r="D30" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="42" t="n">
+      <c r="E30" s="43" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="42" t="inlineStr">
+      <c r="A31" s="43" t="inlineStr">
         <is>
           <t>Tench</t>
         </is>
       </c>
-      <c r="B31" s="42" t="inlineStr">
+      <c r="B31" s="43" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C31" s="42" t="n">
+      <c r="C31" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="42" t="n">
+      <c r="D31" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E31" s="42" t="n">
+      <c r="E31" s="43" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="42" t="inlineStr">
+      <c r="A32" s="43" t="inlineStr">
         <is>
           <t>Tench</t>
         </is>
       </c>
-      <c r="B32" s="42" t="inlineStr">
+      <c r="B32" s="43" t="inlineStr">
         <is>
           <t>_Apex</t>
         </is>
       </c>
-      <c r="C32" s="42" t="n">
+      <c r="C32" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="42" t="n">
+      <c r="D32" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E32" s="42" t="n">
+      <c r="E32" s="43" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="42" t="inlineStr">
+      <c r="A33" s="43" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
         </is>
       </c>
-      <c r="B33" s="42" t="inlineStr">
+      <c r="B33" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C33" s="42" t="n">
+      <c r="C33" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="42" t="n">
+      <c r="D33" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E33" s="42" t="n">
+      <c r="E33" s="43" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="42" t="inlineStr">
+      <c r="A34" s="43" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
         </is>
       </c>
-      <c r="B34" s="42" t="inlineStr">
+      <c r="B34" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C34" s="42" t="n">
+      <c r="C34" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="42" t="n">
+      <c r="D34" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E34" s="42" t="n">
+      <c r="E34" s="43" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="42" t="inlineStr">
+      <c r="A35" s="43" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
         </is>
       </c>
-      <c r="B35" s="42" t="inlineStr">
+      <c r="B35" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C35" s="42" t="n">
+      <c r="C35" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="42" t="n">
+      <c r="D35" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E35" s="42" t="n">
+      <c r="E35" s="43" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="42" t="inlineStr">
+      <c r="A36" s="43" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
         </is>
       </c>
-      <c r="B36" s="42" t="inlineStr">
+      <c r="B36" s="43" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C36" s="42" t="n">
+      <c r="C36" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="42" t="n">
+      <c r="D36" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E36" s="42" t="n">
+      <c r="E36" s="43" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="42" t="inlineStr">
+      <c r="A37" s="43" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
         </is>
       </c>
-      <c r="B37" s="42" t="inlineStr">
+      <c r="B37" s="43" t="inlineStr">
         <is>
           <t>_Apex</t>
         </is>
       </c>
-      <c r="C37" s="42" t="n">
+      <c r="C37" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="42" t="n">
+      <c r="D37" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="42" t="n">
+      <c r="E37" s="43" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="42" t="inlineStr">
+      <c r="A38" s="43" t="inlineStr">
         <is>
           <t>Alewife</t>
         </is>
       </c>
-      <c r="B38" s="42" t="inlineStr">
+      <c r="B38" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C38" s="42" t="n">
+      <c r="C38" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="42" t="n">
+      <c r="D38" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="42" t="n">
+      <c r="E38" s="43" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="42" t="inlineStr">
+      <c r="A39" s="43" t="inlineStr">
         <is>
           <t>Alewife</t>
         </is>
       </c>
-      <c r="B39" s="42" t="inlineStr">
+      <c r="B39" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C39" s="42" t="n">
+      <c r="C39" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="42" t="n">
+      <c r="D39" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="42" t="n">
+      <c r="E39" s="43" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="42" t="inlineStr">
+      <c r="A40" s="43" t="inlineStr">
         <is>
           <t>Common_Shiner</t>
         </is>
       </c>
-      <c r="B40" s="42" t="inlineStr">
+      <c r="B40" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C40" s="42" t="n">
+      <c r="C40" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="42" t="n">
+      <c r="D40" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="42" t="n">
+      <c r="E40" s="43" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="42" t="inlineStr">
+      <c r="A41" s="43" t="inlineStr">
         <is>
           <t>Common_Shiner</t>
         </is>
       </c>
-      <c r="B41" s="42" t="inlineStr">
+      <c r="B41" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C41" s="42" t="n">
+      <c r="C41" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="42" t="n">
+      <c r="D41" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="42" t="n">
+      <c r="E41" s="43" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="42" t="inlineStr">
+      <c r="A42" s="43" t="inlineStr">
         <is>
           <t>Green_Sunfish</t>
         </is>
       </c>
-      <c r="B42" s="42" t="inlineStr">
+      <c r="B42" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C42" s="42" t="n">
+      <c r="C42" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="42" t="n">
+      <c r="D42" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="42" t="n">
+      <c r="E42" s="43" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="42" t="inlineStr">
+      <c r="A43" s="43" t="inlineStr">
         <is>
           <t>Green_Sunfish</t>
         </is>
       </c>
-      <c r="B43" s="42" t="inlineStr">
+      <c r="B43" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C43" s="42" t="n">
+      <c r="C43" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="42" t="n">
+      <c r="D43" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E43" s="42" t="n">
+      <c r="E43" s="43" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="42" t="inlineStr">
+      <c r="A44" s="43" t="inlineStr">
         <is>
           <t>Pumpkinseed_Sunfish</t>
         </is>
       </c>
-      <c r="B44" s="42" t="inlineStr">
+      <c r="B44" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C44" s="42" t="n">
+      <c r="C44" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="42" t="n">
+      <c r="D44" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="42" t="n">
+      <c r="E44" s="43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="42" t="inlineStr">
+      <c r="A45" s="43" t="inlineStr">
         <is>
           <t>Pumpkinseed_Sunfish</t>
         </is>
       </c>
-      <c r="B45" s="42" t="inlineStr">
+      <c r="B45" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C45" s="42" t="n">
+      <c r="C45" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D45" s="42" t="n">
+      <c r="D45" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="42" t="n">
+      <c r="E45" s="43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="42" t="inlineStr">
+      <c r="A46" s="43" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B46" s="42" t="inlineStr">
+      <c r="B46" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C46" s="42" t="n">
+      <c r="C46" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D46" s="42" t="n">
+      <c r="D46" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E46" s="42" t="n">
+      <c r="E46" s="43" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="42" t="inlineStr">
+      <c r="A47" s="43" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B47" s="42" t="inlineStr">
+      <c r="B47" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C47" s="42" t="n">
+      <c r="C47" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="42" t="n">
+      <c r="D47" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E47" s="42" t="n">
+      <c r="E47" s="43" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="42" t="inlineStr">
+      <c r="A48" s="43" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B48" s="42" t="inlineStr">
+      <c r="B48" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C48" s="42" t="n">
+      <c r="C48" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D48" s="42" t="n">
+      <c r="D48" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="42" t="n">
+      <c r="E48" s="43" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="42" t="inlineStr">
+      <c r="A49" s="43" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B49" s="42" t="inlineStr">
+      <c r="B49" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C49" s="42" t="n">
+      <c r="C49" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D49" s="42" t="n">
+      <c r="D49" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E49" s="42" t="n">
+      <c r="E49" s="43" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="42" t="inlineStr">
+      <c r="A50" s="43" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B50" s="42" t="inlineStr">
+      <c r="B50" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C50" s="42" t="n">
+      <c r="C50" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="42" t="n">
+      <c r="D50" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="42" t="n">
+      <c r="E50" s="43" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="42" t="inlineStr">
+      <c r="A51" s="43" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B51" s="42" t="inlineStr">
+      <c r="B51" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C51" s="42" t="n">
+      <c r="C51" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="42" t="n">
+      <c r="D51" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E51" s="42" t="n">
+      <c r="E51" s="43" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="42" t="inlineStr">
+      <c r="A52" s="43" t="inlineStr">
         <is>
           <t>American_Shad</t>
         </is>
       </c>
-      <c r="B52" s="42" t="inlineStr">
+      <c r="B52" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C52" s="42" t="n">
+      <c r="C52" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="42" t="n">
+      <c r="D52" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E52" s="42" t="n">
+      <c r="E52" s="43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="42" t="inlineStr">
+      <c r="A53" s="43" t="inlineStr">
         <is>
           <t>American_Shad</t>
         </is>
       </c>
-      <c r="B53" s="42" t="inlineStr">
+      <c r="B53" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C53" s="42" t="n">
+      <c r="C53" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D53" s="42" t="n">
+      <c r="D53" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E53" s="42" t="n">
+      <c r="E53" s="43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="42" t="inlineStr">
+      <c r="A54" s="43" t="inlineStr">
         <is>
           <t>Rock_Bass</t>
         </is>
       </c>
-      <c r="B54" s="42" t="inlineStr">
+      <c r="B54" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C54" s="42" t="n">
+      <c r="C54" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D54" s="42" t="n">
+      <c r="D54" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E54" s="42" t="n">
+      <c r="E54" s="43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="42" t="inlineStr">
+      <c r="A55" s="43" t="inlineStr">
         <is>
           <t>Rock_Bass</t>
         </is>
       </c>
-      <c r="B55" s="42" t="inlineStr">
+      <c r="B55" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C55" s="42" t="n">
+      <c r="C55" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D55" s="42" t="n">
+      <c r="D55" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E55" s="42" t="n">
+      <c r="E55" s="43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="42" t="inlineStr">
+      <c r="A56" s="43" t="inlineStr">
         <is>
           <t>Bowfin</t>
         </is>
       </c>
-      <c r="B56" s="42" t="inlineStr">
+      <c r="B56" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C56" s="42" t="n">
+      <c r="C56" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D56" s="42" t="n">
+      <c r="D56" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E56" s="42" t="n">
+      <c r="E56" s="43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="42" t="inlineStr">
+      <c r="A57" s="43" t="inlineStr">
         <is>
           <t>Bowfin</t>
         </is>
       </c>
-      <c r="B57" s="42" t="inlineStr">
+      <c r="B57" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C57" s="42" t="n">
+      <c r="C57" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D57" s="42" t="n">
+      <c r="D57" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E57" s="42" t="n">
+      <c r="E57" s="43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="42" t="inlineStr">
+      <c r="A58" s="43" t="inlineStr">
         <is>
           <t>Yellow_Perch</t>
         </is>
       </c>
-      <c r="B58" s="42" t="inlineStr">
+      <c r="B58" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C58" s="42" t="n">
+      <c r="C58" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="42" t="n">
+      <c r="D58" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E58" s="42" t="n">
+      <c r="E58" s="43" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="42" t="inlineStr">
+      <c r="A59" s="43" t="inlineStr">
         <is>
           <t>Yellow_Perch</t>
         </is>
       </c>
-      <c r="B59" s="42" t="inlineStr">
+      <c r="B59" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C59" s="42" t="n">
+      <c r="C59" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="42" t="n">
+      <c r="D59" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E59" s="42" t="n">
+      <c r="E59" s="43" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="42" t="inlineStr">
+      <c r="A60" s="43" t="inlineStr">
         <is>
           <t>Yellow_Perch</t>
         </is>
       </c>
-      <c r="B60" s="42" t="inlineStr">
+      <c r="B60" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C60" s="42" t="n">
+      <c r="C60" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D60" s="42" t="n">
+      <c r="D60" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E60" s="42" t="n">
+      <c r="E60" s="43" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="42" t="inlineStr">
+      <c r="A61" s="43" t="inlineStr">
         <is>
           <t>Redfin_Pickerel</t>
         </is>
       </c>
-      <c r="B61" s="42" t="inlineStr">
+      <c r="B61" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C61" s="42" t="n">
+      <c r="C61" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D61" s="42" t="n">
+      <c r="D61" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E61" s="42" t="n">
+      <c r="E61" s="43" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="42" t="inlineStr">
+      <c r="A62" s="43" t="inlineStr">
         <is>
           <t>Redfin_Pickerel</t>
         </is>
       </c>
-      <c r="B62" s="42" t="inlineStr">
+      <c r="B62" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C62" s="42" t="n">
+      <c r="C62" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D62" s="42" t="n">
+      <c r="D62" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E62" s="42" t="n">
+      <c r="E62" s="43" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="42" t="inlineStr">
+      <c r="A63" s="43" t="inlineStr">
         <is>
           <t>Redfin_Pickerel</t>
         </is>
       </c>
-      <c r="B63" s="42" t="inlineStr">
+      <c r="B63" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C63" s="42" t="n">
+      <c r="C63" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="42" t="n">
+      <c r="D63" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="E63" s="42" t="n">
+      <c r="E63" s="43" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="42" t="inlineStr">
+      <c r="A64" s="43" t="inlineStr">
         <is>
           <t>Spotted_Bass</t>
         </is>
       </c>
-      <c r="B64" s="42" t="inlineStr">
+      <c r="B64" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C64" s="42" t="n">
+      <c r="C64" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D64" s="42" t="n">
+      <c r="D64" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E64" s="42" t="n">
+      <c r="E64" s="43" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="42" t="inlineStr">
+      <c r="A65" s="43" t="inlineStr">
         <is>
           <t>Spotted_Bass</t>
         </is>
       </c>
-      <c r="B65" s="42" t="inlineStr">
+      <c r="B65" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C65" s="42" t="n">
+      <c r="C65" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="42" t="n">
+      <c r="D65" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E65" s="42" t="n">
+      <c r="E65" s="43" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="42" t="inlineStr">
+      <c r="A66" s="43" t="inlineStr">
         <is>
           <t>Spotted_Bass</t>
         </is>
       </c>
-      <c r="B66" s="42" t="inlineStr">
+      <c r="B66" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C66" s="42" t="n">
+      <c r="C66" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="42" t="n">
+      <c r="D66" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E66" s="42" t="n">
+      <c r="E66" s="43" t="n">
         <v>181</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="42" t="inlineStr">
+      <c r="A67" s="43" t="inlineStr">
         <is>
           <t>Spotted_Bass</t>
         </is>
       </c>
-      <c r="B67" s="42" t="inlineStr">
+      <c r="B67" s="43" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C67" s="42" t="n">
+      <c r="C67" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D67" s="42" t="n">
+      <c r="D67" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="E67" s="42" t="n">
+      <c r="E67" s="43" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="42" t="inlineStr">
+      <c r="A68" s="43" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
         </is>
       </c>
-      <c r="B68" s="42" t="inlineStr">
+      <c r="B68" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C68" s="42" t="n">
+      <c r="C68" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D68" s="42" t="n">
+      <c r="D68" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E68" s="42" t="n">
+      <c r="E68" s="43" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="42" t="inlineStr">
+      <c r="A69" s="43" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
         </is>
       </c>
-      <c r="B69" s="42" t="inlineStr">
+      <c r="B69" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C69" s="42" t="n">
+      <c r="C69" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D69" s="42" t="n">
+      <c r="D69" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E69" s="42" t="n">
+      <c r="E69" s="43" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="42" t="inlineStr">
+      <c r="A70" s="43" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
         </is>
       </c>
-      <c r="B70" s="42" t="inlineStr">
+      <c r="B70" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C70" s="42" t="n">
+      <c r="C70" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D70" s="42" t="n">
+      <c r="D70" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E70" s="42" t="n">
+      <c r="E70" s="43" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="42" t="inlineStr">
+      <c r="A71" s="43" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
         </is>
       </c>
-      <c r="B71" s="42" t="inlineStr">
+      <c r="B71" s="43" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C71" s="42" t="n">
+      <c r="C71" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D71" s="42" t="n">
+      <c r="D71" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="42" t="n">
+      <c r="E71" s="43" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="42" t="inlineStr">
+      <c r="A72" s="43" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
         </is>
       </c>
-      <c r="B72" s="42" t="inlineStr">
+      <c r="B72" s="43" t="inlineStr">
         <is>
           <t>_Apex</t>
         </is>
       </c>
-      <c r="C72" s="42" t="n">
+      <c r="C72" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D72" s="42" t="n">
+      <c r="D72" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E72" s="42" t="n">
+      <c r="E72" s="43" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="42" t="inlineStr">
+      <c r="A73" s="43" t="inlineStr">
         <is>
           <t>American_Eel</t>
         </is>
       </c>
-      <c r="B73" s="42" t="inlineStr">
+      <c r="B73" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C73" s="42" t="n">
+      <c r="C73" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="42" t="n">
+      <c r="D73" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E73" s="42" t="n">
+      <c r="E73" s="43" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="42" t="inlineStr">
+      <c r="A74" s="43" t="inlineStr">
         <is>
           <t>American_Eel</t>
         </is>
       </c>
-      <c r="B74" s="42" t="inlineStr">
+      <c r="B74" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C74" s="42" t="n">
+      <c r="C74" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D74" s="42" t="n">
+      <c r="D74" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E74" s="42" t="n">
+      <c r="E74" s="43" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="42" t="inlineStr">
+      <c r="A75" s="43" t="inlineStr">
         <is>
           <t>American_Eel</t>
         </is>
       </c>
-      <c r="B75" s="42" t="inlineStr">
+      <c r="B75" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C75" s="42" t="n">
+      <c r="C75" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D75" s="42" t="n">
+      <c r="D75" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E75" s="42" t="n">
+      <c r="E75" s="43" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="42" t="inlineStr">
+      <c r="A76" s="43" t="inlineStr">
         <is>
           <t>American_Eel</t>
         </is>
       </c>
-      <c r="B76" s="42" t="inlineStr">
+      <c r="B76" s="43" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C76" s="42" t="n">
+      <c r="C76" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D76" s="42" t="n">
+      <c r="D76" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E76" s="42" t="n">
+      <c r="E76" s="43" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="42" t="inlineStr">
+      <c r="A77" s="43" t="inlineStr">
         <is>
           <t>American_Eel</t>
         </is>
       </c>
-      <c r="B77" s="42" t="inlineStr">
+      <c r="B77" s="43" t="inlineStr">
         <is>
           <t>_Apex</t>
         </is>
       </c>
-      <c r="C77" s="42" t="n">
+      <c r="C77" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D77" s="42" t="n">
+      <c r="D77" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E77" s="42" t="n">
+      <c r="E77" s="43" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="42" t="inlineStr">
+      <c r="A78" s="43" t="inlineStr">
         <is>
           <t>Walleye</t>
         </is>
       </c>
-      <c r="B78" s="42" t="inlineStr">
+      <c r="B78" s="43" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C78" s="42" t="n">
+      <c r="C78" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D78" s="42" t="n">
+      <c r="D78" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E78" s="42" t="n">
+      <c r="E78" s="43" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="42" t="inlineStr">
+      <c r="A79" s="43" t="inlineStr">
         <is>
           <t>Walleye</t>
         </is>
       </c>
-      <c r="B79" s="42" t="inlineStr">
+      <c r="B79" s="43" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C79" s="42" t="n">
+      <c r="C79" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D79" s="42" t="n">
+      <c r="D79" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E79" s="42" t="n">
+      <c r="E79" s="43" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="42" t="inlineStr">
+      <c r="A80" s="43" t="inlineStr">
         <is>
           <t>Walleye</t>
         </is>
       </c>
-      <c r="B80" s="42" t="inlineStr">
+      <c r="B80" s="43" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C80" s="42" t="n">
+      <c r="C80" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D80" s="42" t="n">
+      <c r="D80" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E80" s="42" t="n">
+      <c r="E80" s="43" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="42" t="inlineStr">
+      <c r="A81" s="43" t="inlineStr">
         <is>
           <t>Walleye</t>
         </is>
       </c>
-      <c r="B81" s="42" t="inlineStr">
+      <c r="B81" s="43" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C81" s="42" t="n">
+      <c r="C81" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D81" s="42" t="n">
+      <c r="D81" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E81" s="42" t="n">
+      <c r="E81" s="43" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="42" t="inlineStr">
+      <c r="A82" s="43" t="inlineStr">
         <is>
           <t>Walleye</t>
         </is>
       </c>
-      <c r="B82" s="42" t="inlineStr">
+      <c r="B82" s="43" t="inlineStr">
         <is>
           <t>_Apex</t>
         </is>
       </c>
-      <c r="C82" s="42" t="n">
+      <c r="C82" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D82" s="42" t="n">
+      <c r="D82" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="E82" s="42" t="n">
+      <c r="E82" s="43" t="n">
         <v>35</v>
       </c>
     </row>

--- a/intermediateTables/鱼单价工具V2.xlsx
+++ b/intermediateTables/鱼单价工具V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17205"/>
+    <workbookView windowWidth="30345" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="鱼单价工具" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +795,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9F5D6"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1135,7 +1141,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
@@ -1159,16 +1165,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="5">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="6">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="5">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8">
@@ -1177,89 +1183,89 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="39" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1335,6 +1341,9 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1347,7 +1356,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1356,7 +1365,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -2665,10 +2674,10 @@
   </sheetPr>
   <dimension ref="A1:W119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -2699,13 +2708,13 @@
       <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="31"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -2718,7 +2727,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="36"/>
+      <c r="U1" s="37"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22">
@@ -2746,13 +2755,13 @@
       <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -2782,7 +2791,7 @@
       <c r="T2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="U2" s="37" t="s">
         <v>25</v>
       </c>
       <c r="V2" s="5" t="s">
@@ -2798,9 +2807,9 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -2810,7 +2819,7 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
-      <c r="U3" s="37">
+      <c r="U3" s="38">
         <v>0.74</v>
       </c>
       <c r="V3" s="6"/>
@@ -2837,21 +2846,21 @@
       <c r="F4" s="30">
         <v>1</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="31">
         <v>18</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="31">
         <v>28</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="34">
         <f t="shared" ref="I4:I67" si="0">INT($L4*POWER(G4,$M4))</f>
         <v>47</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="34">
         <f t="shared" ref="J4:J67" si="1">INT($L4*POWER(H4,$M4))</f>
         <v>189</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="35">
         <f t="shared" ref="K4:K67" si="2">(I4+J4)/2</f>
         <v>118</v>
       </c>
@@ -2869,31 +2878,31 @@
       <c r="O4" s="30">
         <v>1100</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="36">
         <f t="shared" ref="P4:P67" si="3">INT(K4*N4/1000)</f>
         <v>70</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="39">
         <f t="array" ref="Q4">INT(SUMPRODUCT(($D$4:$D$90=$D4)*($F$4:$F$90=$F4),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D4)*($F$4:$F$90=$F4),$O$4:$O$90))</f>
         <v>198</v>
       </c>
-      <c r="R4" s="39">
+      <c r="R4" s="40">
         <f t="shared" ref="R4:R67" si="4">(Q4/B4-1)</f>
         <v>-0.01</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4" s="36">
         <f t="array" ref="S4">INT(SUMPRODUCT(($D$4:$D$90=$D4)*($F$4:$F$90=$F4),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D4)*($F$4:$F$90=$F4),$O$4:$O$90))</f>
         <v>251</v>
       </c>
-      <c r="T4" s="35">
+      <c r="T4" s="36">
         <f t="shared" ref="T4:T67" si="5">INT(I4*N4/1000)</f>
         <v>28</v>
       </c>
-      <c r="U4" s="37">
+      <c r="U4" s="38">
         <f>INT(N4*U$3)</f>
         <v>444</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4" s="36">
         <v>444</v>
       </c>
     </row>
@@ -2919,21 +2928,21 @@
       <c r="F5" s="30">
         <v>1</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="31">
         <v>28</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="31">
         <v>40</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="34">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="34">
         <f t="shared" si="1"/>
         <v>579</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="35">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
@@ -2951,31 +2960,31 @@
       <c r="O5" s="30">
         <v>1100</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="36">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="39">
         <f t="array" ref="Q5">INT(SUMPRODUCT(($D$4:$D$90=$D5)*($F$4:$F$90=$F5),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D5)*($F$4:$F$90=$F5),$O$4:$O$90))</f>
         <v>198</v>
       </c>
-      <c r="R5" s="39">
+      <c r="R5" s="40">
         <f t="shared" si="4"/>
         <v>-0.01</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5" s="36">
         <f t="array" ref="S5">INT(SUMPRODUCT(($D$4:$D$90=$D5)*($F$4:$F$90=$F5),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D5)*($F$4:$F$90=$F5),$O$4:$O$90))</f>
         <v>251</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5" s="36">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="U5" s="37">
+      <c r="U5" s="38">
         <f>INT(N5*U$3)</f>
         <v>629</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5" s="36">
         <v>629</v>
       </c>
     </row>
@@ -3001,21 +3010,21 @@
       <c r="F6" s="30">
         <v>1</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="31">
         <v>10</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="31">
         <v>16</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="34">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="35">
         <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
@@ -3033,31 +3042,31 @@
       <c r="O6" s="30">
         <v>900</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="36">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="39">
         <f t="array" ref="Q6">INT(SUMPRODUCT(($D$4:$D$90=$D6)*($F$4:$F$90=$F6),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D6)*($F$4:$F$90=$F6),$O$4:$O$90))</f>
         <v>240</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="36">
         <f t="array" ref="S6">INT(SUMPRODUCT(($D$4:$D$90=$D6)*($F$4:$F$90=$F6),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D6)*($F$4:$F$90=$F6),$O$4:$O$90))</f>
         <v>75</v>
       </c>
-      <c r="T6" s="35">
+      <c r="T6" s="36">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="38">
         <f>INT(N6*U$3)</f>
         <v>1850</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6" s="36">
         <v>1850</v>
       </c>
     </row>
@@ -3083,21 +3092,21 @@
       <c r="F7" s="30">
         <v>1</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="31">
         <v>16</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="31">
         <v>20</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="34">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="34">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="35">
         <f t="shared" si="2"/>
         <v>106.5</v>
       </c>
@@ -3115,31 +3124,31 @@
       <c r="O7" s="30">
         <v>900</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="36">
         <f t="shared" si="3"/>
         <v>372</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="39">
         <f t="array" ref="Q7">INT(SUMPRODUCT(($D$4:$D$90=$D7)*($F$4:$F$90=$F7),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D7)*($F$4:$F$90=$F7),$O$4:$O$90))</f>
         <v>240</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="36">
         <f t="array" ref="S7">INT(SUMPRODUCT(($D$4:$D$90=$D7)*($F$4:$F$90=$F7),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D7)*($F$4:$F$90=$F7),$O$4:$O$90))</f>
         <v>75</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="36">
         <f t="shared" si="5"/>
         <v>248</v>
       </c>
-      <c r="U7" s="37">
+      <c r="U7" s="38">
         <f>INT(N7*U$3)</f>
         <v>2590</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7" s="36">
         <v>2590</v>
       </c>
     </row>
@@ -3165,21 +3174,21 @@
       <c r="F8" s="30">
         <v>1</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="31">
         <v>15</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="31">
         <v>23</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="34">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="34">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="35">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
@@ -3197,31 +3206,31 @@
       <c r="O8" s="30">
         <v>600</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="36">
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="39">
         <f t="array" ref="Q8">INT(SUMPRODUCT(($D$4:$D$90=$D8)*($F$4:$F$90=$F8),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D8)*($F$4:$F$90=$F8),$O$4:$O$90))</f>
         <v>339</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="40">
         <f t="shared" si="4"/>
         <v>-0.00294117647058822</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="36">
         <f t="array" ref="S8">INT(SUMPRODUCT(($D$4:$D$90=$D8)*($F$4:$F$90=$F8),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D8)*($F$4:$F$90=$F8),$O$4:$O$90))</f>
         <v>172</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="36">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="38">
         <f>INT(N8*U$3)</f>
         <v>1110</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8" s="36">
         <v>1110</v>
       </c>
     </row>
@@ -3247,21 +3256,21 @@
       <c r="F9" s="30">
         <v>1</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="31">
         <v>23</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="31">
         <v>31</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="34">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="34">
         <f t="shared" si="1"/>
         <v>357</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="35">
         <f t="shared" si="2"/>
         <v>251.5</v>
       </c>
@@ -3279,31 +3288,31 @@
       <c r="O9" s="30">
         <v>600</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="36">
         <f t="shared" si="3"/>
         <v>540</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="39">
         <f t="array" ref="Q9">INT(SUMPRODUCT(($D$4:$D$90=$D9)*($F$4:$F$90=$F9),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D9)*($F$4:$F$90=$F9),$O$4:$O$90))</f>
         <v>339</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="40">
         <f t="shared" si="4"/>
         <v>-0.00294117647058822</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="36">
         <f t="array" ref="S9">INT(SUMPRODUCT(($D$4:$D$90=$D9)*($F$4:$F$90=$F9),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D9)*($F$4:$F$90=$F9),$O$4:$O$90))</f>
         <v>172</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="36">
         <f t="shared" si="5"/>
         <v>313</v>
       </c>
-      <c r="U9" s="37">
+      <c r="U9" s="38">
         <f>INT(N9*U$3)</f>
         <v>1591</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9" s="36">
         <v>1591</v>
       </c>
     </row>
@@ -3329,21 +3338,21 @@
       <c r="F10" s="30">
         <v>1</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="31">
         <v>20</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="31">
         <v>28</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="34">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="34">
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="35">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
@@ -3361,31 +3370,31 @@
       <c r="O10" s="30">
         <v>500</v>
       </c>
-      <c r="P10" s="35">
+      <c r="P10" s="36">
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="39">
         <f t="array" ref="Q10">INT(SUMPRODUCT(($D$4:$D$90=$D10)*($F$4:$F$90=$F10),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D10)*($F$4:$F$90=$F10),$O$4:$O$90))</f>
         <v>299</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="40">
         <f t="shared" si="4"/>
         <v>-0.0033333333333333</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S10" s="36">
         <f t="array" ref="S10">INT(SUMPRODUCT(($D$4:$D$90=$D10)*($F$4:$F$90=$F10),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D10)*($F$4:$F$90=$F10),$O$4:$O$90))</f>
         <v>316</v>
       </c>
-      <c r="T10" s="35">
+      <c r="T10" s="36">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="U10" s="37">
+      <c r="U10" s="38">
         <f>INT(N10*U$3)</f>
         <v>592</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V10" s="36">
         <v>592</v>
       </c>
     </row>
@@ -3411,21 +3420,21 @@
       <c r="F11" s="30">
         <v>1</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="31">
         <v>28</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="31">
         <v>40</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="34">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="34">
         <f t="shared" si="1"/>
         <v>692</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="35">
         <f t="shared" si="2"/>
         <v>467</v>
       </c>
@@ -3443,31 +3452,31 @@
       <c r="O11" s="30">
         <v>500</v>
       </c>
-      <c r="P11" s="35">
+      <c r="P11" s="36">
         <f t="shared" si="3"/>
         <v>467</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q11" s="39">
         <f t="array" ref="Q11">INT(SUMPRODUCT(($D$4:$D$90=$D11)*($F$4:$F$90=$F11),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D11)*($F$4:$F$90=$F11),$O$4:$O$90))</f>
         <v>299</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="40">
         <f t="shared" si="4"/>
         <v>-0.0033333333333333</v>
       </c>
-      <c r="S11" s="35">
+      <c r="S11" s="36">
         <f t="array" ref="S11">INT(SUMPRODUCT(($D$4:$D$90=$D11)*($F$4:$F$90=$F11),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D11)*($F$4:$F$90=$F11),$O$4:$O$90))</f>
         <v>316</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11" s="36">
         <f t="shared" si="5"/>
         <v>242</v>
       </c>
-      <c r="U11" s="37">
+      <c r="U11" s="38">
         <f>INT(N11*U$3)</f>
         <v>740</v>
       </c>
-      <c r="V11" s="35">
+      <c r="V11" s="36">
         <v>740</v>
       </c>
     </row>
@@ -3493,21 +3502,21 @@
       <c r="F12" s="30">
         <v>1</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="31">
         <v>15</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="31">
         <v>22</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="34">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="34">
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="35">
         <f t="shared" si="2"/>
         <v>115.5</v>
       </c>
@@ -3525,31 +3534,31 @@
       <c r="O12" s="30">
         <v>400</v>
       </c>
-      <c r="P12" s="35">
+      <c r="P12" s="36">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="39">
         <f t="array" ref="Q12">INT(SUMPRODUCT(($D$4:$D$90=$D12)*($F$4:$F$90=$F12),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D12)*($F$4:$F$90=$F12),$O$4:$O$90))</f>
         <v>415</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="40">
         <f t="shared" si="4"/>
         <v>0.0375000000000001</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12" s="36">
         <f t="array" ref="S12">INT(SUMPRODUCT(($D$4:$D$90=$D12)*($F$4:$F$90=$F12),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D12)*($F$4:$F$90=$F12),$O$4:$O$90))</f>
         <v>401</v>
       </c>
-      <c r="T12" s="35">
+      <c r="T12" s="36">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="U12" s="37">
+      <c r="U12" s="38">
         <f>INT(N12*U$3)</f>
         <v>518</v>
       </c>
-      <c r="V12" s="35">
+      <c r="V12" s="36">
         <v>518</v>
       </c>
     </row>
@@ -3575,21 +3584,21 @@
       <c r="F13" s="30">
         <v>1</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="31">
         <v>22</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="31">
         <v>33</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="34">
         <f t="shared" si="1"/>
         <v>641</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="35">
         <f t="shared" si="2"/>
         <v>409.5</v>
       </c>
@@ -3607,31 +3616,31 @@
       <c r="O13" s="30">
         <v>400</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13" s="36">
         <f t="shared" si="3"/>
         <v>376</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="39">
         <f t="array" ref="Q13">INT(SUMPRODUCT(($D$4:$D$90=$D13)*($F$4:$F$90=$F13),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D13)*($F$4:$F$90=$F13),$O$4:$O$90))</f>
         <v>415</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="40">
         <f t="shared" si="4"/>
         <v>0.0375000000000001</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13" s="36">
         <f t="array" ref="S13">INT(SUMPRODUCT(($D$4:$D$90=$D13)*($F$4:$F$90=$F13),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D13)*($F$4:$F$90=$F13),$O$4:$O$90))</f>
         <v>401</v>
       </c>
-      <c r="T13" s="35">
+      <c r="T13" s="36">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
-      <c r="U13" s="37">
+      <c r="U13" s="38">
         <f>INT(N13*U$3)</f>
         <v>680</v>
       </c>
-      <c r="V13" s="35">
+      <c r="V13" s="36">
         <v>680</v>
       </c>
     </row>
@@ -3657,21 +3666,21 @@
       <c r="F14" s="30">
         <v>1</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="31">
         <v>33</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="31">
         <v>41</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="34">
         <f t="shared" si="0"/>
         <v>641</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="34">
         <f t="shared" si="1"/>
         <v>1273</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="35">
         <f t="shared" si="2"/>
         <v>957</v>
       </c>
@@ -3689,31 +3698,31 @@
       <c r="O14" s="30">
         <v>200</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P14" s="36">
         <f t="shared" si="3"/>
         <v>1167</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="39">
         <f t="array" ref="Q14">INT(SUMPRODUCT(($D$4:$D$90=$D14)*($F$4:$F$90=$F14),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D14)*($F$4:$F$90=$F14),$O$4:$O$90))</f>
         <v>415</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="40">
         <f t="shared" si="4"/>
         <v>0.0375000000000001</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14" s="36">
         <f t="array" ref="S14">INT(SUMPRODUCT(($D$4:$D$90=$D14)*($F$4:$F$90=$F14),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D14)*($F$4:$F$90=$F14),$O$4:$O$90))</f>
         <v>401</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="36">
         <f t="shared" si="5"/>
         <v>782</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="38">
         <f>INT(N14*U$3)</f>
         <v>902</v>
       </c>
-      <c r="V14" s="35">
+      <c r="V14" s="36">
         <v>902</v>
       </c>
     </row>
@@ -3739,21 +3748,21 @@
       <c r="F15" s="30">
         <v>1</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="31">
         <v>14</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="31">
         <v>25</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="34">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="34">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="35">
         <f t="shared" si="2"/>
         <v>160.5</v>
       </c>
@@ -3771,31 +3780,31 @@
       <c r="O15" s="30">
         <v>400</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="36">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="39">
         <f t="array" ref="Q15">INT(SUMPRODUCT(($D$4:$D$90=$D15)*($F$4:$F$90=$F15),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D15)*($F$4:$F$90=$F15),$O$4:$O$90))</f>
         <v>432</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="40">
         <f t="shared" si="4"/>
         <v>-0.0608695652173913</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15" s="36">
         <f t="array" ref="S15">INT(SUMPRODUCT(($D$4:$D$90=$D15)*($F$4:$F$90=$F15),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D15)*($F$4:$F$90=$F15),$O$4:$O$90))</f>
         <v>633</v>
       </c>
-      <c r="T15" s="35">
+      <c r="T15" s="36">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="U15" s="37">
+      <c r="U15" s="38">
         <f>INT(N15*U$3)</f>
         <v>148</v>
       </c>
-      <c r="V15" s="35">
+      <c r="V15" s="36">
         <v>148</v>
       </c>
     </row>
@@ -3821,21 +3830,21 @@
       <c r="F16" s="30">
         <v>1</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="31">
         <v>25</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="31">
         <v>38</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="34">
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="34">
         <f t="shared" si="1"/>
         <v>1015</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="35">
         <f t="shared" si="2"/>
         <v>645.5</v>
       </c>
@@ -3853,31 +3862,31 @@
       <c r="O16" s="30">
         <v>400</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="36">
         <f t="shared" si="3"/>
         <v>387</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="39">
         <f t="array" ref="Q16">INT(SUMPRODUCT(($D$4:$D$90=$D16)*($F$4:$F$90=$F16),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D16)*($F$4:$F$90=$F16),$O$4:$O$90))</f>
         <v>432</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="40">
         <f t="shared" si="4"/>
         <v>-0.0608695652173913</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16" s="36">
         <f t="array" ref="S16">INT(SUMPRODUCT(($D$4:$D$90=$D16)*($F$4:$F$90=$F16),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D16)*($F$4:$F$90=$F16),$O$4:$O$90))</f>
         <v>633</v>
       </c>
-      <c r="T16" s="35">
+      <c r="T16" s="36">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="U16" s="37">
+      <c r="U16" s="38">
         <f>INT(N16*U$3)</f>
         <v>444</v>
       </c>
-      <c r="V16" s="35">
+      <c r="V16" s="36">
         <v>444</v>
       </c>
     </row>
@@ -3903,21 +3912,21 @@
       <c r="F17" s="30">
         <v>1</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="31">
         <v>38</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="31">
         <v>48</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <f t="shared" si="0"/>
         <v>1015</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="34">
         <f t="shared" si="1"/>
         <v>2099</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="35">
         <f t="shared" si="2"/>
         <v>1557</v>
       </c>
@@ -3935,31 +3944,31 @@
       <c r="O17" s="30">
         <v>200</v>
       </c>
-      <c r="P17" s="35">
+      <c r="P17" s="36">
         <f t="shared" si="3"/>
         <v>1323</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="39">
         <f t="array" ref="Q17">INT(SUMPRODUCT(($D$4:$D$90=$D17)*($F$4:$F$90=$F17),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D17)*($F$4:$F$90=$F17),$O$4:$O$90))</f>
         <v>432</v>
       </c>
-      <c r="R17" s="39">
+      <c r="R17" s="40">
         <f t="shared" si="4"/>
         <v>-0.0608695652173913</v>
       </c>
-      <c r="S17" s="35">
+      <c r="S17" s="36">
         <f t="array" ref="S17">INT(SUMPRODUCT(($D$4:$D$90=$D17)*($F$4:$F$90=$F17),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D17)*($F$4:$F$90=$F17),$O$4:$O$90))</f>
         <v>633</v>
       </c>
-      <c r="T17" s="35">
+      <c r="T17" s="36">
         <f t="shared" si="5"/>
         <v>862</v>
       </c>
-      <c r="U17" s="37">
+      <c r="U17" s="38">
         <f>INT(N17*U$3)</f>
         <v>629</v>
       </c>
-      <c r="V17" s="35">
+      <c r="V17" s="36">
         <v>629</v>
       </c>
     </row>
@@ -3985,21 +3994,21 @@
       <c r="F18" s="30">
         <v>1</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="31">
         <v>16</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="31">
         <v>26</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="34">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="35">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
@@ -4017,31 +4026,31 @@
       <c r="O18" s="30">
         <v>363</v>
       </c>
-      <c r="P18" s="35">
+      <c r="P18" s="36">
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="39">
         <f t="array" ref="Q18">INT(SUMPRODUCT(($D$4:$D$90=$D18)*($F$4:$F$90=$F18),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D18)*($F$4:$F$90=$F18),$O$4:$O$90))</f>
         <v>846</v>
       </c>
-      <c r="R18" s="39">
+      <c r="R18" s="40">
         <f t="shared" si="4"/>
         <v>0.0575000000000001</v>
       </c>
-      <c r="S18" s="35">
+      <c r="S18" s="36">
         <f t="array" ref="S18">INT(SUMPRODUCT(($D$4:$D$90=$D18)*($F$4:$F$90=$F18),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D18)*($F$4:$F$90=$F18),$O$4:$O$90))</f>
         <v>356</v>
       </c>
-      <c r="T18" s="35">
+      <c r="T18" s="36">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="U18" s="37">
+      <c r="U18" s="38">
         <f>INT(N18*U$3)</f>
         <v>1332</v>
       </c>
-      <c r="V18" s="35">
+      <c r="V18" s="36">
         <v>1332</v>
       </c>
     </row>
@@ -4067,21 +4076,21 @@
       <c r="F19" s="30">
         <v>1</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="31">
         <v>26</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="31">
         <v>40</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="34">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="34">
         <f t="shared" si="1"/>
         <v>468</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="35">
         <f t="shared" si="2"/>
         <v>295.5</v>
       </c>
@@ -4099,31 +4108,31 @@
       <c r="O19" s="30">
         <v>363</v>
       </c>
-      <c r="P19" s="35">
+      <c r="P19" s="36">
         <f t="shared" si="3"/>
         <v>650</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="39">
         <f t="array" ref="Q19">INT(SUMPRODUCT(($D$4:$D$90=$D19)*($F$4:$F$90=$F19),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D19)*($F$4:$F$90=$F19),$O$4:$O$90))</f>
         <v>846</v>
       </c>
-      <c r="R19" s="39">
+      <c r="R19" s="40">
         <f t="shared" si="4"/>
         <v>0.0575000000000001</v>
       </c>
-      <c r="S19" s="35">
+      <c r="S19" s="36">
         <f t="array" ref="S19">INT(SUMPRODUCT(($D$4:$D$90=$D19)*($F$4:$F$90=$F19),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D19)*($F$4:$F$90=$F19),$O$4:$O$90))</f>
         <v>356</v>
       </c>
-      <c r="T19" s="35">
+      <c r="T19" s="36">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="U19" s="37">
+      <c r="U19" s="38">
         <f>INT(N19*U$3)</f>
         <v>1628</v>
       </c>
-      <c r="V19" s="35">
+      <c r="V19" s="36">
         <v>1628</v>
       </c>
     </row>
@@ -4149,21 +4158,21 @@
       <c r="F20" s="30">
         <v>1</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="31">
         <v>40</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="31">
         <v>49</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="34">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="34">
         <f t="shared" si="1"/>
         <v>876</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="35">
         <f t="shared" si="2"/>
         <v>672</v>
       </c>
@@ -4181,31 +4190,31 @@
       <c r="O20" s="30">
         <v>181</v>
       </c>
-      <c r="P20" s="35">
+      <c r="P20" s="36">
         <f t="shared" si="3"/>
         <v>1612</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="39">
         <f t="array" ref="Q20">INT(SUMPRODUCT(($D$4:$D$90=$D20)*($F$4:$F$90=$F20),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D20)*($F$4:$F$90=$F20),$O$4:$O$90))</f>
         <v>846</v>
       </c>
-      <c r="R20" s="39">
+      <c r="R20" s="40">
         <f t="shared" si="4"/>
         <v>0.0575000000000001</v>
       </c>
-      <c r="S20" s="35">
+      <c r="S20" s="36">
         <f t="array" ref="S20">INT(SUMPRODUCT(($D$4:$D$90=$D20)*($F$4:$F$90=$F20),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D20)*($F$4:$F$90=$F20),$O$4:$O$90))</f>
         <v>356</v>
       </c>
-      <c r="T20" s="35">
+      <c r="T20" s="36">
         <f t="shared" si="5"/>
         <v>1123</v>
       </c>
-      <c r="U20" s="37">
+      <c r="U20" s="38">
         <f>INT(N20*U$3)</f>
         <v>1776</v>
       </c>
-      <c r="V20" s="35">
+      <c r="V20" s="36">
         <v>1776</v>
       </c>
     </row>
@@ -4231,21 +4240,21 @@
       <c r="F21" s="30">
         <v>1</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="31">
         <v>49</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="31">
         <v>56</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="34">
         <f t="shared" si="0"/>
         <v>876</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="34">
         <f t="shared" si="1"/>
         <v>1324</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="35">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
@@ -4263,31 +4272,31 @@
       <c r="O21" s="30">
         <v>90</v>
       </c>
-      <c r="P21" s="35">
+      <c r="P21" s="36">
         <f t="shared" si="3"/>
         <v>2970</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21" s="39">
         <f t="array" ref="Q21">INT(SUMPRODUCT(($D$4:$D$90=$D21)*($F$4:$F$90=$F21),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D21)*($F$4:$F$90=$F21),$O$4:$O$90))</f>
         <v>846</v>
       </c>
-      <c r="R21" s="39">
+      <c r="R21" s="40">
         <f t="shared" si="4"/>
         <v>0.0575000000000001</v>
       </c>
-      <c r="S21" s="35">
+      <c r="S21" s="36">
         <f t="array" ref="S21">INT(SUMPRODUCT(($D$4:$D$90=$D21)*($F$4:$F$90=$F21),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D21)*($F$4:$F$90=$F21),$O$4:$O$90))</f>
         <v>356</v>
       </c>
-      <c r="T21" s="35">
+      <c r="T21" s="36">
         <f t="shared" si="5"/>
         <v>2365</v>
       </c>
-      <c r="U21" s="37">
+      <c r="U21" s="38">
         <f>INT(N21*U$3)</f>
         <v>1998</v>
       </c>
-      <c r="V21" s="35">
+      <c r="V21" s="36">
         <v>1998</v>
       </c>
     </row>
@@ -4313,21 +4322,21 @@
       <c r="F22" s="30">
         <v>1</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="31">
         <v>20</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="31">
         <v>53</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="34">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="34">
         <f t="shared" si="1"/>
         <v>2324</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="35">
         <f t="shared" si="2"/>
         <v>1221</v>
       </c>
@@ -4345,31 +4354,31 @@
       <c r="O22" s="30">
         <v>363</v>
       </c>
-      <c r="P22" s="35">
+      <c r="P22" s="36">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="39">
         <f t="array" ref="Q22">INT(SUMPRODUCT(($D$4:$D$90=$D22)*($F$4:$F$90=$F22),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D22)*($F$4:$F$90=$F22),$O$4:$O$90))</f>
         <v>853</v>
       </c>
-      <c r="R22" s="39">
+      <c r="R22" s="40">
         <f t="shared" si="4"/>
         <v>0.0662499999999999</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="36">
         <f t="array" ref="S22">INT(SUMPRODUCT(($D$4:$D$90=$D22)*($F$4:$F$90=$F22),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D22)*($F$4:$F$90=$F22),$O$4:$O$90))</f>
         <v>6425</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22" s="36">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="U22" s="37">
+      <c r="U22" s="38">
         <f>INT(N22*U$3)</f>
         <v>66</v>
       </c>
-      <c r="V22" s="35">
+      <c r="V22" s="36">
         <v>66</v>
       </c>
       <c r="W22" t="s">
@@ -4398,21 +4407,21 @@
       <c r="F23" s="30">
         <v>1</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="31">
         <v>53</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="31">
         <v>81</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="34">
         <f t="shared" si="0"/>
         <v>2324</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="34">
         <f t="shared" si="1"/>
         <v>8474</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="35">
         <f t="shared" si="2"/>
         <v>5399</v>
       </c>
@@ -4430,31 +4439,31 @@
       <c r="O23" s="30">
         <v>363</v>
       </c>
-      <c r="P23" s="35">
+      <c r="P23" s="36">
         <f t="shared" si="3"/>
         <v>593</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="Q23" s="39">
         <f t="array" ref="Q23">INT(SUMPRODUCT(($D$4:$D$90=$D23)*($F$4:$F$90=$F23),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D23)*($F$4:$F$90=$F23),$O$4:$O$90))</f>
         <v>853</v>
       </c>
-      <c r="R23" s="39">
+      <c r="R23" s="40">
         <f t="shared" si="4"/>
         <v>0.0662499999999999</v>
       </c>
-      <c r="S23" s="35">
+      <c r="S23" s="36">
         <f t="array" ref="S23">INT(SUMPRODUCT(($D$4:$D$90=$D23)*($F$4:$F$90=$F23),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D23)*($F$4:$F$90=$F23),$O$4:$O$90))</f>
         <v>6425</v>
       </c>
-      <c r="T23" s="35">
+      <c r="T23" s="36">
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
-      <c r="U23" s="37">
+      <c r="U23" s="38">
         <f>INT(N23*U$3)</f>
         <v>81</v>
       </c>
-      <c r="V23" s="35">
+      <c r="V23" s="36">
         <v>81</v>
       </c>
     </row>
@@ -4480,21 +4489,21 @@
       <c r="F24" s="30">
         <v>1</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="31">
         <v>81</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="31">
         <v>100</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="34">
         <f t="shared" si="0"/>
         <v>8474</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="34">
         <f t="shared" si="1"/>
         <v>16114</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="35">
         <f t="shared" si="2"/>
         <v>12294</v>
       </c>
@@ -4512,31 +4521,31 @@
       <c r="O24" s="30">
         <v>181</v>
       </c>
-      <c r="P24" s="35">
+      <c r="P24" s="36">
         <f t="shared" si="3"/>
         <v>1721</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="39">
         <f t="array" ref="Q24">INT(SUMPRODUCT(($D$4:$D$90=$D24)*($F$4:$F$90=$F24),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D24)*($F$4:$F$90=$F24),$O$4:$O$90))</f>
         <v>853</v>
       </c>
-      <c r="R24" s="39">
+      <c r="R24" s="40">
         <f t="shared" si="4"/>
         <v>0.0662499999999999</v>
       </c>
-      <c r="S24" s="35">
+      <c r="S24" s="36">
         <f t="array" ref="S24">INT(SUMPRODUCT(($D$4:$D$90=$D24)*($F$4:$F$90=$F24),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D24)*($F$4:$F$90=$F24),$O$4:$O$90))</f>
         <v>6425</v>
       </c>
-      <c r="T24" s="35">
+      <c r="T24" s="36">
         <f t="shared" si="5"/>
         <v>1186</v>
       </c>
-      <c r="U24" s="37">
+      <c r="U24" s="38">
         <f>INT(N24*U$3)</f>
         <v>103</v>
       </c>
-      <c r="V24" s="35">
+      <c r="V24" s="36">
         <v>103</v>
       </c>
     </row>
@@ -4562,21 +4571,21 @@
       <c r="F25" s="30">
         <v>1</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="31">
         <v>100</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="31">
         <v>113</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="34">
         <f t="shared" si="0"/>
         <v>16114</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="34">
         <f t="shared" si="1"/>
         <v>23393</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="35">
         <f t="shared" si="2"/>
         <v>19753.5</v>
       </c>
@@ -4594,31 +4603,31 @@
       <c r="O25" s="30">
         <v>90</v>
       </c>
-      <c r="P25" s="35">
+      <c r="P25" s="36">
         <f t="shared" si="3"/>
         <v>3160</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="Q25" s="39">
         <f t="array" ref="Q25">INT(SUMPRODUCT(($D$4:$D$90=$D25)*($F$4:$F$90=$F25),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D25)*($F$4:$F$90=$F25),$O$4:$O$90))</f>
         <v>853</v>
       </c>
-      <c r="R25" s="39">
+      <c r="R25" s="40">
         <f t="shared" si="4"/>
         <v>0.0662499999999999</v>
       </c>
-      <c r="S25" s="35">
+      <c r="S25" s="36">
         <f t="array" ref="S25">INT(SUMPRODUCT(($D$4:$D$90=$D25)*($F$4:$F$90=$F25),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D25)*($F$4:$F$90=$F25),$O$4:$O$90))</f>
         <v>6425</v>
       </c>
-      <c r="T25" s="35">
+      <c r="T25" s="36">
         <f t="shared" si="5"/>
         <v>2578</v>
       </c>
-      <c r="U25" s="37">
+      <c r="U25" s="38">
         <f>INT(N25*U$3)</f>
         <v>118</v>
       </c>
-      <c r="V25" s="35">
+      <c r="V25" s="36">
         <v>118</v>
       </c>
     </row>
@@ -4644,21 +4653,21 @@
       <c r="F26" s="30">
         <v>1</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="31">
         <v>25</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="31">
         <v>61</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="34">
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="34">
         <f t="shared" si="1"/>
         <v>3677</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="35">
         <f t="shared" si="2"/>
         <v>1965</v>
       </c>
@@ -4676,31 +4685,31 @@
       <c r="O26" s="30">
         <v>363</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P26" s="36">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="39">
         <f t="array" ref="Q26">INT(SUMPRODUCT(($D$4:$D$90=$D26)*($F$4:$F$90=$F26),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D26)*($F$4:$F$90=$F26),$O$4:$O$90))</f>
         <v>1058</v>
       </c>
-      <c r="R26" s="39">
+      <c r="R26" s="40">
         <f t="shared" si="4"/>
         <v>0.0580000000000001</v>
       </c>
-      <c r="S26" s="35">
+      <c r="S26" s="36">
         <f t="array" ref="S26">INT(SUMPRODUCT(($D$4:$D$90=$D26)*($F$4:$F$90=$F26),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D26)*($F$4:$F$90=$F26),$O$4:$O$90))</f>
         <v>9417</v>
       </c>
-      <c r="T26" s="35">
+      <c r="T26" s="36">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="U26" s="37">
+      <c r="U26" s="38">
         <f>INT(N26*U$3)</f>
         <v>37</v>
       </c>
-      <c r="V26" s="35">
+      <c r="V26" s="36">
         <v>37</v>
       </c>
     </row>
@@ -4726,21 +4735,21 @@
       <c r="F27" s="30">
         <v>1</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="31">
         <v>61</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="31">
         <v>92</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="34">
         <f t="shared" si="0"/>
         <v>3677</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="34">
         <f t="shared" si="1"/>
         <v>12614</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="35">
         <f t="shared" si="2"/>
         <v>8145.5</v>
       </c>
@@ -4758,31 +4767,31 @@
       <c r="O27" s="30">
         <v>363</v>
       </c>
-      <c r="P27" s="35">
+      <c r="P27" s="36">
         <f t="shared" si="3"/>
         <v>814</v>
       </c>
-      <c r="Q27" s="38">
+      <c r="Q27" s="39">
         <f t="array" ref="Q27">INT(SUMPRODUCT(($D$4:$D$90=$D27)*($F$4:$F$90=$F27),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D27)*($F$4:$F$90=$F27),$O$4:$O$90))</f>
         <v>1058</v>
       </c>
-      <c r="R27" s="39">
+      <c r="R27" s="40">
         <f t="shared" si="4"/>
         <v>0.0580000000000001</v>
       </c>
-      <c r="S27" s="35">
+      <c r="S27" s="36">
         <f t="array" ref="S27">INT(SUMPRODUCT(($D$4:$D$90=$D27)*($F$4:$F$90=$F27),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D27)*($F$4:$F$90=$F27),$O$4:$O$90))</f>
         <v>9417</v>
       </c>
-      <c r="T27" s="35">
+      <c r="T27" s="36">
         <f t="shared" si="5"/>
         <v>367</v>
       </c>
-      <c r="U27" s="37">
+      <c r="U27" s="38">
         <f>INT(N27*U$3)</f>
         <v>74</v>
       </c>
-      <c r="V27" s="35">
+      <c r="V27" s="36">
         <v>74</v>
       </c>
     </row>
@@ -4808,21 +4817,21 @@
       <c r="F28" s="30">
         <v>1</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="31">
         <v>92</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="31">
         <v>112</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="34">
         <f t="shared" si="0"/>
         <v>12614</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="34">
         <f t="shared" si="1"/>
         <v>22759</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="35">
         <f t="shared" si="2"/>
         <v>17686.5</v>
       </c>
@@ -4840,31 +4849,31 @@
       <c r="O28" s="30">
         <v>181</v>
       </c>
-      <c r="P28" s="35">
+      <c r="P28" s="36">
         <f t="shared" si="3"/>
         <v>2122</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="39">
         <f t="array" ref="Q28">INT(SUMPRODUCT(($D$4:$D$90=$D28)*($F$4:$F$90=$F28),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D28)*($F$4:$F$90=$F28),$O$4:$O$90))</f>
         <v>1058</v>
       </c>
-      <c r="R28" s="39">
+      <c r="R28" s="40">
         <f t="shared" si="4"/>
         <v>0.0580000000000001</v>
       </c>
-      <c r="S28" s="35">
+      <c r="S28" s="36">
         <f t="array" ref="S28">INT(SUMPRODUCT(($D$4:$D$90=$D28)*($F$4:$F$90=$F28),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D28)*($F$4:$F$90=$F28),$O$4:$O$90))</f>
         <v>9417</v>
       </c>
-      <c r="T28" s="35">
+      <c r="T28" s="36">
         <f t="shared" si="5"/>
         <v>1513</v>
       </c>
-      <c r="U28" s="37">
+      <c r="U28" s="38">
         <f>INT(N28*U$3)</f>
         <v>88</v>
       </c>
-      <c r="V28" s="35">
+      <c r="V28" s="36">
         <v>88</v>
       </c>
     </row>
@@ -4890,21 +4899,21 @@
       <c r="F29" s="30">
         <v>1</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="31">
         <v>112</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="31">
         <v>127</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="34">
         <f t="shared" si="0"/>
         <v>22759</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="34">
         <f t="shared" si="1"/>
         <v>33183</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="35">
         <f t="shared" si="2"/>
         <v>27971</v>
       </c>
@@ -4922,31 +4931,31 @@
       <c r="O29" s="30">
         <v>90</v>
       </c>
-      <c r="P29" s="35">
+      <c r="P29" s="36">
         <f t="shared" si="3"/>
         <v>3776</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29" s="39">
         <f t="array" ref="Q29">INT(SUMPRODUCT(($D$4:$D$90=$D29)*($F$4:$F$90=$F29),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D29)*($F$4:$F$90=$F29),$O$4:$O$90))</f>
         <v>1058</v>
       </c>
-      <c r="R29" s="39">
+      <c r="R29" s="40">
         <f t="shared" si="4"/>
         <v>0.0580000000000001</v>
       </c>
-      <c r="S29" s="35">
+      <c r="S29" s="36">
         <f t="array" ref="S29">INT(SUMPRODUCT(($D$4:$D$90=$D29)*($F$4:$F$90=$F29),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D29)*($F$4:$F$90=$F29),$O$4:$O$90))</f>
         <v>9417</v>
       </c>
-      <c r="T29" s="35">
+      <c r="T29" s="36">
         <f t="shared" si="5"/>
         <v>3072</v>
       </c>
-      <c r="U29" s="37">
+      <c r="U29" s="38">
         <f>INT(N29*U$3)</f>
         <v>99</v>
       </c>
-      <c r="V29" s="35">
+      <c r="V29" s="36">
         <v>99</v>
       </c>
     </row>
@@ -4972,21 +4981,21 @@
       <c r="F30" s="30">
         <v>1</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="31">
         <v>18</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="31">
         <v>28</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="34">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="34">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="35">
         <f t="shared" si="2"/>
         <v>170.5</v>
       </c>
@@ -5004,31 +5013,31 @@
       <c r="O30" s="30">
         <v>350</v>
       </c>
-      <c r="P30" s="35">
+      <c r="P30" s="36">
         <f t="shared" si="3"/>
         <v>272</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="39">
         <f t="array" ref="Q30">INT(SUMPRODUCT(($D$4:$D$90=$D30)*($F$4:$F$90=$F30),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D30)*($F$4:$F$90=$F30),$O$4:$O$90))</f>
         <v>1642</v>
       </c>
-      <c r="R30" s="39">
+      <c r="R30" s="40">
         <f t="shared" si="4"/>
         <v>0.0262500000000001</v>
       </c>
-      <c r="S30" s="35">
+      <c r="S30" s="36">
         <f t="array" ref="S30">INT(SUMPRODUCT(($D$4:$D$90=$D30)*($F$4:$F$90=$F30),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D30)*($F$4:$F$90=$F30),$O$4:$O$90))</f>
         <v>904</v>
       </c>
-      <c r="T30" s="35">
+      <c r="T30" s="36">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="U30" s="37">
+      <c r="U30" s="38">
         <f>INT(N30*U$3)</f>
         <v>1184</v>
       </c>
-      <c r="V30" s="35">
+      <c r="V30" s="36">
         <v>1184</v>
       </c>
       <c r="W30" t="s">
@@ -5057,21 +5066,21 @@
       <c r="F31" s="30">
         <v>1</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="31">
         <v>28</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="31">
         <v>43</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="34">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="34">
         <f t="shared" si="1"/>
         <v>977</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="35">
         <f t="shared" si="2"/>
         <v>623.5</v>
       </c>
@@ -5089,31 +5098,31 @@
       <c r="O31" s="30">
         <v>350</v>
       </c>
-      <c r="P31" s="35">
+      <c r="P31" s="36">
         <f t="shared" si="3"/>
         <v>1059</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31" s="39">
         <f t="array" ref="Q31">INT(SUMPRODUCT(($D$4:$D$90=$D31)*($F$4:$F$90=$F31),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D31)*($F$4:$F$90=$F31),$O$4:$O$90))</f>
         <v>1642</v>
       </c>
-      <c r="R31" s="39">
+      <c r="R31" s="40">
         <f t="shared" si="4"/>
         <v>0.0262500000000001</v>
       </c>
-      <c r="S31" s="35">
+      <c r="S31" s="36">
         <f t="array" ref="S31">INT(SUMPRODUCT(($D$4:$D$90=$D31)*($F$4:$F$90=$F31),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D31)*($F$4:$F$90=$F31),$O$4:$O$90))</f>
         <v>904</v>
       </c>
-      <c r="T31" s="35">
+      <c r="T31" s="36">
         <f t="shared" si="5"/>
         <v>459</v>
       </c>
-      <c r="U31" s="37">
+      <c r="U31" s="38">
         <f>INT(N31*U$3)</f>
         <v>1258</v>
       </c>
-      <c r="V31" s="35">
+      <c r="V31" s="36">
         <v>1258</v>
       </c>
     </row>
@@ -5139,21 +5148,21 @@
       <c r="F32" s="30">
         <v>1</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="31">
         <v>43</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="31">
         <v>55</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="34">
         <f t="shared" si="0"/>
         <v>977</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="34">
         <f t="shared" si="1"/>
         <v>2046</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="35">
         <f t="shared" si="2"/>
         <v>1511.5</v>
       </c>
@@ -5171,31 +5180,31 @@
       <c r="O32" s="30">
         <v>175</v>
       </c>
-      <c r="P32" s="35">
+      <c r="P32" s="36">
         <f t="shared" si="3"/>
         <v>2720</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="Q32" s="39">
         <f t="array" ref="Q32">INT(SUMPRODUCT(($D$4:$D$90=$D32)*($F$4:$F$90=$F32),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D32)*($F$4:$F$90=$F32),$O$4:$O$90))</f>
         <v>1642</v>
       </c>
-      <c r="R32" s="39">
+      <c r="R32" s="40">
         <f t="shared" si="4"/>
         <v>0.0262500000000001</v>
       </c>
-      <c r="S32" s="35">
+      <c r="S32" s="36">
         <f t="array" ref="S32">INT(SUMPRODUCT(($D$4:$D$90=$D32)*($F$4:$F$90=$F32),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D32)*($F$4:$F$90=$F32),$O$4:$O$90))</f>
         <v>904</v>
       </c>
-      <c r="T32" s="35">
+      <c r="T32" s="36">
         <f t="shared" si="5"/>
         <v>1758</v>
       </c>
-      <c r="U32" s="37">
+      <c r="U32" s="38">
         <f>INT(N32*U$3)</f>
         <v>1332</v>
       </c>
-      <c r="V32" s="35">
+      <c r="V32" s="36">
         <v>1332</v>
       </c>
     </row>
@@ -5221,21 +5230,21 @@
       <c r="F33" s="30">
         <v>1</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="31">
         <v>55</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="31">
         <v>64</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="34">
         <f t="shared" si="0"/>
         <v>2046</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="34">
         <f t="shared" si="1"/>
         <v>3224</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="35">
         <f t="shared" si="2"/>
         <v>2635</v>
       </c>
@@ -5253,31 +5262,31 @@
       <c r="O33" s="30">
         <v>87</v>
       </c>
-      <c r="P33" s="35">
+      <c r="P33" s="36">
         <f t="shared" si="3"/>
         <v>5006</v>
       </c>
-      <c r="Q33" s="38">
+      <c r="Q33" s="39">
         <f t="array" ref="Q33">INT(SUMPRODUCT(($D$4:$D$90=$D33)*($F$4:$F$90=$F33),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D33)*($F$4:$F$90=$F33),$O$4:$O$90))</f>
         <v>1642</v>
       </c>
-      <c r="R33" s="39">
+      <c r="R33" s="40">
         <f t="shared" si="4"/>
         <v>0.0262500000000001</v>
       </c>
-      <c r="S33" s="35">
+      <c r="S33" s="36">
         <f t="array" ref="S33">INT(SUMPRODUCT(($D$4:$D$90=$D33)*($F$4:$F$90=$F33),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D33)*($F$4:$F$90=$F33),$O$4:$O$90))</f>
         <v>904</v>
       </c>
-      <c r="T33" s="35">
+      <c r="T33" s="36">
         <f t="shared" si="5"/>
         <v>3887</v>
       </c>
-      <c r="U33" s="37">
+      <c r="U33" s="38">
         <f>INT(N33*U$3)</f>
         <v>1406</v>
       </c>
-      <c r="V33" s="35">
+      <c r="V33" s="36">
         <v>1406</v>
       </c>
     </row>
@@ -5303,21 +5312,21 @@
       <c r="F34" s="30">
         <v>1</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="31">
         <v>64</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="31">
         <v>70</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="34">
         <f t="shared" si="0"/>
         <v>3224</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="34">
         <f t="shared" si="1"/>
         <v>4218</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="35">
         <f t="shared" si="2"/>
         <v>3721</v>
       </c>
@@ -5335,31 +5344,31 @@
       <c r="O34" s="30">
         <v>35</v>
       </c>
-      <c r="P34" s="35">
+      <c r="P34" s="36">
         <f t="shared" si="3"/>
         <v>7442</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="Q34" s="39">
         <f t="array" ref="Q34">INT(SUMPRODUCT(($D$4:$D$90=$D34)*($F$4:$F$90=$F34),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D34)*($F$4:$F$90=$F34),$O$4:$O$90))</f>
         <v>1642</v>
       </c>
-      <c r="R34" s="39">
+      <c r="R34" s="40">
         <f t="shared" si="4"/>
         <v>0.0262500000000001</v>
       </c>
-      <c r="S34" s="35">
+      <c r="S34" s="36">
         <f t="array" ref="S34">INT(SUMPRODUCT(($D$4:$D$90=$D34)*($F$4:$F$90=$F34),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D34)*($F$4:$F$90=$F34),$O$4:$O$90))</f>
         <v>904</v>
       </c>
-      <c r="T34" s="35">
+      <c r="T34" s="36">
         <f t="shared" si="5"/>
         <v>6448</v>
       </c>
-      <c r="U34" s="37">
+      <c r="U34" s="38">
         <f>INT(N34*U$3)</f>
         <v>1480</v>
       </c>
-      <c r="V34" s="35">
+      <c r="V34" s="36">
         <v>1480</v>
       </c>
     </row>
@@ -5385,21 +5394,21 @@
       <c r="F35" s="30">
         <v>1</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="31">
         <v>25</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="31">
         <v>47</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="34">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="34">
         <f t="shared" si="1"/>
         <v>1284</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="35">
         <f t="shared" si="2"/>
         <v>732</v>
       </c>
@@ -5417,31 +5426,31 @@
       <c r="O35" s="30">
         <v>350</v>
       </c>
-      <c r="P35" s="35">
+      <c r="P35" s="36">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="Q35" s="38">
+      <c r="Q35" s="39">
         <f t="array" ref="Q35">INT(SUMPRODUCT(($D$4:$D$90=$D35)*($F$4:$F$90=$F35),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D35)*($F$4:$F$90=$F35),$O$4:$O$90))</f>
         <v>1965</v>
       </c>
-      <c r="R35" s="39">
+      <c r="R35" s="40">
         <f t="shared" si="4"/>
         <v>0.0916666666666666</v>
       </c>
-      <c r="S35" s="35">
+      <c r="S35" s="36">
         <f t="array" ref="S35">INT(SUMPRODUCT(($D$4:$D$90=$D35)*($F$4:$F$90=$F35),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D35)*($F$4:$F$90=$F35),$O$4:$O$90))</f>
         <v>6004</v>
       </c>
-      <c r="T35" s="35">
+      <c r="T35" s="36">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="U35" s="37">
+      <c r="U35" s="38">
         <f>INT(N35*U$3)</f>
         <v>74</v>
       </c>
-      <c r="V35" s="35">
+      <c r="V35" s="36">
         <v>74</v>
       </c>
     </row>
@@ -5467,21 +5476,21 @@
       <c r="F36" s="30">
         <v>1</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="31">
         <v>47</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="31">
         <v>78</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="34">
         <f t="shared" si="0"/>
         <v>1284</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="34">
         <f t="shared" si="1"/>
         <v>6207</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="35">
         <f t="shared" si="2"/>
         <v>3745.5</v>
       </c>
@@ -5499,31 +5508,31 @@
       <c r="O36" s="30">
         <v>350</v>
       </c>
-      <c r="P36" s="35">
+      <c r="P36" s="36">
         <f t="shared" si="3"/>
         <v>1123</v>
       </c>
-      <c r="Q36" s="38">
+      <c r="Q36" s="39">
         <f t="array" ref="Q36">INT(SUMPRODUCT(($D$4:$D$90=$D36)*($F$4:$F$90=$F36),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D36)*($F$4:$F$90=$F36),$O$4:$O$90))</f>
         <v>1965</v>
       </c>
-      <c r="R36" s="39">
+      <c r="R36" s="40">
         <f t="shared" si="4"/>
         <v>0.0916666666666666</v>
       </c>
-      <c r="S36" s="35">
+      <c r="S36" s="36">
         <f t="array" ref="S36">INT(SUMPRODUCT(($D$4:$D$90=$D36)*($F$4:$F$90=$F36),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D36)*($F$4:$F$90=$F36),$O$4:$O$90))</f>
         <v>6004</v>
       </c>
-      <c r="T36" s="35">
+      <c r="T36" s="36">
         <f t="shared" si="5"/>
         <v>385</v>
       </c>
-      <c r="U36" s="37">
+      <c r="U36" s="38">
         <f>INT(N36*U$3)</f>
         <v>222</v>
       </c>
-      <c r="V36" s="35">
+      <c r="V36" s="36">
         <v>222</v>
       </c>
     </row>
@@ -5549,21 +5558,21 @@
       <c r="F37" s="30">
         <v>1</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="31">
         <v>78</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="31">
         <v>102</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="34">
         <f t="shared" si="0"/>
         <v>6207</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="34">
         <f t="shared" si="1"/>
         <v>14296</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="35">
         <f t="shared" si="2"/>
         <v>10251.5</v>
       </c>
@@ -5581,31 +5590,31 @@
       <c r="O37" s="30">
         <v>175</v>
       </c>
-      <c r="P37" s="35">
+      <c r="P37" s="36">
         <f t="shared" si="3"/>
         <v>3280</v>
       </c>
-      <c r="Q37" s="38">
+      <c r="Q37" s="39">
         <f t="array" ref="Q37">INT(SUMPRODUCT(($D$4:$D$90=$D37)*($F$4:$F$90=$F37),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D37)*($F$4:$F$90=$F37),$O$4:$O$90))</f>
         <v>1965</v>
       </c>
-      <c r="R37" s="39">
+      <c r="R37" s="40">
         <f t="shared" si="4"/>
         <v>0.0916666666666666</v>
       </c>
-      <c r="S37" s="35">
+      <c r="S37" s="36">
         <f t="array" ref="S37">INT(SUMPRODUCT(($D$4:$D$90=$D37)*($F$4:$F$90=$F37),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D37)*($F$4:$F$90=$F37),$O$4:$O$90))</f>
         <v>6004</v>
       </c>
-      <c r="T37" s="35">
+      <c r="T37" s="36">
         <f t="shared" si="5"/>
         <v>1986</v>
       </c>
-      <c r="U37" s="37">
+      <c r="U37" s="38">
         <f>INT(N37*U$3)</f>
         <v>236</v>
       </c>
-      <c r="V37" s="35">
+      <c r="V37" s="36">
         <v>236</v>
       </c>
     </row>
@@ -5631,21 +5640,21 @@
       <c r="F38" s="30">
         <v>1</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="31">
         <v>102</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="31">
         <v>120</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="34">
         <f t="shared" si="0"/>
         <v>14296</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="34">
         <f t="shared" si="1"/>
         <v>23699</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="35">
         <f t="shared" si="2"/>
         <v>18997.5</v>
       </c>
@@ -5663,31 +5672,31 @@
       <c r="O38" s="30">
         <v>87</v>
       </c>
-      <c r="P38" s="35">
+      <c r="P38" s="36">
         <f t="shared" si="3"/>
         <v>6649</v>
       </c>
-      <c r="Q38" s="38">
+      <c r="Q38" s="39">
         <f t="array" ref="Q38">INT(SUMPRODUCT(($D$4:$D$90=$D38)*($F$4:$F$90=$F38),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D38)*($F$4:$F$90=$F38),$O$4:$O$90))</f>
         <v>1965</v>
       </c>
-      <c r="R38" s="39">
+      <c r="R38" s="40">
         <f t="shared" si="4"/>
         <v>0.0916666666666666</v>
       </c>
-      <c r="S38" s="35">
+      <c r="S38" s="36">
         <f t="array" ref="S38">INT(SUMPRODUCT(($D$4:$D$90=$D38)*($F$4:$F$90=$F38),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D38)*($F$4:$F$90=$F38),$O$4:$O$90))</f>
         <v>6004</v>
       </c>
-      <c r="T38" s="35">
+      <c r="T38" s="36">
         <f t="shared" si="5"/>
         <v>5003</v>
       </c>
-      <c r="U38" s="37">
+      <c r="U38" s="38">
         <f>INT(N38*U$3)</f>
         <v>259</v>
       </c>
-      <c r="V38" s="35">
+      <c r="V38" s="36">
         <v>259</v>
       </c>
     </row>
@@ -5713,21 +5722,21 @@
       <c r="F39" s="30">
         <v>1</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="31">
         <v>120</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="31">
         <v>132</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="34">
         <f t="shared" si="0"/>
         <v>23699</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="34">
         <f t="shared" si="1"/>
         <v>31876</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="35">
         <f t="shared" si="2"/>
         <v>27787.5</v>
       </c>
@@ -5745,31 +5754,31 @@
       <c r="O39" s="30">
         <v>35</v>
       </c>
-      <c r="P39" s="35">
+      <c r="P39" s="36">
         <f t="shared" si="3"/>
         <v>11115</v>
       </c>
-      <c r="Q39" s="38">
+      <c r="Q39" s="39">
         <f t="array" ref="Q39">INT(SUMPRODUCT(($D$4:$D$90=$D39)*($F$4:$F$90=$F39),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D39)*($F$4:$F$90=$F39),$O$4:$O$90))</f>
         <v>1965</v>
       </c>
-      <c r="R39" s="39">
+      <c r="R39" s="40">
         <f t="shared" si="4"/>
         <v>0.0916666666666666</v>
       </c>
-      <c r="S39" s="35">
+      <c r="S39" s="36">
         <f t="array" ref="S39">INT(SUMPRODUCT(($D$4:$D$90=$D39)*($F$4:$F$90=$F39),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D39)*($F$4:$F$90=$F39),$O$4:$O$90))</f>
         <v>6004</v>
       </c>
-      <c r="T39" s="35">
+      <c r="T39" s="36">
         <f t="shared" si="5"/>
         <v>9479</v>
       </c>
-      <c r="U39" s="37">
+      <c r="U39" s="38">
         <f>INT(N39*U$3)</f>
         <v>296</v>
       </c>
-      <c r="V39" s="35">
+      <c r="V39" s="36">
         <v>296</v>
       </c>
     </row>
@@ -5795,21 +5804,21 @@
       <c r="F40" s="30">
         <v>2</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="31">
         <v>18</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="31">
         <v>28</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="34">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="34">
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="K40" s="34">
+      <c r="K40" s="35">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
@@ -5827,31 +5836,31 @@
       <c r="O40" s="30">
         <v>1100</v>
       </c>
-      <c r="P40" s="35">
+      <c r="P40" s="36">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="Q40" s="38">
+      <c r="Q40" s="39">
         <f t="array" ref="Q40">INT(SUMPRODUCT(($D$4:$D$90=$D40)*($F$4:$F$90=$F40),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D40)*($F$4:$F$90=$F40),$O$4:$O$90))</f>
         <v>198</v>
       </c>
-      <c r="R40" s="39">
+      <c r="R40" s="40">
         <f t="shared" si="4"/>
         <v>-0.01</v>
       </c>
-      <c r="S40" s="35">
+      <c r="S40" s="36">
         <f t="array" ref="S40">INT(SUMPRODUCT(($D$4:$D$90=$D40)*($F$4:$F$90=$F40),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D40)*($F$4:$F$90=$F40),$O$4:$O$90))</f>
         <v>251</v>
       </c>
-      <c r="T40" s="35">
+      <c r="T40" s="36">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="U40" s="37">
+      <c r="U40" s="38">
         <f>INT(N40*U$3)</f>
         <v>444</v>
       </c>
-      <c r="V40" s="35">
+      <c r="V40" s="36">
         <v>444</v>
       </c>
     </row>
@@ -5877,21 +5886,21 @@
       <c r="F41" s="30">
         <v>2</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="31">
         <v>28</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="31">
         <v>40</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="34">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="34">
         <f t="shared" si="1"/>
         <v>579</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="35">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
@@ -5909,49 +5918,49 @@
       <c r="O41" s="30">
         <v>1100</v>
       </c>
-      <c r="P41" s="35">
+      <c r="P41" s="36">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="Q41" s="38">
+      <c r="Q41" s="39">
         <f t="array" ref="Q41">INT(SUMPRODUCT(($D$4:$D$90=$D41)*($F$4:$F$90=$F41),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D41)*($F$4:$F$90=$F41),$O$4:$O$90))</f>
         <v>198</v>
       </c>
-      <c r="R41" s="39">
+      <c r="R41" s="40">
         <f t="shared" si="4"/>
         <v>-0.01</v>
       </c>
-      <c r="S41" s="35">
+      <c r="S41" s="36">
         <f t="array" ref="S41">INT(SUMPRODUCT(($D$4:$D$90=$D41)*($F$4:$F$90=$F41),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D41)*($F$4:$F$90=$F41),$O$4:$O$90))</f>
         <v>251</v>
       </c>
-      <c r="T41" s="35">
+      <c r="T41" s="36">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="U41" s="37">
+      <c r="U41" s="38">
         <f>INT(N41*U$3)</f>
         <v>629</v>
       </c>
-      <c r="V41" s="35">
+      <c r="V41" s="36">
         <v>629</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:22">
       <c r="A42" s="29">
         <f>VLOOKUP(C42,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="B42" s="29">
         <f>VLOOKUP(C42,[1]鱼种设计表!$B$2:$L$24,11,FALSE)</f>
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="C42" s="8" t="str">
         <f>VLOOKUP(D42,鱼种重量参数!$A$1:$D$99,4,FALSE)</f>
-        <v>绿太阳鱼</v>
+        <v>美鳊</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>28</v>
@@ -5959,81 +5968,81 @@
       <c r="F42" s="30">
         <v>2</v>
       </c>
-      <c r="G42" s="30">
-        <v>15</v>
-      </c>
-      <c r="H42" s="30">
-        <v>23</v>
-      </c>
-      <c r="I42" s="33">
+      <c r="G42" s="31">
+        <v>10</v>
+      </c>
+      <c r="H42" s="31">
+        <v>16</v>
+      </c>
+      <c r="I42" s="34">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J42" s="33">
+        <v>16</v>
+      </c>
+      <c r="J42" s="34">
         <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="K42" s="34">
+        <v>71</v>
+      </c>
+      <c r="K42" s="35">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>43.5</v>
       </c>
       <c r="L42" s="7">
         <f>VLOOKUP($D42,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!E$1),FALSE)</f>
-        <v>0.012</v>
+        <v>0.0128</v>
       </c>
       <c r="M42" s="7">
         <f>VLOOKUP($D42,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!F$1),FALSE)</f>
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="N42" s="30">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="O42" s="30">
         <v>900</v>
       </c>
-      <c r="P42" s="35">
+      <c r="P42" s="36">
         <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-      <c r="Q42" s="38">
+        <v>108</v>
+      </c>
+      <c r="Q42" s="39">
         <f t="array" ref="Q42">INT(SUMPRODUCT(($D$4:$D$90=$D42)*($F$4:$F$90=$F42),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D42)*($F$4:$F$90=$F42),$O$4:$O$90))</f>
-        <v>339</v>
-      </c>
-      <c r="R42" s="39">
+        <v>240</v>
+      </c>
+      <c r="R42" s="40">
         <f t="shared" si="4"/>
-        <v>-0.00294117647058822</v>
-      </c>
-      <c r="S42" s="35">
+        <v>0</v>
+      </c>
+      <c r="S42" s="36">
         <f t="array" ref="S42">INT(SUMPRODUCT(($D$4:$D$90=$D42)*($F$4:$F$90=$F42),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D42)*($F$4:$F$90=$F42),$O$4:$O$90))</f>
-        <v>172</v>
-      </c>
-      <c r="T42" s="35">
+        <v>75</v>
+      </c>
+      <c r="T42" s="36">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="U42" s="37">
+        <v>40</v>
+      </c>
+      <c r="U42" s="38">
         <f>INT(N42*U$3)</f>
-        <v>1110</v>
-      </c>
-      <c r="V42" s="35">
-        <v>1110</v>
+        <v>1850</v>
+      </c>
+      <c r="V42" s="36">
+        <v>1850</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:22">
       <c r="A43" s="29">
         <f>VLOOKUP(C43,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="B43" s="29">
         <f>VLOOKUP(C43,[1]鱼种设计表!$B$2:$L$24,11,FALSE)</f>
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="C43" s="8" t="str">
         <f>VLOOKUP(D43,鱼种重量参数!$A$1:$D$99,4,FALSE)</f>
-        <v>绿太阳鱼</v>
+        <v>美鳊</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>29</v>
@@ -6041,81 +6050,81 @@
       <c r="F43" s="30">
         <v>2</v>
       </c>
-      <c r="G43" s="30">
-        <v>23</v>
-      </c>
-      <c r="H43" s="30">
-        <v>31</v>
-      </c>
-      <c r="I43" s="33">
+      <c r="G43" s="31">
+        <v>16</v>
+      </c>
+      <c r="H43" s="31">
+        <v>20</v>
+      </c>
+      <c r="I43" s="34">
         <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="J43" s="33">
+        <v>71</v>
+      </c>
+      <c r="J43" s="34">
         <f t="shared" si="1"/>
-        <v>357</v>
-      </c>
-      <c r="K43" s="34">
+        <v>142</v>
+      </c>
+      <c r="K43" s="35">
         <f t="shared" si="2"/>
-        <v>251.5</v>
+        <v>106.5</v>
       </c>
       <c r="L43" s="7">
         <f>VLOOKUP($D43,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!E$1),FALSE)</f>
-        <v>0.012</v>
+        <v>0.0128</v>
       </c>
       <c r="M43" s="7">
         <f>VLOOKUP($D43,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!F$1),FALSE)</f>
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="N43" s="30">
-        <v>2150</v>
+        <v>3500</v>
       </c>
       <c r="O43" s="30">
         <v>900</v>
       </c>
-      <c r="P43" s="35">
+      <c r="P43" s="36">
         <f t="shared" si="3"/>
-        <v>540</v>
-      </c>
-      <c r="Q43" s="38">
+        <v>372</v>
+      </c>
+      <c r="Q43" s="39">
         <f t="array" ref="Q43">INT(SUMPRODUCT(($D$4:$D$90=$D43)*($F$4:$F$90=$F43),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D43)*($F$4:$F$90=$F43),$O$4:$O$90))</f>
-        <v>339</v>
-      </c>
-      <c r="R43" s="39">
+        <v>240</v>
+      </c>
+      <c r="R43" s="40">
         <f t="shared" si="4"/>
-        <v>-0.00294117647058822</v>
-      </c>
-      <c r="S43" s="35">
+        <v>0</v>
+      </c>
+      <c r="S43" s="36">
         <f t="array" ref="S43">INT(SUMPRODUCT(($D$4:$D$90=$D43)*($F$4:$F$90=$F43),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D43)*($F$4:$F$90=$F43),$O$4:$O$90))</f>
-        <v>172</v>
-      </c>
-      <c r="T43" s="35">
+        <v>75</v>
+      </c>
+      <c r="T43" s="36">
         <f t="shared" si="5"/>
-        <v>313</v>
-      </c>
-      <c r="U43" s="37">
+        <v>248</v>
+      </c>
+      <c r="U43" s="38">
         <f>INT(N43*U$3)</f>
-        <v>1591</v>
-      </c>
-      <c r="V43" s="35">
-        <v>1591</v>
+        <v>2590</v>
+      </c>
+      <c r="V43" s="36">
+        <v>2590</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:22">
       <c r="A44" s="29">
         <f>VLOOKUP(C44,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="B44" s="29">
         <f>VLOOKUP(C44,[1]鱼种设计表!$B$2:$L$24,11,FALSE)</f>
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C44" s="8" t="str">
         <f>VLOOKUP(D44,鱼种重量参数!$A$1:$D$99,4,FALSE)</f>
-        <v>驼背太阳鱼</v>
+        <v>绿太阳鱼</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>28</v>
@@ -6123,81 +6132,81 @@
       <c r="F44" s="30">
         <v>2</v>
       </c>
-      <c r="G44" s="30">
-        <v>20</v>
-      </c>
-      <c r="H44" s="30">
-        <v>28</v>
-      </c>
-      <c r="I44" s="33">
+      <c r="G44" s="31">
+        <v>15</v>
+      </c>
+      <c r="H44" s="31">
+        <v>23</v>
+      </c>
+      <c r="I44" s="34">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="J44" s="33">
+        <v>40</v>
+      </c>
+      <c r="J44" s="34">
         <f t="shared" si="1"/>
-        <v>242</v>
-      </c>
-      <c r="K44" s="34">
+        <v>146</v>
+      </c>
+      <c r="K44" s="35">
         <f t="shared" si="2"/>
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="L44" s="7">
         <f>VLOOKUP($D44,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!E$1),FALSE)</f>
-        <v>0.0135</v>
+        <v>0.012</v>
       </c>
       <c r="M44" s="7">
         <f>VLOOKUP($D44,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!F$1),FALSE)</f>
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="N44" s="30">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="O44" s="30">
         <v>600</v>
       </c>
-      <c r="P44" s="35">
+      <c r="P44" s="36">
         <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="Q44" s="38">
+        <v>139</v>
+      </c>
+      <c r="Q44" s="39">
         <f t="array" ref="Q44">INT(SUMPRODUCT(($D$4:$D$90=$D44)*($F$4:$F$90=$F44),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D44)*($F$4:$F$90=$F44),$O$4:$O$90))</f>
-        <v>299</v>
-      </c>
-      <c r="R44" s="39">
+        <v>339</v>
+      </c>
+      <c r="R44" s="40">
         <f t="shared" si="4"/>
-        <v>-0.0033333333333333</v>
-      </c>
-      <c r="S44" s="35">
+        <v>-0.00294117647058822</v>
+      </c>
+      <c r="S44" s="36">
         <f t="array" ref="S44">INT(SUMPRODUCT(($D$4:$D$90=$D44)*($F$4:$F$90=$F44),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D44)*($F$4:$F$90=$F44),$O$4:$O$90))</f>
-        <v>316</v>
-      </c>
-      <c r="T44" s="35">
+        <v>172</v>
+      </c>
+      <c r="T44" s="36">
         <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="U44" s="37">
+        <v>60</v>
+      </c>
+      <c r="U44" s="38">
         <f>INT(N44*U$3)</f>
-        <v>592</v>
-      </c>
-      <c r="V44" s="35">
-        <v>592</v>
+        <v>1110</v>
+      </c>
+      <c r="V44" s="36">
+        <v>1110</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:22">
       <c r="A45" s="29">
         <f>VLOOKUP(C45,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="B45" s="29">
         <f>VLOOKUP(C45,[1]鱼种设计表!$B$2:$L$24,11,FALSE)</f>
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C45" s="8" t="str">
         <f>VLOOKUP(D45,鱼种重量参数!$A$1:$D$99,4,FALSE)</f>
-        <v>驼背太阳鱼</v>
+        <v>绿太阳鱼</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>29</v>
@@ -6205,81 +6214,81 @@
       <c r="F45" s="30">
         <v>2</v>
       </c>
-      <c r="G45" s="30">
-        <v>28</v>
-      </c>
-      <c r="H45" s="30">
-        <v>40</v>
-      </c>
-      <c r="I45" s="33">
+      <c r="G45" s="31">
+        <v>23</v>
+      </c>
+      <c r="H45" s="31">
+        <v>31</v>
+      </c>
+      <c r="I45" s="34">
         <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-      <c r="J45" s="33">
+        <v>146</v>
+      </c>
+      <c r="J45" s="34">
         <f t="shared" si="1"/>
-        <v>692</v>
-      </c>
-      <c r="K45" s="34">
+        <v>357</v>
+      </c>
+      <c r="K45" s="35">
         <f t="shared" si="2"/>
-        <v>467</v>
+        <v>251.5</v>
       </c>
       <c r="L45" s="7">
         <f>VLOOKUP($D45,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!E$1),FALSE)</f>
-        <v>0.0135</v>
+        <v>0.012</v>
       </c>
       <c r="M45" s="7">
         <f>VLOOKUP($D45,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!F$1),FALSE)</f>
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="N45" s="30">
-        <v>1000</v>
+        <v>2150</v>
       </c>
       <c r="O45" s="30">
         <v>600</v>
       </c>
-      <c r="P45" s="35">
+      <c r="P45" s="36">
         <f t="shared" si="3"/>
-        <v>467</v>
-      </c>
-      <c r="Q45" s="38">
+        <v>540</v>
+      </c>
+      <c r="Q45" s="39">
         <f t="array" ref="Q45">INT(SUMPRODUCT(($D$4:$D$90=$D45)*($F$4:$F$90=$F45),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D45)*($F$4:$F$90=$F45),$O$4:$O$90))</f>
-        <v>299</v>
-      </c>
-      <c r="R45" s="39">
+        <v>339</v>
+      </c>
+      <c r="R45" s="40">
         <f t="shared" si="4"/>
-        <v>-0.0033333333333333</v>
-      </c>
-      <c r="S45" s="35">
+        <v>-0.00294117647058822</v>
+      </c>
+      <c r="S45" s="36">
         <f t="array" ref="S45">INT(SUMPRODUCT(($D$4:$D$90=$D45)*($F$4:$F$90=$F45),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D45)*($F$4:$F$90=$F45),$O$4:$O$90))</f>
-        <v>316</v>
-      </c>
-      <c r="T45" s="35">
+        <v>172</v>
+      </c>
+      <c r="T45" s="36">
         <f t="shared" si="5"/>
-        <v>242</v>
-      </c>
-      <c r="U45" s="37">
+        <v>313</v>
+      </c>
+      <c r="U45" s="38">
         <f>INT(N45*U$3)</f>
-        <v>740</v>
-      </c>
-      <c r="V45" s="35">
-        <v>740</v>
+        <v>1591</v>
+      </c>
+      <c r="V45" s="36">
+        <v>1591</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:22">
       <c r="A46" s="29">
         <f>VLOOKUP(C46,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="B46" s="29">
         <f>VLOOKUP(C46,[1]鱼种设计表!$B$2:$L$24,11,FALSE)</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C46" s="8" t="str">
         <f>VLOOKUP(D46,鱼种重量参数!$A$1:$D$99,4,FALSE)</f>
-        <v>美鳊</v>
+        <v>驼背太阳鱼</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>28</v>
@@ -6287,81 +6296,81 @@
       <c r="F46" s="30">
         <v>2</v>
       </c>
-      <c r="G46" s="30">
-        <v>10</v>
-      </c>
-      <c r="H46" s="30">
-        <v>16</v>
-      </c>
-      <c r="I46" s="33">
+      <c r="G46" s="31">
+        <v>20</v>
+      </c>
+      <c r="H46" s="31">
+        <v>28</v>
+      </c>
+      <c r="I46" s="34">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J46" s="33">
+        <v>90</v>
+      </c>
+      <c r="J46" s="34">
         <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="K46" s="34">
+        <v>242</v>
+      </c>
+      <c r="K46" s="35">
         <f t="shared" si="2"/>
-        <v>43.5</v>
+        <v>166</v>
       </c>
       <c r="L46" s="7">
         <f>VLOOKUP($D46,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!E$1),FALSE)</f>
-        <v>0.0128</v>
+        <v>0.0135</v>
       </c>
       <c r="M46" s="7">
         <f>VLOOKUP($D46,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!F$1),FALSE)</f>
-        <v>3.11</v>
+        <v>2.94</v>
       </c>
       <c r="N46" s="30">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="O46" s="30">
         <v>500</v>
       </c>
-      <c r="P46" s="35">
+      <c r="P46" s="36">
         <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="Q46" s="38">
+        <v>132</v>
+      </c>
+      <c r="Q46" s="39">
         <f t="array" ref="Q46">INT(SUMPRODUCT(($D$4:$D$90=$D46)*($F$4:$F$90=$F46),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D46)*($F$4:$F$90=$F46),$O$4:$O$90))</f>
-        <v>240</v>
-      </c>
-      <c r="R46" s="39">
+        <v>299</v>
+      </c>
+      <c r="R46" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="35">
+        <v>-0.0033333333333333</v>
+      </c>
+      <c r="S46" s="36">
         <f t="array" ref="S46">INT(SUMPRODUCT(($D$4:$D$90=$D46)*($F$4:$F$90=$F46),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D46)*($F$4:$F$90=$F46),$O$4:$O$90))</f>
-        <v>75</v>
-      </c>
-      <c r="T46" s="35">
+        <v>316</v>
+      </c>
+      <c r="T46" s="36">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="U46" s="37">
+        <v>72</v>
+      </c>
+      <c r="U46" s="38">
         <f>INT(N46*U$3)</f>
-        <v>1850</v>
-      </c>
-      <c r="V46" s="35">
-        <v>1850</v>
+        <v>592</v>
+      </c>
+      <c r="V46" s="36">
+        <v>592</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:22">
       <c r="A47" s="29">
         <f>VLOOKUP(C47,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="B47" s="29">
         <f>VLOOKUP(C47,[1]鱼种设计表!$B$2:$L$24,11,FALSE)</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C47" s="8" t="str">
         <f>VLOOKUP(D47,鱼种重量参数!$A$1:$D$99,4,FALSE)</f>
-        <v>美鳊</v>
+        <v>驼背太阳鱼</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>29</v>
@@ -6369,64 +6378,64 @@
       <c r="F47" s="30">
         <v>2</v>
       </c>
-      <c r="G47" s="30">
-        <v>16</v>
-      </c>
-      <c r="H47" s="30">
-        <v>20</v>
-      </c>
-      <c r="I47" s="33">
+      <c r="G47" s="31">
+        <v>28</v>
+      </c>
+      <c r="H47" s="31">
+        <v>40</v>
+      </c>
+      <c r="I47" s="34">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="J47" s="33">
+        <v>242</v>
+      </c>
+      <c r="J47" s="34">
         <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="K47" s="34">
+        <v>692</v>
+      </c>
+      <c r="K47" s="35">
         <f t="shared" si="2"/>
-        <v>106.5</v>
+        <v>467</v>
       </c>
       <c r="L47" s="7">
         <f>VLOOKUP($D47,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!E$1),FALSE)</f>
-        <v>0.0128</v>
+        <v>0.0135</v>
       </c>
       <c r="M47" s="7">
         <f>VLOOKUP($D47,鱼种重量参数!$A$1:$F$99,COLUMN(鱼种重量参数!F$1),FALSE)</f>
-        <v>3.11</v>
+        <v>2.94</v>
       </c>
       <c r="N47" s="30">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="O47" s="30">
         <v>500</v>
       </c>
-      <c r="P47" s="35">
+      <c r="P47" s="36">
         <f t="shared" si="3"/>
-        <v>372</v>
-      </c>
-      <c r="Q47" s="38">
+        <v>467</v>
+      </c>
+      <c r="Q47" s="39">
         <f t="array" ref="Q47">INT(SUMPRODUCT(($D$4:$D$90=$D47)*($F$4:$F$90=$F47),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D47)*($F$4:$F$90=$F47),$O$4:$O$90))</f>
-        <v>240</v>
-      </c>
-      <c r="R47" s="39">
+        <v>299</v>
+      </c>
+      <c r="R47" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="35">
+        <v>-0.0033333333333333</v>
+      </c>
+      <c r="S47" s="36">
         <f t="array" ref="S47">INT(SUMPRODUCT(($D$4:$D$90=$D47)*($F$4:$F$90=$F47),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D47)*($F$4:$F$90=$F47),$O$4:$O$90))</f>
-        <v>75</v>
-      </c>
-      <c r="T47" s="35">
+        <v>316</v>
+      </c>
+      <c r="T47" s="36">
         <f t="shared" si="5"/>
-        <v>248</v>
-      </c>
-      <c r="U47" s="37">
+        <v>242</v>
+      </c>
+      <c r="U47" s="38">
         <f>INT(N47*U$3)</f>
-        <v>2590</v>
-      </c>
-      <c r="V47" s="35">
-        <v>2590</v>
+        <v>740</v>
+      </c>
+      <c r="V47" s="36">
+        <v>740</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1" spans="1:22">
@@ -6451,21 +6460,21 @@
       <c r="F48" s="30">
         <v>2</v>
       </c>
-      <c r="G48" s="30">
+      <c r="G48" s="31">
         <v>15</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="31">
         <v>22</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="34">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="J48" s="33">
+      <c r="J48" s="34">
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="K48" s="34">
+      <c r="K48" s="35">
         <f t="shared" si="2"/>
         <v>115.5</v>
       </c>
@@ -6483,31 +6492,31 @@
       <c r="O48" s="30">
         <v>600</v>
       </c>
-      <c r="P48" s="35">
+      <c r="P48" s="36">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="Q48" s="38">
+      <c r="Q48" s="39">
         <f t="array" ref="Q48">INT(SUMPRODUCT(($D$4:$D$90=$D48)*($F$4:$F$90=$F48),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D48)*($F$4:$F$90=$F48),$O$4:$O$90))</f>
         <v>415</v>
       </c>
-      <c r="R48" s="39">
+      <c r="R48" s="40">
         <f t="shared" si="4"/>
         <v>0.0375000000000001</v>
       </c>
-      <c r="S48" s="35">
+      <c r="S48" s="36">
         <f t="array" ref="S48">INT(SUMPRODUCT(($D$4:$D$90=$D48)*($F$4:$F$90=$F48),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D48)*($F$4:$F$90=$F48),$O$4:$O$90))</f>
         <v>401</v>
       </c>
-      <c r="T48" s="35">
+      <c r="T48" s="36">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="U48" s="37">
+      <c r="U48" s="38">
         <f>INT(N48*U$3)</f>
         <v>518</v>
       </c>
-      <c r="V48" s="35">
+      <c r="V48" s="36">
         <v>518</v>
       </c>
     </row>
@@ -6533,21 +6542,21 @@
       <c r="F49" s="30">
         <v>2</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="31">
         <v>22</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="31">
         <v>33</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="34">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="J49" s="33">
+      <c r="J49" s="34">
         <f t="shared" si="1"/>
         <v>641</v>
       </c>
-      <c r="K49" s="34">
+      <c r="K49" s="35">
         <f t="shared" si="2"/>
         <v>409.5</v>
       </c>
@@ -6565,31 +6574,31 @@
       <c r="O49" s="30">
         <v>600</v>
       </c>
-      <c r="P49" s="35">
+      <c r="P49" s="36">
         <f t="shared" si="3"/>
         <v>376</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="Q49" s="39">
         <f t="array" ref="Q49">INT(SUMPRODUCT(($D$4:$D$90=$D49)*($F$4:$F$90=$F49),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D49)*($F$4:$F$90=$F49),$O$4:$O$90))</f>
         <v>415</v>
       </c>
-      <c r="R49" s="39">
+      <c r="R49" s="40">
         <f t="shared" si="4"/>
         <v>0.0375000000000001</v>
       </c>
-      <c r="S49" s="35">
+      <c r="S49" s="36">
         <f t="array" ref="S49">INT(SUMPRODUCT(($D$4:$D$90=$D49)*($F$4:$F$90=$F49),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D49)*($F$4:$F$90=$F49),$O$4:$O$90))</f>
         <v>401</v>
       </c>
-      <c r="T49" s="35">
+      <c r="T49" s="36">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
-      <c r="U49" s="37">
+      <c r="U49" s="38">
         <f>INT(N49*U$3)</f>
         <v>680</v>
       </c>
-      <c r="V49" s="35">
+      <c r="V49" s="36">
         <v>680</v>
       </c>
     </row>
@@ -6615,21 +6624,21 @@
       <c r="F50" s="30">
         <v>2</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G50" s="31">
         <v>33</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="31">
         <v>41</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="34">
         <f t="shared" si="0"/>
         <v>641</v>
       </c>
-      <c r="J50" s="33">
+      <c r="J50" s="34">
         <f t="shared" si="1"/>
         <v>1273</v>
       </c>
-      <c r="K50" s="34">
+      <c r="K50" s="35">
         <f t="shared" si="2"/>
         <v>957</v>
       </c>
@@ -6647,31 +6656,31 @@
       <c r="O50" s="30">
         <v>300</v>
       </c>
-      <c r="P50" s="35">
+      <c r="P50" s="36">
         <f t="shared" si="3"/>
         <v>1167</v>
       </c>
-      <c r="Q50" s="38">
+      <c r="Q50" s="39">
         <f t="array" ref="Q50">INT(SUMPRODUCT(($D$4:$D$90=$D50)*($F$4:$F$90=$F50),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D50)*($F$4:$F$90=$F50),$O$4:$O$90))</f>
         <v>415</v>
       </c>
-      <c r="R50" s="39">
+      <c r="R50" s="40">
         <f t="shared" si="4"/>
         <v>0.0375000000000001</v>
       </c>
-      <c r="S50" s="35">
+      <c r="S50" s="36">
         <f t="array" ref="S50">INT(SUMPRODUCT(($D$4:$D$90=$D50)*($F$4:$F$90=$F50),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D50)*($F$4:$F$90=$F50),$O$4:$O$90))</f>
         <v>401</v>
       </c>
-      <c r="T50" s="35">
+      <c r="T50" s="36">
         <f t="shared" si="5"/>
         <v>782</v>
       </c>
-      <c r="U50" s="37">
+      <c r="U50" s="38">
         <f>INT(N50*U$3)</f>
         <v>902</v>
       </c>
-      <c r="V50" s="35">
+      <c r="V50" s="36">
         <v>902</v>
       </c>
     </row>
@@ -6697,21 +6706,21 @@
       <c r="F51" s="30">
         <v>2</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="31">
         <v>14</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="31">
         <v>25</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="34">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J51" s="33">
+      <c r="J51" s="34">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="K51" s="34">
+      <c r="K51" s="35">
         <f t="shared" si="2"/>
         <v>160.5</v>
       </c>
@@ -6729,31 +6738,31 @@
       <c r="O51" s="30">
         <v>600</v>
       </c>
-      <c r="P51" s="35">
+      <c r="P51" s="36">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="Q51" s="38">
+      <c r="Q51" s="39">
         <f t="array" ref="Q51">INT(SUMPRODUCT(($D$4:$D$90=$D51)*($F$4:$F$90=$F51),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D51)*($F$4:$F$90=$F51),$O$4:$O$90))</f>
         <v>432</v>
       </c>
-      <c r="R51" s="39">
+      <c r="R51" s="40">
         <f t="shared" si="4"/>
         <v>-0.0608695652173913</v>
       </c>
-      <c r="S51" s="35">
+      <c r="S51" s="36">
         <f t="array" ref="S51">INT(SUMPRODUCT(($D$4:$D$90=$D51)*($F$4:$F$90=$F51),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D51)*($F$4:$F$90=$F51),$O$4:$O$90))</f>
         <v>633</v>
       </c>
-      <c r="T51" s="35">
+      <c r="T51" s="36">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="U51" s="37">
+      <c r="U51" s="38">
         <f>INT(N51*U$3)</f>
         <v>148</v>
       </c>
-      <c r="V51" s="35">
+      <c r="V51" s="36">
         <v>148</v>
       </c>
     </row>
@@ -6779,21 +6788,21 @@
       <c r="F52" s="30">
         <v>2</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="31">
         <v>25</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H52" s="31">
         <v>38</v>
       </c>
-      <c r="I52" s="33">
+      <c r="I52" s="34">
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="J52" s="33">
+      <c r="J52" s="34">
         <f t="shared" si="1"/>
         <v>1015</v>
       </c>
-      <c r="K52" s="34">
+      <c r="K52" s="35">
         <f t="shared" si="2"/>
         <v>645.5</v>
       </c>
@@ -6811,31 +6820,31 @@
       <c r="O52" s="30">
         <v>600</v>
       </c>
-      <c r="P52" s="35">
+      <c r="P52" s="36">
         <f t="shared" si="3"/>
         <v>387</v>
       </c>
-      <c r="Q52" s="38">
+      <c r="Q52" s="39">
         <f t="array" ref="Q52">INT(SUMPRODUCT(($D$4:$D$90=$D52)*($F$4:$F$90=$F52),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D52)*($F$4:$F$90=$F52),$O$4:$O$90))</f>
         <v>432</v>
       </c>
-      <c r="R52" s="39">
+      <c r="R52" s="40">
         <f t="shared" si="4"/>
         <v>-0.0608695652173913</v>
       </c>
-      <c r="S52" s="35">
+      <c r="S52" s="36">
         <f t="array" ref="S52">INT(SUMPRODUCT(($D$4:$D$90=$D52)*($F$4:$F$90=$F52),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D52)*($F$4:$F$90=$F52),$O$4:$O$90))</f>
         <v>633</v>
       </c>
-      <c r="T52" s="35">
+      <c r="T52" s="36">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="U52" s="37">
+      <c r="U52" s="38">
         <f>INT(N52*U$3)</f>
         <v>444</v>
       </c>
-      <c r="V52" s="35">
+      <c r="V52" s="36">
         <v>444</v>
       </c>
     </row>
@@ -6861,21 +6870,21 @@
       <c r="F53" s="30">
         <v>2</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="31">
         <v>38</v>
       </c>
-      <c r="H53" s="30">
+      <c r="H53" s="31">
         <v>48</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="34">
         <f t="shared" si="0"/>
         <v>1015</v>
       </c>
-      <c r="J53" s="33">
+      <c r="J53" s="34">
         <f t="shared" si="1"/>
         <v>2099</v>
       </c>
-      <c r="K53" s="34">
+      <c r="K53" s="35">
         <f t="shared" si="2"/>
         <v>1557</v>
       </c>
@@ -6893,31 +6902,31 @@
       <c r="O53" s="30">
         <v>300</v>
       </c>
-      <c r="P53" s="35">
+      <c r="P53" s="36">
         <f t="shared" si="3"/>
         <v>1323</v>
       </c>
-      <c r="Q53" s="38">
+      <c r="Q53" s="39">
         <f t="array" ref="Q53">INT(SUMPRODUCT(($D$4:$D$90=$D53)*($F$4:$F$90=$F53),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D53)*($F$4:$F$90=$F53),$O$4:$O$90))</f>
         <v>432</v>
       </c>
-      <c r="R53" s="39">
+      <c r="R53" s="40">
         <f t="shared" si="4"/>
         <v>-0.0608695652173913</v>
       </c>
-      <c r="S53" s="35">
+      <c r="S53" s="36">
         <f t="array" ref="S53">INT(SUMPRODUCT(($D$4:$D$90=$D53)*($F$4:$F$90=$F53),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D53)*($F$4:$F$90=$F53),$O$4:$O$90))</f>
         <v>633</v>
       </c>
-      <c r="T53" s="35">
+      <c r="T53" s="36">
         <f t="shared" si="5"/>
         <v>862</v>
       </c>
-      <c r="U53" s="37">
+      <c r="U53" s="38">
         <f>INT(N53*U$3)</f>
         <v>629</v>
       </c>
-      <c r="V53" s="35">
+      <c r="V53" s="36">
         <v>629</v>
       </c>
     </row>
@@ -6943,21 +6952,21 @@
       <c r="F54" s="30">
         <v>2</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="31">
         <v>25</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H54" s="31">
         <v>35</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="34">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="J54" s="33">
+      <c r="J54" s="34">
         <f t="shared" si="1"/>
         <v>368</v>
       </c>
-      <c r="K54" s="34">
+      <c r="K54" s="35">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
@@ -6975,31 +6984,31 @@
       <c r="O54" s="30">
         <v>500</v>
       </c>
-      <c r="P54" s="35">
+      <c r="P54" s="36">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="Q54" s="38">
+      <c r="Q54" s="39">
         <f t="array" ref="Q54">INT(SUMPRODUCT(($D$4:$D$90=$D54)*($F$4:$F$90=$F54),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D54)*($F$4:$F$90=$F54),$O$4:$O$90))</f>
         <v>405</v>
       </c>
-      <c r="R54" s="39">
+      <c r="R54" s="40">
         <f t="shared" si="4"/>
         <v>0.0125</v>
       </c>
-      <c r="S54" s="35">
+      <c r="S54" s="36">
         <f t="array" ref="S54">INT(SUMPRODUCT(($D$4:$D$90=$D54)*($F$4:$F$90=$F54),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D54)*($F$4:$F$90=$F54),$O$4:$O$90))</f>
         <v>835</v>
       </c>
-      <c r="T54" s="35">
+      <c r="T54" s="36">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="U54" s="37">
+      <c r="U54" s="38">
         <f>INT(N54*U$3)</f>
         <v>296</v>
       </c>
-      <c r="V54" s="35">
+      <c r="V54" s="36">
         <v>296</v>
       </c>
     </row>
@@ -7025,21 +7034,21 @@
       <c r="F55" s="30">
         <v>2</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="31">
         <v>35</v>
       </c>
-      <c r="H55" s="30">
+      <c r="H55" s="31">
         <v>65</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="34">
         <f t="shared" si="0"/>
         <v>368</v>
       </c>
-      <c r="J55" s="33">
+      <c r="J55" s="34">
         <f t="shared" si="1"/>
         <v>2477</v>
       </c>
-      <c r="K55" s="34">
+      <c r="K55" s="35">
         <f t="shared" si="2"/>
         <v>1422.5</v>
       </c>
@@ -7057,31 +7066,31 @@
       <c r="O55" s="30">
         <v>500</v>
       </c>
-      <c r="P55" s="35">
+      <c r="P55" s="36">
         <f t="shared" si="3"/>
         <v>711</v>
       </c>
-      <c r="Q55" s="38">
+      <c r="Q55" s="39">
         <f t="array" ref="Q55">INT(SUMPRODUCT(($D$4:$D$90=$D55)*($F$4:$F$90=$F55),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D55)*($F$4:$F$90=$F55),$O$4:$O$90))</f>
         <v>405</v>
       </c>
-      <c r="R55" s="39">
+      <c r="R55" s="40">
         <f t="shared" si="4"/>
         <v>0.0125</v>
       </c>
-      <c r="S55" s="35">
+      <c r="S55" s="36">
         <f t="array" ref="S55">INT(SUMPRODUCT(($D$4:$D$90=$D55)*($F$4:$F$90=$F55),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D55)*($F$4:$F$90=$F55),$O$4:$O$90))</f>
         <v>835</v>
       </c>
-      <c r="T55" s="35">
+      <c r="T55" s="36">
         <f t="shared" si="5"/>
         <v>184</v>
       </c>
-      <c r="U55" s="37">
+      <c r="U55" s="38">
         <f>INT(N55*U$3)</f>
         <v>370</v>
       </c>
-      <c r="V55" s="35">
+      <c r="V55" s="36">
         <v>370</v>
       </c>
     </row>
@@ -7107,21 +7116,21 @@
       <c r="F56" s="30">
         <v>2</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="31">
         <v>21</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="31">
         <v>30</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="34">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="J56" s="33">
+      <c r="J56" s="34">
         <f t="shared" si="1"/>
         <v>337</v>
       </c>
-      <c r="K56" s="34">
+      <c r="K56" s="35">
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
@@ -7139,31 +7148,31 @@
       <c r="O56" s="30">
         <v>500</v>
       </c>
-      <c r="P56" s="35">
+      <c r="P56" s="36">
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="Q56" s="38">
+      <c r="Q56" s="39">
         <f t="array" ref="Q56">INT(SUMPRODUCT(($D$4:$D$90=$D56)*($F$4:$F$90=$F56),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D56)*($F$4:$F$90=$F56),$O$4:$O$90))</f>
         <v>400</v>
       </c>
-      <c r="R56" s="39">
+      <c r="R56" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S56" s="35">
+      <c r="S56" s="36">
         <f t="array" ref="S56">INT(SUMPRODUCT(($D$4:$D$90=$D56)*($F$4:$F$90=$F56),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D56)*($F$4:$F$90=$F56),$O$4:$O$90))</f>
         <v>445</v>
       </c>
-      <c r="T56" s="35">
+      <c r="T56" s="36">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="U56" s="37">
+      <c r="U56" s="38">
         <f>INT(N56*U$3)</f>
         <v>444</v>
       </c>
-      <c r="V56" s="35">
+      <c r="V56" s="36">
         <v>444</v>
       </c>
     </row>
@@ -7189,21 +7198,21 @@
       <c r="F57" s="30">
         <v>2</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G57" s="31">
         <v>30</v>
       </c>
-      <c r="H57" s="30">
+      <c r="H57" s="31">
         <v>43</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="34">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-      <c r="J57" s="33">
+      <c r="J57" s="34">
         <f t="shared" si="1"/>
         <v>993</v>
       </c>
-      <c r="K57" s="34">
+      <c r="K57" s="35">
         <f t="shared" si="2"/>
         <v>665</v>
       </c>
@@ -7221,31 +7230,31 @@
       <c r="O57" s="30">
         <v>500</v>
       </c>
-      <c r="P57" s="35">
+      <c r="P57" s="36">
         <f t="shared" si="3"/>
         <v>665</v>
       </c>
-      <c r="Q57" s="38">
+      <c r="Q57" s="39">
         <f t="array" ref="Q57">INT(SUMPRODUCT(($D$4:$D$90=$D57)*($F$4:$F$90=$F57),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D57)*($F$4:$F$90=$F57),$O$4:$O$90))</f>
         <v>400</v>
       </c>
-      <c r="R57" s="39">
+      <c r="R57" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S57" s="35">
+      <c r="S57" s="36">
         <f t="array" ref="S57">INT(SUMPRODUCT(($D$4:$D$90=$D57)*($F$4:$F$90=$F57),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D57)*($F$4:$F$90=$F57),$O$4:$O$90))</f>
         <v>445</v>
       </c>
-      <c r="T57" s="35">
+      <c r="T57" s="36">
         <f t="shared" si="5"/>
         <v>337</v>
       </c>
-      <c r="U57" s="37">
+      <c r="U57" s="38">
         <f>INT(N57*U$3)</f>
         <v>740</v>
       </c>
-      <c r="V57" s="35">
+      <c r="V57" s="36">
         <v>740</v>
       </c>
     </row>
@@ -7271,21 +7280,21 @@
       <c r="F58" s="30">
         <v>2</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G58" s="31">
         <v>15</v>
       </c>
-      <c r="H58" s="30">
+      <c r="H58" s="31">
         <v>33</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I58" s="34">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="J58" s="33">
+      <c r="J58" s="34">
         <f t="shared" si="1"/>
         <v>583</v>
       </c>
-      <c r="K58" s="34">
+      <c r="K58" s="35">
         <f t="shared" si="2"/>
         <v>313</v>
       </c>
@@ -7303,31 +7312,31 @@
       <c r="O58" s="30">
         <v>500</v>
       </c>
-      <c r="P58" s="35">
+      <c r="P58" s="36">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="Q58" s="38">
+      <c r="Q58" s="39">
         <f t="array" ref="Q58">INT(SUMPRODUCT(($D$4:$D$90=$D58)*($F$4:$F$90=$F58),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D58)*($F$4:$F$90=$F58),$O$4:$O$90))</f>
         <v>530</v>
       </c>
-      <c r="R58" s="39">
+      <c r="R58" s="40">
         <f t="shared" si="4"/>
         <v>0.0600000000000001</v>
       </c>
-      <c r="S58" s="35">
+      <c r="S58" s="36">
         <f t="array" ref="S58">INT(SUMPRODUCT(($D$4:$D$90=$D58)*($F$4:$F$90=$F58),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D58)*($F$4:$F$90=$F58),$O$4:$O$90))</f>
         <v>950</v>
       </c>
-      <c r="T58" s="35">
+      <c r="T58" s="36">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="U58" s="37">
+      <c r="U58" s="38">
         <f>INT(N58*U$3)</f>
         <v>259</v>
       </c>
-      <c r="V58" s="35">
+      <c r="V58" s="36">
         <v>259</v>
       </c>
     </row>
@@ -7353,21 +7362,21 @@
       <c r="F59" s="30">
         <v>2</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="31">
         <v>33</v>
       </c>
-      <c r="H59" s="30">
+      <c r="H59" s="31">
         <v>52</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="34">
         <f t="shared" si="0"/>
         <v>583</v>
       </c>
-      <c r="J59" s="33">
+      <c r="J59" s="34">
         <f t="shared" si="1"/>
         <v>2593</v>
       </c>
-      <c r="K59" s="34">
+      <c r="K59" s="35">
         <f t="shared" si="2"/>
         <v>1588</v>
       </c>
@@ -7385,31 +7394,31 @@
       <c r="O59" s="30">
         <v>500</v>
       </c>
-      <c r="P59" s="35">
+      <c r="P59" s="36">
         <f t="shared" si="3"/>
         <v>952</v>
       </c>
-      <c r="Q59" s="38">
+      <c r="Q59" s="39">
         <f t="array" ref="Q59">INT(SUMPRODUCT(($D$4:$D$90=$D59)*($F$4:$F$90=$F59),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D59)*($F$4:$F$90=$F59),$O$4:$O$90))</f>
         <v>530</v>
       </c>
-      <c r="R59" s="39">
+      <c r="R59" s="40">
         <f t="shared" si="4"/>
         <v>0.0600000000000001</v>
       </c>
-      <c r="S59" s="35">
+      <c r="S59" s="36">
         <f t="array" ref="S59">INT(SUMPRODUCT(($D$4:$D$90=$D59)*($F$4:$F$90=$F59),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D59)*($F$4:$F$90=$F59),$O$4:$O$90))</f>
         <v>950</v>
       </c>
-      <c r="T59" s="35">
+      <c r="T59" s="36">
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
-      <c r="U59" s="37">
+      <c r="U59" s="38">
         <f>INT(N59*U$3)</f>
         <v>444</v>
       </c>
-      <c r="V59" s="35">
+      <c r="V59" s="36">
         <v>444</v>
       </c>
     </row>
@@ -7435,21 +7444,21 @@
       <c r="F60" s="30">
         <v>2</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="31">
         <v>16</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="31">
         <v>26</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="34">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="J60" s="33">
+      <c r="J60" s="34">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="K60" s="34">
+      <c r="K60" s="35">
         <f t="shared" si="2"/>
         <v>182.5</v>
       </c>
@@ -7467,31 +7476,31 @@
       <c r="O60" s="30">
         <v>400</v>
       </c>
-      <c r="P60" s="35">
+      <c r="P60" s="36">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="Q60" s="38">
+      <c r="Q60" s="39">
         <f t="array" ref="Q60">INT(SUMPRODUCT(($D$4:$D$90=$D60)*($F$4:$F$90=$F60),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D60)*($F$4:$F$90=$F60),$O$4:$O$90))</f>
         <v>904</v>
       </c>
-      <c r="R60" s="39">
+      <c r="R60" s="40">
         <f t="shared" si="4"/>
         <v>0.00444444444444447</v>
       </c>
-      <c r="S60" s="35">
+      <c r="S60" s="36">
         <f t="array" ref="S60">INT(SUMPRODUCT(($D$4:$D$90=$D60)*($F$4:$F$90=$F60),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D60)*($F$4:$F$90=$F60),$O$4:$O$90))</f>
         <v>753</v>
       </c>
-      <c r="T60" s="35">
+      <c r="T60" s="36">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="U60" s="37">
+      <c r="U60" s="38">
         <f>INT(N60*U$3)</f>
         <v>370</v>
       </c>
-      <c r="V60" s="35">
+      <c r="V60" s="36">
         <v>370</v>
       </c>
       <c r="W60" t="s">
@@ -7520,21 +7529,21 @@
       <c r="F61" s="30">
         <v>2</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="31">
         <v>26</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="31">
         <v>40</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="34">
         <f t="shared" si="0"/>
         <v>303</v>
       </c>
-      <c r="J61" s="33">
+      <c r="J61" s="34">
         <f t="shared" si="1"/>
         <v>1225</v>
       </c>
-      <c r="K61" s="34">
+      <c r="K61" s="35">
         <f t="shared" si="2"/>
         <v>764</v>
       </c>
@@ -7552,31 +7561,31 @@
       <c r="O61" s="30">
         <v>400</v>
       </c>
-      <c r="P61" s="35">
+      <c r="P61" s="36">
         <f t="shared" si="3"/>
         <v>764</v>
       </c>
-      <c r="Q61" s="38">
+      <c r="Q61" s="39">
         <f t="array" ref="Q61">INT(SUMPRODUCT(($D$4:$D$90=$D61)*($F$4:$F$90=$F61),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D61)*($F$4:$F$90=$F61),$O$4:$O$90))</f>
         <v>904</v>
       </c>
-      <c r="R61" s="39">
+      <c r="R61" s="40">
         <f t="shared" si="4"/>
         <v>0.00444444444444447</v>
       </c>
-      <c r="S61" s="35">
+      <c r="S61" s="36">
         <f t="array" ref="S61">INT(SUMPRODUCT(($D$4:$D$90=$D61)*($F$4:$F$90=$F61),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D61)*($F$4:$F$90=$F61),$O$4:$O$90))</f>
         <v>753</v>
       </c>
-      <c r="T61" s="35">
+      <c r="T61" s="36">
         <f t="shared" si="5"/>
         <v>303</v>
       </c>
-      <c r="U61" s="37">
+      <c r="U61" s="38">
         <f>INT(N61*U$3)</f>
         <v>740</v>
       </c>
-      <c r="V61" s="35">
+      <c r="V61" s="36">
         <v>740</v>
       </c>
     </row>
@@ -7602,21 +7611,21 @@
       <c r="F62" s="30">
         <v>2</v>
       </c>
-      <c r="G62" s="30">
+      <c r="G62" s="31">
         <v>40</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H62" s="31">
         <v>50</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="34">
         <f t="shared" si="0"/>
         <v>1225</v>
       </c>
-      <c r="J62" s="33">
+      <c r="J62" s="34">
         <f t="shared" si="1"/>
         <v>2525</v>
       </c>
-      <c r="K62" s="34">
+      <c r="K62" s="35">
         <f t="shared" si="2"/>
         <v>1875</v>
       </c>
@@ -7634,31 +7643,31 @@
       <c r="O62" s="30">
         <v>200</v>
       </c>
-      <c r="P62" s="35">
+      <c r="P62" s="36">
         <f t="shared" si="3"/>
         <v>2812</v>
       </c>
-      <c r="Q62" s="38">
+      <c r="Q62" s="39">
         <f t="array" ref="Q62">INT(SUMPRODUCT(($D$4:$D$90=$D62)*($F$4:$F$90=$F62),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D62)*($F$4:$F$90=$F62),$O$4:$O$90))</f>
         <v>904</v>
       </c>
-      <c r="R62" s="39">
+      <c r="R62" s="40">
         <f t="shared" si="4"/>
         <v>0.00444444444444447</v>
       </c>
-      <c r="S62" s="35">
+      <c r="S62" s="36">
         <f t="array" ref="S62">INT(SUMPRODUCT(($D$4:$D$90=$D62)*($F$4:$F$90=$F62),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D62)*($F$4:$F$90=$F62),$O$4:$O$90))</f>
         <v>753</v>
       </c>
-      <c r="T62" s="35">
+      <c r="T62" s="36">
         <f t="shared" si="5"/>
         <v>1837</v>
       </c>
-      <c r="U62" s="37">
+      <c r="U62" s="38">
         <f>INT(N62*U$3)</f>
         <v>1110</v>
       </c>
-      <c r="V62" s="35">
+      <c r="V62" s="36">
         <v>1110</v>
       </c>
     </row>
@@ -7684,21 +7693,21 @@
       <c r="F63" s="30">
         <v>2</v>
       </c>
-      <c r="G63" s="30">
+      <c r="G63" s="31">
         <v>15</v>
       </c>
-      <c r="H63" s="30">
+      <c r="H63" s="31">
         <v>22</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J63" s="33">
+      <c r="J63" s="34">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="K63" s="34">
+      <c r="K63" s="35">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -7716,31 +7725,31 @@
       <c r="O63" s="30">
         <v>400</v>
       </c>
-      <c r="P63" s="35">
+      <c r="P63" s="36">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="Q63" s="38">
+      <c r="Q63" s="39">
         <f t="array" ref="Q63">INT(SUMPRODUCT(($D$4:$D$90=$D63)*($F$4:$F$90=$F63),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D63)*($F$4:$F$90=$F63),$O$4:$O$90))</f>
         <v>1008</v>
       </c>
-      <c r="R63" s="39">
+      <c r="R63" s="40">
         <f t="shared" si="4"/>
         <v>0.00800000000000001</v>
       </c>
-      <c r="S63" s="35">
+      <c r="S63" s="36">
         <f t="array" ref="S63">INT(SUMPRODUCT(($D$4:$D$90=$D63)*($F$4:$F$90=$F63),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D63)*($F$4:$F$90=$F63),$O$4:$O$90))</f>
         <v>121</v>
       </c>
-      <c r="T63" s="35">
+      <c r="T63" s="36">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="U63" s="37">
+      <c r="U63" s="38">
         <f>INT(N63*U$3)</f>
         <v>2220</v>
       </c>
-      <c r="V63" s="35">
+      <c r="V63" s="36">
         <v>2220</v>
       </c>
     </row>
@@ -7766,21 +7775,21 @@
       <c r="F64" s="30">
         <v>2</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G64" s="31">
         <v>22</v>
       </c>
-      <c r="H64" s="30">
+      <c r="H64" s="31">
         <v>32</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="34">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="J64" s="33">
+      <c r="J64" s="34">
         <f t="shared" si="1"/>
         <v>193</v>
       </c>
-      <c r="K64" s="34">
+      <c r="K64" s="35">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
@@ -7798,31 +7807,31 @@
       <c r="O64" s="30">
         <v>400</v>
       </c>
-      <c r="P64" s="35">
+      <c r="P64" s="36">
         <f t="shared" si="3"/>
         <v>762</v>
       </c>
-      <c r="Q64" s="38">
+      <c r="Q64" s="39">
         <f t="array" ref="Q64">INT(SUMPRODUCT(($D$4:$D$90=$D64)*($F$4:$F$90=$F64),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D64)*($F$4:$F$90=$F64),$O$4:$O$90))</f>
         <v>1008</v>
       </c>
-      <c r="R64" s="39">
+      <c r="R64" s="40">
         <f t="shared" si="4"/>
         <v>0.00800000000000001</v>
       </c>
-      <c r="S64" s="35">
+      <c r="S64" s="36">
         <f t="array" ref="S64">INT(SUMPRODUCT(($D$4:$D$90=$D64)*($F$4:$F$90=$F64),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D64)*($F$4:$F$90=$F64),$O$4:$O$90))</f>
         <v>121</v>
       </c>
-      <c r="T64" s="35">
+      <c r="T64" s="36">
         <f t="shared" si="5"/>
         <v>366</v>
       </c>
-      <c r="U64" s="37">
+      <c r="U64" s="38">
         <f>INT(N64*U$3)</f>
         <v>4440</v>
       </c>
-      <c r="V64" s="35">
+      <c r="V64" s="36">
         <v>4440</v>
       </c>
     </row>
@@ -7848,21 +7857,21 @@
       <c r="F65" s="30">
         <v>2</v>
       </c>
-      <c r="G65" s="30">
+      <c r="G65" s="31">
         <v>32</v>
       </c>
-      <c r="H65" s="30">
+      <c r="H65" s="31">
         <v>39</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="34">
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="J65" s="33">
+      <c r="J65" s="34">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="K65" s="34">
+      <c r="K65" s="35">
         <f t="shared" si="2"/>
         <v>273</v>
       </c>
@@ -7880,31 +7889,31 @@
       <c r="O65" s="30">
         <v>200</v>
       </c>
-      <c r="P65" s="35">
+      <c r="P65" s="36">
         <f t="shared" si="3"/>
         <v>3276</v>
       </c>
-      <c r="Q65" s="38">
+      <c r="Q65" s="39">
         <f t="array" ref="Q65">INT(SUMPRODUCT(($D$4:$D$90=$D65)*($F$4:$F$90=$F65),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D65)*($F$4:$F$90=$F65),$O$4:$O$90))</f>
         <v>1008</v>
       </c>
-      <c r="R65" s="39">
+      <c r="R65" s="40">
         <f t="shared" si="4"/>
         <v>0.00800000000000001</v>
       </c>
-      <c r="S65" s="35">
+      <c r="S65" s="36">
         <f t="array" ref="S65">INT(SUMPRODUCT(($D$4:$D$90=$D65)*($F$4:$F$90=$F65),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D65)*($F$4:$F$90=$F65),$O$4:$O$90))</f>
         <v>121</v>
       </c>
-      <c r="T65" s="35">
+      <c r="T65" s="36">
         <f t="shared" si="5"/>
         <v>2316</v>
       </c>
-      <c r="U65" s="37">
+      <c r="U65" s="38">
         <f>INT(N65*U$3)</f>
         <v>8880</v>
       </c>
-      <c r="V65" s="35">
+      <c r="V65" s="36">
         <v>8880</v>
       </c>
     </row>
@@ -7930,21 +7939,21 @@
       <c r="F66" s="30">
         <v>2</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G66" s="31">
         <v>23</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H66" s="31">
         <v>30</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="34">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="J66" s="33">
+      <c r="J66" s="34">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="K66" s="34">
+      <c r="K66" s="35">
         <f t="shared" si="2"/>
         <v>243.5</v>
       </c>
@@ -7962,31 +7971,31 @@
       <c r="O66" s="30">
         <v>363</v>
       </c>
-      <c r="P66" s="35">
+      <c r="P66" s="36">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="Q66" s="38">
+      <c r="Q66" s="39">
         <f t="array" ref="Q66">INT(SUMPRODUCT(($D$4:$D$90=$D66)*($F$4:$F$90=$F66),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D66)*($F$4:$F$90=$F66),$O$4:$O$90))</f>
         <v>1998</v>
       </c>
-      <c r="R66" s="39">
+      <c r="R66" s="40">
         <f t="shared" si="4"/>
         <v>-0.001</v>
       </c>
-      <c r="S66" s="35">
+      <c r="S66" s="36">
         <f t="array" ref="S66">INT(SUMPRODUCT(($D$4:$D$90=$D66)*($F$4:$F$90=$F66),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D66)*($F$4:$F$90=$F66),$O$4:$O$90))</f>
         <v>1044</v>
       </c>
-      <c r="T66" s="35">
+      <c r="T66" s="36">
         <f t="shared" si="5"/>
         <v>72</v>
       </c>
-      <c r="U66" s="37">
+      <c r="U66" s="38">
         <f>INT(N66*U$3)</f>
         <v>370</v>
       </c>
-      <c r="V66" s="35">
+      <c r="V66" s="36">
         <v>370</v>
       </c>
     </row>
@@ -8012,21 +8021,21 @@
       <c r="F67" s="30">
         <v>2</v>
       </c>
-      <c r="G67" s="30">
+      <c r="G67" s="31">
         <v>30</v>
       </c>
-      <c r="H67" s="30">
+      <c r="H67" s="31">
         <v>46</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="34">
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="J67" s="33">
+      <c r="J67" s="34">
         <f t="shared" si="1"/>
         <v>1355</v>
       </c>
-      <c r="K67" s="34">
+      <c r="K67" s="35">
         <f t="shared" si="2"/>
         <v>848.5</v>
       </c>
@@ -8044,31 +8053,31 @@
       <c r="O67" s="30">
         <v>363</v>
       </c>
-      <c r="P67" s="35">
+      <c r="P67" s="36">
         <f t="shared" si="3"/>
         <v>848</v>
       </c>
-      <c r="Q67" s="38">
+      <c r="Q67" s="39">
         <f t="array" ref="Q67">INT(SUMPRODUCT(($D$4:$D$90=$D67)*($F$4:$F$90=$F67),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D67)*($F$4:$F$90=$F67),$O$4:$O$90))</f>
         <v>1998</v>
       </c>
-      <c r="R67" s="39">
+      <c r="R67" s="40">
         <f t="shared" si="4"/>
         <v>-0.001</v>
       </c>
-      <c r="S67" s="35">
+      <c r="S67" s="36">
         <f t="array" ref="S67">INT(SUMPRODUCT(($D$4:$D$90=$D67)*($F$4:$F$90=$F67),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D67)*($F$4:$F$90=$F67),$O$4:$O$90))</f>
         <v>1044</v>
       </c>
-      <c r="T67" s="35">
+      <c r="T67" s="36">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
-      <c r="U67" s="37">
+      <c r="U67" s="38">
         <f>INT(N67*U$3)</f>
         <v>740</v>
       </c>
-      <c r="V67" s="35">
+      <c r="V67" s="36">
         <v>740</v>
       </c>
     </row>
@@ -8094,21 +8103,21 @@
       <c r="F68" s="30">
         <v>2</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="31">
         <v>46</v>
       </c>
-      <c r="H68" s="30">
+      <c r="H68" s="31">
         <v>56</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="34">
         <f t="shared" ref="I68:I84" si="6">INT($L68*POWER(G68,$M68))</f>
         <v>1355</v>
       </c>
-      <c r="J68" s="33">
+      <c r="J68" s="34">
         <f t="shared" ref="J68:J84" si="7">INT($L68*POWER(H68,$M68))</f>
         <v>2554</v>
       </c>
-      <c r="K68" s="34">
+      <c r="K68" s="35">
         <f t="shared" ref="K68:K84" si="8">(I68+J68)/2</f>
         <v>1954.5</v>
       </c>
@@ -8126,31 +8135,31 @@
       <c r="O68" s="30">
         <v>181</v>
       </c>
-      <c r="P68" s="35">
+      <c r="P68" s="36">
         <f t="shared" ref="P68:P84" si="9">INT(K68*N68/1000)</f>
         <v>3909</v>
       </c>
-      <c r="Q68" s="38">
+      <c r="Q68" s="39">
         <f t="array" ref="Q68">INT(SUMPRODUCT(($D$4:$D$90=$D68)*($F$4:$F$90=$F68),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D68)*($F$4:$F$90=$F68),$O$4:$O$90))</f>
         <v>1998</v>
       </c>
-      <c r="R68" s="39">
+      <c r="R68" s="40">
         <f t="shared" ref="R68:R84" si="10">(Q68/B68-1)</f>
         <v>-0.001</v>
       </c>
-      <c r="S68" s="35">
+      <c r="S68" s="36">
         <f t="array" ref="S68">INT(SUMPRODUCT(($D$4:$D$90=$D68)*($F$4:$F$90=$F68),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D68)*($F$4:$F$90=$F68),$O$4:$O$90))</f>
         <v>1044</v>
       </c>
-      <c r="T68" s="35">
+      <c r="T68" s="36">
         <f t="shared" ref="T68:T84" si="11">INT(I68*N68/1000)</f>
         <v>2710</v>
       </c>
-      <c r="U68" s="37">
+      <c r="U68" s="38">
         <f>INT(N68*U$3)</f>
         <v>1480</v>
       </c>
-      <c r="V68" s="35">
+      <c r="V68" s="36">
         <v>1480</v>
       </c>
     </row>
@@ -8176,21 +8185,21 @@
       <c r="F69" s="30">
         <v>2</v>
       </c>
-      <c r="G69" s="30">
+      <c r="G69" s="31">
         <v>56</v>
       </c>
-      <c r="H69" s="30">
+      <c r="H69" s="31">
         <v>64</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="34">
         <f t="shared" si="6"/>
         <v>2554</v>
       </c>
-      <c r="J69" s="33">
+      <c r="J69" s="34">
         <f t="shared" si="7"/>
         <v>3926</v>
       </c>
-      <c r="K69" s="34">
+      <c r="K69" s="35">
         <f t="shared" si="8"/>
         <v>3240</v>
       </c>
@@ -8208,31 +8217,31 @@
       <c r="O69" s="30">
         <v>90</v>
       </c>
-      <c r="P69" s="35">
+      <c r="P69" s="36">
         <f t="shared" si="9"/>
         <v>10368</v>
       </c>
-      <c r="Q69" s="38">
+      <c r="Q69" s="39">
         <f t="array" ref="Q69">INT(SUMPRODUCT(($D$4:$D$90=$D69)*($F$4:$F$90=$F69),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D69)*($F$4:$F$90=$F69),$O$4:$O$90))</f>
         <v>1998</v>
       </c>
-      <c r="R69" s="39">
+      <c r="R69" s="40">
         <f t="shared" si="10"/>
         <v>-0.001</v>
       </c>
-      <c r="S69" s="35">
+      <c r="S69" s="36">
         <f t="array" ref="S69">INT(SUMPRODUCT(($D$4:$D$90=$D69)*($F$4:$F$90=$F69),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D69)*($F$4:$F$90=$F69),$O$4:$O$90))</f>
         <v>1044</v>
       </c>
-      <c r="T69" s="35">
+      <c r="T69" s="36">
         <f t="shared" si="11"/>
         <v>8172</v>
       </c>
-      <c r="U69" s="37">
+      <c r="U69" s="38">
         <f>INT(N69*U$3)</f>
         <v>2368</v>
       </c>
-      <c r="V69" s="35">
+      <c r="V69" s="36">
         <v>2368</v>
       </c>
     </row>
@@ -8258,21 +8267,21 @@
       <c r="F70" s="30">
         <v>2</v>
       </c>
-      <c r="G70" s="30">
+      <c r="G70" s="31">
         <v>33</v>
       </c>
-      <c r="H70" s="30">
+      <c r="H70" s="31">
         <v>40</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="34">
         <f t="shared" si="6"/>
         <v>433</v>
       </c>
-      <c r="J70" s="33">
+      <c r="J70" s="34">
         <f t="shared" si="7"/>
         <v>807</v>
       </c>
-      <c r="K70" s="34">
+      <c r="K70" s="35">
         <f t="shared" si="8"/>
         <v>620</v>
       </c>
@@ -8290,31 +8299,31 @@
       <c r="O70" s="30">
         <v>350</v>
       </c>
-      <c r="P70" s="35">
+      <c r="P70" s="36">
         <f t="shared" si="9"/>
         <v>124</v>
       </c>
-      <c r="Q70" s="38">
+      <c r="Q70" s="39">
         <f t="array" ref="Q70">INT(SUMPRODUCT(($D$4:$D$90=$D70)*($F$4:$F$90=$F70),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D70)*($F$4:$F$90=$F70),$O$4:$O$90))</f>
         <v>3314</v>
       </c>
-      <c r="R70" s="39">
+      <c r="R70" s="40">
         <f t="shared" si="10"/>
         <v>0.035625</v>
       </c>
-      <c r="S70" s="35">
+      <c r="S70" s="36">
         <f t="array" ref="S70">INT(SUMPRODUCT(($D$4:$D$90=$D70)*($F$4:$F$90=$F70),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D70)*($F$4:$F$90=$F70),$O$4:$O$90))</f>
         <v>2971</v>
       </c>
-      <c r="T70" s="35">
+      <c r="T70" s="36">
         <f t="shared" si="11"/>
         <v>86</v>
       </c>
-      <c r="U70" s="37">
+      <c r="U70" s="38">
         <f>INT(N70*U$3)</f>
         <v>148</v>
       </c>
-      <c r="V70" s="35">
+      <c r="V70" s="36">
         <v>148</v>
       </c>
     </row>
@@ -8340,21 +8349,21 @@
       <c r="F71" s="30">
         <v>2</v>
       </c>
-      <c r="G71" s="30">
+      <c r="G71" s="31">
         <v>40</v>
       </c>
-      <c r="H71" s="30">
+      <c r="H71" s="31">
         <v>61</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="34">
         <f t="shared" si="6"/>
         <v>807</v>
       </c>
-      <c r="J71" s="33">
+      <c r="J71" s="34">
         <f t="shared" si="7"/>
         <v>3155</v>
       </c>
-      <c r="K71" s="34">
+      <c r="K71" s="35">
         <f t="shared" si="8"/>
         <v>1981</v>
       </c>
@@ -8372,31 +8381,31 @@
       <c r="O71" s="30">
         <v>350</v>
       </c>
-      <c r="P71" s="35">
+      <c r="P71" s="36">
         <f t="shared" si="9"/>
         <v>792</v>
       </c>
-      <c r="Q71" s="38">
+      <c r="Q71" s="39">
         <f t="array" ref="Q71">INT(SUMPRODUCT(($D$4:$D$90=$D71)*($F$4:$F$90=$F71),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D71)*($F$4:$F$90=$F71),$O$4:$O$90))</f>
         <v>3314</v>
       </c>
-      <c r="R71" s="39">
+      <c r="R71" s="40">
         <f t="shared" si="10"/>
         <v>0.035625</v>
       </c>
-      <c r="S71" s="35">
+      <c r="S71" s="36">
         <f t="array" ref="S71">INT(SUMPRODUCT(($D$4:$D$90=$D71)*($F$4:$F$90=$F71),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D71)*($F$4:$F$90=$F71),$O$4:$O$90))</f>
         <v>2971</v>
       </c>
-      <c r="T71" s="35">
+      <c r="T71" s="36">
         <f t="shared" si="11"/>
         <v>322</v>
       </c>
-      <c r="U71" s="37">
+      <c r="U71" s="38">
         <f>INT(N71*U$3)</f>
         <v>296</v>
       </c>
-      <c r="V71" s="35">
+      <c r="V71" s="36">
         <v>296</v>
       </c>
     </row>
@@ -8422,21 +8431,21 @@
       <c r="F72" s="30">
         <v>2</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G72" s="31">
         <v>61</v>
       </c>
-      <c r="H72" s="30">
+      <c r="H72" s="31">
         <v>77</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="34">
         <f t="shared" si="6"/>
         <v>3155</v>
       </c>
-      <c r="J72" s="33">
+      <c r="J72" s="34">
         <f t="shared" si="7"/>
         <v>6695</v>
       </c>
-      <c r="K72" s="34">
+      <c r="K72" s="35">
         <f t="shared" si="8"/>
         <v>4925</v>
       </c>
@@ -8454,31 +8463,31 @@
       <c r="O72" s="30">
         <v>175</v>
       </c>
-      <c r="P72" s="35">
+      <c r="P72" s="36">
         <f t="shared" si="9"/>
         <v>3940</v>
       </c>
-      <c r="Q72" s="38">
+      <c r="Q72" s="39">
         <f t="array" ref="Q72">INT(SUMPRODUCT(($D$4:$D$90=$D72)*($F$4:$F$90=$F72),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D72)*($F$4:$F$90=$F72),$O$4:$O$90))</f>
         <v>3314</v>
       </c>
-      <c r="R72" s="39">
+      <c r="R72" s="40">
         <f t="shared" si="10"/>
         <v>0.035625</v>
       </c>
-      <c r="S72" s="35">
+      <c r="S72" s="36">
         <f t="array" ref="S72">INT(SUMPRODUCT(($D$4:$D$90=$D72)*($F$4:$F$90=$F72),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D72)*($F$4:$F$90=$F72),$O$4:$O$90))</f>
         <v>2971</v>
       </c>
-      <c r="T72" s="35">
+      <c r="T72" s="36">
         <f t="shared" si="11"/>
         <v>2524</v>
       </c>
-      <c r="U72" s="37">
+      <c r="U72" s="38">
         <f>INT(N72*U$3)</f>
         <v>592</v>
       </c>
-      <c r="V72" s="35">
+      <c r="V72" s="36">
         <v>592</v>
       </c>
     </row>
@@ -8504,21 +8513,21 @@
       <c r="F73" s="30">
         <v>2</v>
       </c>
-      <c r="G73" s="30">
+      <c r="G73" s="31">
         <v>77</v>
       </c>
-      <c r="H73" s="30">
+      <c r="H73" s="31">
         <v>89</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="34">
         <f t="shared" si="6"/>
         <v>6695</v>
       </c>
-      <c r="J73" s="33">
+      <c r="J73" s="34">
         <f t="shared" si="7"/>
         <v>10688</v>
       </c>
-      <c r="K73" s="34">
+      <c r="K73" s="35">
         <f t="shared" si="8"/>
         <v>8691.5</v>
       </c>
@@ -8536,31 +8545,31 @@
       <c r="O73" s="30">
         <v>87</v>
       </c>
-      <c r="P73" s="35">
+      <c r="P73" s="36">
         <f t="shared" si="9"/>
         <v>13906</v>
       </c>
-      <c r="Q73" s="38">
+      <c r="Q73" s="39">
         <f t="array" ref="Q73">INT(SUMPRODUCT(($D$4:$D$90=$D73)*($F$4:$F$90=$F73),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D73)*($F$4:$F$90=$F73),$O$4:$O$90))</f>
         <v>3314</v>
       </c>
-      <c r="R73" s="39">
+      <c r="R73" s="40">
         <f t="shared" si="10"/>
         <v>0.035625</v>
       </c>
-      <c r="S73" s="35">
+      <c r="S73" s="36">
         <f t="array" ref="S73">INT(SUMPRODUCT(($D$4:$D$90=$D73)*($F$4:$F$90=$F73),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D73)*($F$4:$F$90=$F73),$O$4:$O$90))</f>
         <v>2971</v>
       </c>
-      <c r="T73" s="35">
+      <c r="T73" s="36">
         <f t="shared" si="11"/>
         <v>10712</v>
       </c>
-      <c r="U73" s="37">
+      <c r="U73" s="38">
         <f>INT(N73*U$3)</f>
         <v>1184</v>
       </c>
-      <c r="V73" s="35">
+      <c r="V73" s="36">
         <v>1184</v>
       </c>
     </row>
@@ -8586,21 +8595,21 @@
       <c r="F74" s="30">
         <v>2</v>
       </c>
-      <c r="G74" s="30">
+      <c r="G74" s="31">
         <v>89</v>
       </c>
-      <c r="H74" s="30">
+      <c r="H74" s="31">
         <v>97</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="34">
         <f t="shared" si="6"/>
         <v>10688</v>
       </c>
-      <c r="J74" s="33">
+      <c r="J74" s="34">
         <f t="shared" si="7"/>
         <v>14114</v>
       </c>
-      <c r="K74" s="34">
+      <c r="K74" s="35">
         <f t="shared" si="8"/>
         <v>12401</v>
       </c>
@@ -8618,31 +8627,31 @@
       <c r="O74" s="30">
         <v>35</v>
       </c>
-      <c r="P74" s="35">
+      <c r="P74" s="36">
         <f t="shared" si="9"/>
         <v>31002</v>
       </c>
-      <c r="Q74" s="38">
+      <c r="Q74" s="39">
         <f t="array" ref="Q74">INT(SUMPRODUCT(($D$4:$D$90=$D74)*($F$4:$F$90=$F74),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D74)*($F$4:$F$90=$F74),$O$4:$O$90))</f>
         <v>3314</v>
       </c>
-      <c r="R74" s="39">
+      <c r="R74" s="40">
         <f t="shared" si="10"/>
         <v>0.035625</v>
       </c>
-      <c r="S74" s="35">
+      <c r="S74" s="36">
         <f t="array" ref="S74">INT(SUMPRODUCT(($D$4:$D$90=$D74)*($F$4:$F$90=$F74),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D74)*($F$4:$F$90=$F74),$O$4:$O$90))</f>
         <v>2971</v>
       </c>
-      <c r="T74" s="35">
+      <c r="T74" s="36">
         <f t="shared" si="11"/>
         <v>26720</v>
       </c>
-      <c r="U74" s="37">
+      <c r="U74" s="38">
         <f>INT(N74*U$3)</f>
         <v>1850</v>
       </c>
-      <c r="V74" s="35">
+      <c r="V74" s="36">
         <v>1850</v>
       </c>
     </row>
@@ -8668,21 +8677,21 @@
       <c r="F75" s="30">
         <v>2</v>
       </c>
-      <c r="G75" s="30">
+      <c r="G75" s="31">
         <v>35</v>
       </c>
-      <c r="H75" s="30">
+      <c r="H75" s="31">
         <v>60</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="34">
         <f t="shared" si="6"/>
         <v>220</v>
       </c>
-      <c r="J75" s="33">
+      <c r="J75" s="34">
         <f t="shared" si="7"/>
         <v>1445</v>
       </c>
-      <c r="K75" s="34">
+      <c r="K75" s="35">
         <f t="shared" si="8"/>
         <v>832.5</v>
       </c>
@@ -8700,31 +8709,31 @@
       <c r="O75" s="30">
         <v>350</v>
       </c>
-      <c r="P75" s="35">
+      <c r="P75" s="36">
         <f t="shared" si="9"/>
         <v>124</v>
       </c>
-      <c r="Q75" s="38">
+      <c r="Q75" s="39">
         <f t="array" ref="Q75">INT(SUMPRODUCT(($D$4:$D$90=$D75)*($F$4:$F$90=$F75),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D75)*($F$4:$F$90=$F75),$O$4:$O$90))</f>
         <v>3211</v>
       </c>
-      <c r="R75" s="39">
+      <c r="R75" s="40">
         <f t="shared" si="10"/>
         <v>0.00343749999999998</v>
       </c>
-      <c r="S75" s="35">
+      <c r="S75" s="36">
         <f t="array" ref="S75">INT(SUMPRODUCT(($D$4:$D$90=$D75)*($F$4:$F$90=$F75),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D75)*($F$4:$F$90=$F75),$O$4:$O$90))</f>
         <v>6684</v>
       </c>
-      <c r="T75" s="35">
+      <c r="T75" s="36">
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
-      <c r="U75" s="37">
+      <c r="U75" s="38">
         <f>INT(N75*U$3)</f>
         <v>111</v>
       </c>
-      <c r="V75" s="35">
+      <c r="V75" s="36">
         <v>111</v>
       </c>
     </row>
@@ -8750,21 +8759,21 @@
       <c r="F76" s="30">
         <v>2</v>
       </c>
-      <c r="G76" s="30">
+      <c r="G76" s="31">
         <v>60</v>
       </c>
-      <c r="H76" s="30">
+      <c r="H76" s="31">
         <v>93</v>
       </c>
-      <c r="I76" s="33">
+      <c r="I76" s="34">
         <f t="shared" si="6"/>
         <v>1445</v>
       </c>
-      <c r="J76" s="33">
+      <c r="J76" s="34">
         <f t="shared" si="7"/>
         <v>6671</v>
       </c>
-      <c r="K76" s="34">
+      <c r="K76" s="35">
         <f t="shared" si="8"/>
         <v>4058</v>
       </c>
@@ -8782,31 +8791,31 @@
       <c r="O76" s="30">
         <v>350</v>
       </c>
-      <c r="P76" s="35">
+      <c r="P76" s="36">
         <f t="shared" si="9"/>
         <v>1014</v>
       </c>
-      <c r="Q76" s="38">
+      <c r="Q76" s="39">
         <f t="array" ref="Q76">INT(SUMPRODUCT(($D$4:$D$90=$D76)*($F$4:$F$90=$F76),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D76)*($F$4:$F$90=$F76),$O$4:$O$90))</f>
         <v>3211</v>
       </c>
-      <c r="R76" s="39">
+      <c r="R76" s="40">
         <f t="shared" si="10"/>
         <v>0.00343749999999998</v>
       </c>
-      <c r="S76" s="35">
+      <c r="S76" s="36">
         <f t="array" ref="S76">INT(SUMPRODUCT(($D$4:$D$90=$D76)*($F$4:$F$90=$F76),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D76)*($F$4:$F$90=$F76),$O$4:$O$90))</f>
         <v>6684</v>
       </c>
-      <c r="T76" s="35">
+      <c r="T76" s="36">
         <f t="shared" si="11"/>
         <v>361</v>
       </c>
-      <c r="U76" s="37">
+      <c r="U76" s="38">
         <f>INT(N76*U$3)</f>
         <v>185</v>
       </c>
-      <c r="V76" s="35">
+      <c r="V76" s="36">
         <v>185</v>
       </c>
     </row>
@@ -8832,21 +8841,21 @@
       <c r="F77" s="30">
         <v>2</v>
       </c>
-      <c r="G77" s="30">
+      <c r="G77" s="31">
         <v>93</v>
       </c>
-      <c r="H77" s="30">
+      <c r="H77" s="31">
         <v>119</v>
       </c>
-      <c r="I77" s="33">
+      <c r="I77" s="34">
         <f t="shared" si="6"/>
         <v>6671</v>
       </c>
-      <c r="J77" s="33">
+      <c r="J77" s="34">
         <f t="shared" si="7"/>
         <v>15772</v>
       </c>
-      <c r="K77" s="34">
+      <c r="K77" s="35">
         <f t="shared" si="8"/>
         <v>11221.5</v>
       </c>
@@ -8864,31 +8873,31 @@
       <c r="O77" s="30">
         <v>175</v>
       </c>
-      <c r="P77" s="35">
+      <c r="P77" s="36">
         <f t="shared" si="9"/>
         <v>4488</v>
       </c>
-      <c r="Q77" s="38">
+      <c r="Q77" s="39">
         <f t="array" ref="Q77">INT(SUMPRODUCT(($D$4:$D$90=$D77)*($F$4:$F$90=$F77),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D77)*($F$4:$F$90=$F77),$O$4:$O$90))</f>
         <v>3211</v>
       </c>
-      <c r="R77" s="39">
+      <c r="R77" s="40">
         <f t="shared" si="10"/>
         <v>0.00343749999999998</v>
       </c>
-      <c r="S77" s="35">
+      <c r="S77" s="36">
         <f t="array" ref="S77">INT(SUMPRODUCT(($D$4:$D$90=$D77)*($F$4:$F$90=$F77),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D77)*($F$4:$F$90=$F77),$O$4:$O$90))</f>
         <v>6684</v>
       </c>
-      <c r="T77" s="35">
+      <c r="T77" s="36">
         <f t="shared" si="11"/>
         <v>2668</v>
       </c>
-      <c r="U77" s="37">
+      <c r="U77" s="38">
         <f>INT(N77*U$3)</f>
         <v>296</v>
       </c>
-      <c r="V77" s="35">
+      <c r="V77" s="36">
         <v>296</v>
       </c>
     </row>
@@ -8914,21 +8923,21 @@
       <c r="F78" s="30">
         <v>2</v>
       </c>
-      <c r="G78" s="30">
+      <c r="G78" s="31">
         <v>119</v>
       </c>
-      <c r="H78" s="30">
+      <c r="H78" s="31">
         <v>139</v>
       </c>
-      <c r="I78" s="33">
+      <c r="I78" s="34">
         <f t="shared" si="6"/>
         <v>15772</v>
       </c>
-      <c r="J78" s="33">
+      <c r="J78" s="34">
         <f t="shared" si="7"/>
         <v>27124</v>
       </c>
-      <c r="K78" s="34">
+      <c r="K78" s="35">
         <f t="shared" si="8"/>
         <v>21448</v>
       </c>
@@ -8946,31 +8955,31 @@
       <c r="O78" s="30">
         <v>87</v>
       </c>
-      <c r="P78" s="35">
+      <c r="P78" s="36">
         <f t="shared" si="9"/>
         <v>12868</v>
       </c>
-      <c r="Q78" s="38">
+      <c r="Q78" s="39">
         <f t="array" ref="Q78">INT(SUMPRODUCT(($D$4:$D$90=$D78)*($F$4:$F$90=$F78),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D78)*($F$4:$F$90=$F78),$O$4:$O$90))</f>
         <v>3211</v>
       </c>
-      <c r="R78" s="39">
+      <c r="R78" s="40">
         <f t="shared" si="10"/>
         <v>0.00343749999999998</v>
       </c>
-      <c r="S78" s="35">
+      <c r="S78" s="36">
         <f t="array" ref="S78">INT(SUMPRODUCT(($D$4:$D$90=$D78)*($F$4:$F$90=$F78),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D78)*($F$4:$F$90=$F78),$O$4:$O$90))</f>
         <v>6684</v>
       </c>
-      <c r="T78" s="35">
+      <c r="T78" s="36">
         <f t="shared" si="11"/>
         <v>9463</v>
       </c>
-      <c r="U78" s="37">
+      <c r="U78" s="38">
         <f>INT(N78*U$3)</f>
         <v>444</v>
       </c>
-      <c r="V78" s="35">
+      <c r="V78" s="36">
         <v>444</v>
       </c>
     </row>
@@ -8996,21 +9005,21 @@
       <c r="F79" s="30">
         <v>2</v>
       </c>
-      <c r="G79" s="30">
+      <c r="G79" s="31">
         <v>139</v>
       </c>
-      <c r="H79" s="30">
+      <c r="H79" s="31">
         <v>152</v>
       </c>
-      <c r="I79" s="33">
+      <c r="I79" s="34">
         <f t="shared" si="6"/>
         <v>27124</v>
       </c>
-      <c r="J79" s="33">
+      <c r="J79" s="34">
         <f t="shared" si="7"/>
         <v>37057</v>
       </c>
-      <c r="K79" s="34">
+      <c r="K79" s="35">
         <f t="shared" si="8"/>
         <v>32090.5</v>
       </c>
@@ -9028,31 +9037,31 @@
       <c r="O79" s="30">
         <v>35</v>
       </c>
-      <c r="P79" s="35">
+      <c r="P79" s="36">
         <f t="shared" si="9"/>
         <v>25672</v>
       </c>
-      <c r="Q79" s="38">
+      <c r="Q79" s="39">
         <f t="array" ref="Q79">INT(SUMPRODUCT(($D$4:$D$90=$D79)*($F$4:$F$90=$F79),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D79)*($F$4:$F$90=$F79),$O$4:$O$90))</f>
         <v>3211</v>
       </c>
-      <c r="R79" s="39">
+      <c r="R79" s="40">
         <f t="shared" si="10"/>
         <v>0.00343749999999998</v>
       </c>
-      <c r="S79" s="35">
+      <c r="S79" s="36">
         <f t="array" ref="S79">INT(SUMPRODUCT(($D$4:$D$90=$D79)*($F$4:$F$90=$F79),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D79)*($F$4:$F$90=$F79),$O$4:$O$90))</f>
         <v>6684</v>
       </c>
-      <c r="T79" s="35">
+      <c r="T79" s="36">
         <f t="shared" si="11"/>
         <v>21699</v>
       </c>
-      <c r="U79" s="37">
+      <c r="U79" s="38">
         <f>INT(N79*U$3)</f>
         <v>592</v>
       </c>
-      <c r="V79" s="35">
+      <c r="V79" s="36">
         <v>592</v>
       </c>
     </row>
@@ -9078,21 +9087,21 @@
       <c r="F80" s="30">
         <v>2</v>
       </c>
-      <c r="G80" s="30">
+      <c r="G80" s="31">
         <v>33</v>
       </c>
-      <c r="H80" s="30">
+      <c r="H80" s="31">
         <v>46</v>
       </c>
-      <c r="I80" s="33">
+      <c r="I80" s="34">
         <f t="shared" si="6"/>
         <v>471</v>
       </c>
-      <c r="J80" s="33">
+      <c r="J80" s="34">
         <f t="shared" si="7"/>
         <v>1395</v>
       </c>
-      <c r="K80" s="34">
+      <c r="K80" s="35">
         <f t="shared" si="8"/>
         <v>933</v>
       </c>
@@ -9110,31 +9119,31 @@
       <c r="O80" s="30">
         <v>350</v>
       </c>
-      <c r="P80" s="35">
+      <c r="P80" s="36">
         <f t="shared" si="9"/>
         <v>279</v>
       </c>
-      <c r="Q80" s="38">
+      <c r="Q80" s="39">
         <f t="array" ref="Q80">INT(SUMPRODUCT(($D$4:$D$90=$D80)*($F$4:$F$90=$F80),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D80)*($F$4:$F$90=$F80),$O$4:$O$90))</f>
         <v>3798</v>
       </c>
-      <c r="R80" s="39">
+      <c r="R80" s="40">
         <f t="shared" si="10"/>
         <v>-0.000526315789473708</v>
       </c>
-      <c r="S80" s="35">
+      <c r="S80" s="36">
         <f t="array" ref="S80">INT(SUMPRODUCT(($D$4:$D$90=$D80)*($F$4:$F$90=$F80),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D80)*($F$4:$F$90=$F80),$O$4:$O$90))</f>
         <v>4657</v>
       </c>
-      <c r="T80" s="35">
+      <c r="T80" s="36">
         <f t="shared" si="11"/>
         <v>141</v>
       </c>
-      <c r="U80" s="37">
+      <c r="U80" s="38">
         <f>INT(N80*U$3)</f>
         <v>222</v>
       </c>
-      <c r="V80" s="35">
+      <c r="V80" s="36">
         <v>222</v>
       </c>
     </row>
@@ -9160,21 +9169,21 @@
       <c r="F81" s="30">
         <v>2</v>
       </c>
-      <c r="G81" s="30">
+      <c r="G81" s="31">
         <v>46</v>
       </c>
-      <c r="H81" s="30">
+      <c r="H81" s="31">
         <v>68</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="34">
         <f t="shared" si="6"/>
         <v>1395</v>
       </c>
-      <c r="J81" s="33">
+      <c r="J81" s="34">
         <f t="shared" si="7"/>
         <v>5010</v>
       </c>
-      <c r="K81" s="34">
+      <c r="K81" s="35">
         <f t="shared" si="8"/>
         <v>3202.5</v>
       </c>
@@ -9192,31 +9201,31 @@
       <c r="O81" s="30">
         <v>350</v>
       </c>
-      <c r="P81" s="35">
+      <c r="P81" s="36">
         <f t="shared" si="9"/>
         <v>1601</v>
       </c>
-      <c r="Q81" s="38">
+      <c r="Q81" s="39">
         <f t="array" ref="Q81">INT(SUMPRODUCT(($D$4:$D$90=$D81)*($F$4:$F$90=$F81),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D81)*($F$4:$F$90=$F81),$O$4:$O$90))</f>
         <v>3798</v>
       </c>
-      <c r="R81" s="39">
+      <c r="R81" s="40">
         <f t="shared" si="10"/>
         <v>-0.000526315789473708</v>
       </c>
-      <c r="S81" s="35">
+      <c r="S81" s="36">
         <f t="array" ref="S81">INT(SUMPRODUCT(($D$4:$D$90=$D81)*($F$4:$F$90=$F81),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D81)*($F$4:$F$90=$F81),$O$4:$O$90))</f>
         <v>4657</v>
       </c>
-      <c r="T81" s="35">
+      <c r="T81" s="36">
         <f t="shared" si="11"/>
         <v>697</v>
       </c>
-      <c r="U81" s="37">
+      <c r="U81" s="38">
         <f>INT(N81*U$3)</f>
         <v>370</v>
       </c>
-      <c r="V81" s="35">
+      <c r="V81" s="36">
         <v>370</v>
       </c>
     </row>
@@ -9242,21 +9251,21 @@
       <c r="F82" s="30">
         <v>2</v>
       </c>
-      <c r="G82" s="30">
+      <c r="G82" s="31">
         <v>68</v>
       </c>
-      <c r="H82" s="30">
+      <c r="H82" s="31">
         <v>85</v>
       </c>
-      <c r="I82" s="33">
+      <c r="I82" s="34">
         <f t="shared" si="6"/>
         <v>5010</v>
       </c>
-      <c r="J82" s="33">
+      <c r="J82" s="34">
         <f t="shared" si="7"/>
         <v>10393</v>
       </c>
-      <c r="K82" s="34">
+      <c r="K82" s="35">
         <f t="shared" si="8"/>
         <v>7701.5</v>
       </c>
@@ -9274,31 +9283,31 @@
       <c r="O82" s="30">
         <v>175</v>
       </c>
-      <c r="P82" s="35">
+      <c r="P82" s="36">
         <f t="shared" si="9"/>
         <v>5391</v>
       </c>
-      <c r="Q82" s="38">
+      <c r="Q82" s="39">
         <f t="array" ref="Q82">INT(SUMPRODUCT(($D$4:$D$90=$D82)*($F$4:$F$90=$F82),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D82)*($F$4:$F$90=$F82),$O$4:$O$90))</f>
         <v>3798</v>
       </c>
-      <c r="R82" s="39">
+      <c r="R82" s="40">
         <f t="shared" si="10"/>
         <v>-0.000526315789473708</v>
       </c>
-      <c r="S82" s="35">
+      <c r="S82" s="36">
         <f t="array" ref="S82">INT(SUMPRODUCT(($D$4:$D$90=$D82)*($F$4:$F$90=$F82),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D82)*($F$4:$F$90=$F82),$O$4:$O$90))</f>
         <v>4657</v>
       </c>
-      <c r="T82" s="35">
+      <c r="T82" s="36">
         <f t="shared" si="11"/>
         <v>3507</v>
       </c>
-      <c r="U82" s="37">
+      <c r="U82" s="38">
         <f>INT(N82*U$3)</f>
         <v>518</v>
       </c>
-      <c r="V82" s="35">
+      <c r="V82" s="36">
         <v>518</v>
       </c>
     </row>
@@ -9324,21 +9333,21 @@
       <c r="F83" s="30">
         <v>2</v>
       </c>
-      <c r="G83" s="30">
+      <c r="G83" s="31">
         <v>85</v>
       </c>
-      <c r="H83" s="30">
+      <c r="H83" s="31">
         <v>98</v>
       </c>
-      <c r="I83" s="33">
+      <c r="I83" s="34">
         <f t="shared" si="6"/>
         <v>10393</v>
       </c>
-      <c r="J83" s="33">
+      <c r="J83" s="34">
         <f t="shared" si="7"/>
         <v>16553</v>
       </c>
-      <c r="K83" s="34">
+      <c r="K83" s="35">
         <f t="shared" si="8"/>
         <v>13473</v>
       </c>
@@ -9356,31 +9365,31 @@
       <c r="O83" s="30">
         <v>87</v>
       </c>
-      <c r="P83" s="35">
+      <c r="P83" s="36">
         <f t="shared" si="9"/>
         <v>13473</v>
       </c>
-      <c r="Q83" s="38">
+      <c r="Q83" s="39">
         <f t="array" ref="Q83">INT(SUMPRODUCT(($D$4:$D$90=$D83)*($F$4:$F$90=$F83),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D83)*($F$4:$F$90=$F83),$O$4:$O$90))</f>
         <v>3798</v>
       </c>
-      <c r="R83" s="39">
+      <c r="R83" s="40">
         <f t="shared" si="10"/>
         <v>-0.000526315789473708</v>
       </c>
-      <c r="S83" s="35">
+      <c r="S83" s="36">
         <f t="array" ref="S83">INT(SUMPRODUCT(($D$4:$D$90=$D83)*($F$4:$F$90=$F83),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D83)*($F$4:$F$90=$F83),$O$4:$O$90))</f>
         <v>4657</v>
       </c>
-      <c r="T83" s="35">
+      <c r="T83" s="36">
         <f t="shared" si="11"/>
         <v>10393</v>
       </c>
-      <c r="U83" s="37">
+      <c r="U83" s="38">
         <f>INT(N83*U$3)</f>
         <v>740</v>
       </c>
-      <c r="V83" s="35">
+      <c r="V83" s="36">
         <v>740</v>
       </c>
     </row>
@@ -9406,21 +9415,21 @@
       <c r="F84" s="30">
         <v>2</v>
       </c>
-      <c r="G84" s="30">
+      <c r="G84" s="31">
         <v>98</v>
       </c>
-      <c r="H84" s="30">
+      <c r="H84" s="31">
         <v>107</v>
       </c>
-      <c r="I84" s="33">
+      <c r="I84" s="34">
         <f t="shared" si="6"/>
         <v>16553</v>
       </c>
-      <c r="J84" s="33">
+      <c r="J84" s="34">
         <f t="shared" si="7"/>
         <v>22062</v>
       </c>
-      <c r="K84" s="34">
+      <c r="K84" s="35">
         <f t="shared" si="8"/>
         <v>19307.5</v>
       </c>
@@ -9438,31 +9447,31 @@
       <c r="O84" s="30">
         <v>35</v>
       </c>
-      <c r="P84" s="35">
+      <c r="P84" s="36">
         <f t="shared" si="9"/>
         <v>28961</v>
       </c>
-      <c r="Q84" s="38">
+      <c r="Q84" s="39">
         <f t="array" ref="Q84">INT(SUMPRODUCT(($D$4:$D$90=$D84)*($F$4:$F$90=$F84),$P$4:$P$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D84)*($F$4:$F$90=$F84),$O$4:$O$90))</f>
         <v>3798</v>
       </c>
-      <c r="R84" s="39">
+      <c r="R84" s="40">
         <f t="shared" si="10"/>
         <v>-0.000526315789473708</v>
       </c>
-      <c r="S84" s="35">
+      <c r="S84" s="36">
         <f t="array" ref="S84">INT(SUMPRODUCT(($D$4:$D$90=$D84)*($F$4:$F$90=$F84),$K$4:$K$90,$O$4:$O$90)/SUMPRODUCT(($D$4:$D$90=$D84)*($F$4:$F$90=$F84),$O$4:$O$90))</f>
         <v>4657</v>
       </c>
-      <c r="T84" s="35">
+      <c r="T84" s="36">
         <f t="shared" si="11"/>
         <v>24829</v>
       </c>
-      <c r="U84" s="37">
+      <c r="U84" s="38">
         <f>INT(N84*U$3)</f>
         <v>1110</v>
       </c>
-      <c r="V84" s="35">
+      <c r="V84" s="36">
         <v>1110</v>
       </c>
     </row>
@@ -9473,14 +9482,14 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="T85" s="7"/>
-      <c r="U85" s="37"/>
+      <c r="U85" s="38"/>
       <c r="V85" s="7"/>
     </row>
     <row r="86" spans="3:22">
@@ -9490,14 +9499,14 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
       <c r="T86" s="7"/>
-      <c r="U86" s="37"/>
+      <c r="U86" s="38"/>
       <c r="V86" s="7"/>
     </row>
     <row r="87" spans="3:22">
@@ -9507,14 +9516,14 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
       <c r="T87" s="7"/>
-      <c r="U87" s="37"/>
+      <c r="U87" s="38"/>
       <c r="V87" s="7"/>
     </row>
     <row r="88" spans="3:22">
@@ -9524,14 +9533,14 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
       <c r="T88" s="7"/>
-      <c r="U88" s="37"/>
+      <c r="U88" s="38"/>
       <c r="V88" s="7"/>
     </row>
     <row r="89" spans="3:22">
@@ -9541,14 +9550,14 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
       <c r="T89" s="7"/>
-      <c r="U89" s="37"/>
+      <c r="U89" s="38"/>
       <c r="V89" s="7"/>
     </row>
     <row r="90" spans="3:22">
@@ -9558,14 +9567,14 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="T90" s="7"/>
-      <c r="U90" s="37"/>
+      <c r="U90" s="38"/>
       <c r="V90" s="7"/>
     </row>
     <row r="91" spans="3:22">
@@ -9575,14 +9584,14 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="T91" s="7"/>
-      <c r="U91" s="37"/>
+      <c r="U91" s="38"/>
       <c r="V91" s="7"/>
     </row>
     <row r="92" spans="3:22">
@@ -9592,14 +9601,14 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
       <c r="T92" s="7"/>
-      <c r="U92" s="37"/>
+      <c r="U92" s="38"/>
       <c r="V92" s="7"/>
     </row>
     <row r="93" spans="3:22">
@@ -9609,14 +9618,14 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
       <c r="T93" s="7"/>
-      <c r="U93" s="37"/>
+      <c r="U93" s="38"/>
       <c r="V93" s="7"/>
     </row>
     <row r="94" spans="3:22">
@@ -9626,14 +9635,14 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
       <c r="T94" s="7"/>
-      <c r="U94" s="37"/>
+      <c r="U94" s="38"/>
       <c r="V94" s="7"/>
     </row>
     <row r="95" spans="3:22">
@@ -9643,14 +9652,14 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
       <c r="T95" s="7"/>
-      <c r="U95" s="37"/>
+      <c r="U95" s="38"/>
       <c r="V95" s="7"/>
     </row>
     <row r="96" spans="3:22">
@@ -9660,14 +9669,14 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="34"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
       <c r="T96" s="7"/>
-      <c r="U96" s="37"/>
+      <c r="U96" s="38"/>
       <c r="V96" s="7"/>
     </row>
     <row r="97" spans="3:22">
@@ -9677,14 +9686,14 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="34"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
       <c r="T97" s="7"/>
-      <c r="U97" s="37"/>
+      <c r="U97" s="38"/>
       <c r="V97" s="7"/>
     </row>
     <row r="98" spans="3:22">
@@ -9694,119 +9703,119 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="T98" s="7"/>
-      <c r="U98" s="37"/>
+      <c r="U98" s="38"/>
       <c r="V98" s="7"/>
     </row>
     <row r="99" spans="20:22">
       <c r="T99" s="7"/>
-      <c r="U99" s="37"/>
+      <c r="U99" s="38"/>
       <c r="V99" s="7"/>
     </row>
     <row r="100" spans="20:22">
       <c r="T100" s="7"/>
-      <c r="U100" s="37"/>
+      <c r="U100" s="38"/>
       <c r="V100" s="7"/>
     </row>
     <row r="101" spans="20:22">
       <c r="T101" s="7"/>
-      <c r="U101" s="37"/>
+      <c r="U101" s="38"/>
       <c r="V101" s="7"/>
     </row>
     <row r="102" spans="20:22">
       <c r="T102" s="7"/>
-      <c r="U102" s="37"/>
+      <c r="U102" s="38"/>
       <c r="V102" s="7"/>
     </row>
     <row r="103" spans="20:22">
       <c r="T103" s="7"/>
-      <c r="U103" s="37"/>
+      <c r="U103" s="38"/>
       <c r="V103" s="7"/>
     </row>
     <row r="104" spans="20:22">
       <c r="T104" s="7"/>
-      <c r="U104" s="37"/>
+      <c r="U104" s="38"/>
       <c r="V104" s="7"/>
     </row>
     <row r="105" spans="20:22">
       <c r="T105" s="7"/>
-      <c r="U105" s="37"/>
+      <c r="U105" s="38"/>
       <c r="V105" s="7"/>
     </row>
     <row r="106" spans="20:22">
       <c r="T106" s="7"/>
-      <c r="U106" s="37"/>
+      <c r="U106" s="38"/>
       <c r="V106" s="7"/>
     </row>
     <row r="107" spans="20:22">
       <c r="T107" s="7"/>
-      <c r="U107" s="37"/>
+      <c r="U107" s="38"/>
       <c r="V107" s="7"/>
     </row>
     <row r="108" spans="20:22">
       <c r="T108" s="7"/>
-      <c r="U108" s="37"/>
+      <c r="U108" s="38"/>
       <c r="V108" s="7"/>
     </row>
     <row r="109" spans="20:22">
       <c r="T109" s="7"/>
-      <c r="U109" s="37"/>
+      <c r="U109" s="38"/>
       <c r="V109" s="7"/>
     </row>
     <row r="110" spans="20:22">
       <c r="T110" s="7"/>
-      <c r="U110" s="37"/>
+      <c r="U110" s="38"/>
       <c r="V110" s="7"/>
     </row>
     <row r="111" spans="20:22">
       <c r="T111" s="7"/>
-      <c r="U111" s="37"/>
+      <c r="U111" s="38"/>
       <c r="V111" s="7"/>
     </row>
     <row r="112" spans="20:22">
       <c r="T112" s="7"/>
-      <c r="U112" s="37"/>
+      <c r="U112" s="38"/>
       <c r="V112" s="7"/>
     </row>
     <row r="113" spans="20:22">
       <c r="T113" s="7"/>
-      <c r="U113" s="37"/>
+      <c r="U113" s="38"/>
       <c r="V113" s="7"/>
     </row>
     <row r="114" spans="20:22">
       <c r="T114" s="7"/>
-      <c r="U114" s="37"/>
+      <c r="U114" s="38"/>
       <c r="V114" s="7"/>
     </row>
     <row r="115" spans="20:22">
       <c r="T115" s="7"/>
-      <c r="U115" s="37"/>
+      <c r="U115" s="38"/>
       <c r="V115" s="7"/>
     </row>
     <row r="116" spans="20:22">
       <c r="T116" s="7"/>
-      <c r="U116" s="37"/>
+      <c r="U116" s="38"/>
       <c r="V116" s="7"/>
     </row>
     <row r="117" spans="20:22">
       <c r="T117" s="7"/>
-      <c r="U117" s="37"/>
+      <c r="U117" s="38"/>
       <c r="V117" s="7"/>
     </row>
     <row r="118" spans="20:22">
       <c r="T118" s="7"/>
-      <c r="U118" s="37"/>
+      <c r="U118" s="38"/>
       <c r="V118" s="7"/>
     </row>
     <row r="119" spans="20:22">
       <c r="T119" s="7"/>
-      <c r="U119" s="37"/>
+      <c r="U119" s="38"/>
       <c r="V119" s="7"/>
     </row>
   </sheetData>
@@ -9822,7 +9831,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6dcfd26b-9b1e-4d3c-82e7-7056bc309062}</x14:id>
+          <x14:id>{ef4585c1-a50a-40e9-8af1-cbaec0f60245}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9834,7 +9843,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6dcfd26b-9b1e-4d3c-82e7-7056bc309062}">
+          <x14:cfRule type="dataBar" id="{ef4585c1-a50a-40e9-8af1-cbaec0f60245}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -10689,7 +10698,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -11868,8 +11877,8 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="6"/>
